--- a/Bio/nutrition spiruline chlorella.xlsx
+++ b/Bio/nutrition spiruline chlorella.xlsx
@@ -35,14 +35,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mha+ZrpVLjNnTfS84v93Qxt7V9fYQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miv0/iB/MwUJxXKRWpX+bX+t+tBhw=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="97">
   <si>
     <t>needed</t>
   </si>
@@ -80,6 +80,9 @@
     <t>quantité</t>
   </si>
   <si>
+    <t>dried</t>
+  </si>
+  <si>
     <t>g</t>
   </si>
   <si>
@@ -96,6 +99,12 @@
   </si>
   <si>
     <t>fat</t>
+  </si>
+  <si>
+    <t>wet</t>
+  </si>
+  <si>
+    <t>water content</t>
   </si>
   <si>
     <t>Vtamin A</t>
@@ -607,7 +616,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="68">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -668,6 +677,9 @@
     <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="8" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="7" fillId="2" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -678,6 +690,9 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1187,13 +1202,15 @@
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="21">
-        <v>400.0</v>
-      </c>
-      <c r="H3" s="14"/>
+        <v>50.0</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="17">
         <v>100.0</v>
       </c>
-      <c r="J3" s="22"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="15">
         <v>50.0</v>
       </c>
@@ -1202,7 +1219,7 @@
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="19"/>
@@ -1219,24 +1236,24 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="23">
+      <c r="C4" s="24">
         <v>2000.0</v>
       </c>
       <c r="D4" s="16"/>
-      <c r="E4" s="24">
+      <c r="E4" s="25">
         <f>81/28*E3</f>
         <v>289.2857143</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13">
         <f>81/28*G3</f>
-        <v>1157.142857</v>
+        <v>144.6428571</v>
       </c>
       <c r="H4" s="14"/>
-      <c r="I4" s="23">
+      <c r="I4" s="24">
         <f>115/28*I3</f>
         <v>410.7142857</v>
       </c>
@@ -1250,10 +1267,10 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="1"/>
-      <c r="R4" s="24">
+      <c r="R4" s="25">
         <v>28.0</v>
       </c>
       <c r="S4" s="13"/>
@@ -1269,24 +1286,24 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="23">
+      <c r="C5" s="24">
         <v>50.0</v>
       </c>
       <c r="D5" s="16"/>
-      <c r="E5" s="24">
+      <c r="E5" s="25">
         <f>16/28*E3</f>
         <v>57.14285714</v>
       </c>
       <c r="F5" s="13"/>
-      <c r="G5" s="25">
+      <c r="G5" s="26">
         <f>16/28*G3</f>
-        <v>228.5714286</v>
+        <v>28.57142857</v>
       </c>
       <c r="H5" s="14"/>
-      <c r="I5" s="23">
+      <c r="I5" s="24">
         <f>16/28*I3</f>
         <v>57.14285714</v>
       </c>
@@ -1301,11 +1318,11 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="24">
+      <c r="R5" s="25">
         <v>5.74</v>
       </c>
       <c r="S5" s="13"/>
-      <c r="T5" s="25">
+      <c r="T5" s="26">
         <f>16/28*T3</f>
         <v>28.57142857</v>
       </c>
@@ -1318,18 +1335,18 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="23">
+      <c r="C6" s="24">
         <v>260.0</v>
       </c>
       <c r="D6" s="16"/>
-      <c r="E6" s="24"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="25"/>
+      <c r="G6" s="26"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="23"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="16"/>
@@ -1338,11 +1355,11 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="24">
+      <c r="R6" s="25">
         <v>2.39</v>
       </c>
       <c r="S6" s="13"/>
-      <c r="T6" s="25"/>
+      <c r="T6" s="26"/>
       <c r="U6" s="14"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1352,20 +1369,20 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="23">
+      <c r="C7" s="24">
         <v>60.0</v>
       </c>
       <c r="D7" s="16">
         <v>70.0</v>
       </c>
-      <c r="E7" s="24"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="25"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="23"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="16"/>
@@ -1373,14 +1390,14 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q7" s="1"/>
-      <c r="R7" s="24">
+      <c r="R7" s="25">
         <v>0.772</v>
       </c>
       <c r="S7" s="13"/>
-      <c r="T7" s="25"/>
+      <c r="T7" s="26"/>
       <c r="U7" s="14"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -1391,13 +1408,18 @@
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="23"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="24"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="26">
+        <f>G3/(1-0.8)</f>
+        <v>250</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="24"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="16"/>
@@ -1406,9 +1428,9 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="24"/>
+      <c r="R8" s="25"/>
       <c r="S8" s="13"/>
-      <c r="T8" s="25"/>
+      <c r="T8" s="26"/>
       <c r="U8" s="14"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -1419,13 +1441,18 @@
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="23"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="24"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="26">
+        <f>G8-G3</f>
+        <v>200</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="24"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="16"/>
@@ -1434,9 +1461,9 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="24"/>
+      <c r="R9" s="25"/>
       <c r="S9" s="13"/>
-      <c r="T9" s="25"/>
+      <c r="T9" s="26"/>
       <c r="U9" s="14"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -1447,13 +1474,13 @@
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="23"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="24"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="25"/>
+      <c r="G10" s="27"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="23"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="16"/>
@@ -1462,9 +1489,9 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="24"/>
+      <c r="R10" s="25"/>
       <c r="S10" s="13"/>
-      <c r="T10" s="25"/>
+      <c r="T10" s="26"/>
       <c r="U10" s="14"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -1475,13 +1502,13 @@
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="23"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="24"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="25"/>
+      <c r="G11" s="26"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="23"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="16"/>
@@ -1490,9 +1517,9 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="24"/>
+      <c r="R11" s="25"/>
       <c r="S11" s="13"/>
-      <c r="T11" s="25"/>
+      <c r="T11" s="26"/>
       <c r="U11" s="14"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -1503,13 +1530,13 @@
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="23"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="24"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="25"/>
+      <c r="G12" s="26"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="23"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="16"/>
@@ -1518,9 +1545,9 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="24"/>
+      <c r="R12" s="25"/>
       <c r="S12" s="13"/>
-      <c r="T12" s="25"/>
+      <c r="T12" s="26"/>
       <c r="U12" s="14"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -1531,13 +1558,13 @@
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="23"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="24"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="25"/>
+      <c r="G13" s="26"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="23"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="16"/>
@@ -1546,9 +1573,9 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="24"/>
+      <c r="R13" s="25"/>
       <c r="S13" s="13"/>
-      <c r="T13" s="25"/>
+      <c r="T13" s="26"/>
       <c r="U13" s="14"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -1559,13 +1586,13 @@
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="23"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="24"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="25"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="23"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="16"/>
@@ -1574,9 +1601,9 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="24"/>
+      <c r="R14" s="25"/>
       <c r="S14" s="13"/>
-      <c r="T14" s="25"/>
+      <c r="T14" s="26"/>
       <c r="U14" s="14"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -1587,13 +1614,13 @@
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="23"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="24"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="25"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="23"/>
+      <c r="I15" s="24"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="16"/>
@@ -1602,9 +1629,9 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="24"/>
+      <c r="R15" s="25"/>
       <c r="S15" s="13"/>
-      <c r="T15" s="25"/>
+      <c r="T15" s="26"/>
       <c r="U15" s="14"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -1615,13 +1642,13 @@
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="23"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="25"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="23"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="16"/>
@@ -1630,9 +1657,9 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="24"/>
+      <c r="R16" s="25"/>
       <c r="S16" s="13"/>
-      <c r="T16" s="25"/>
+      <c r="T16" s="26"/>
       <c r="U16" s="14"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -1643,13 +1670,13 @@
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="23"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="24"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="25"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="23"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="16"/>
@@ -1658,9 +1685,9 @@
       <c r="O17" s="1"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="24"/>
+      <c r="R17" s="25"/>
       <c r="S17" s="13"/>
-      <c r="T17" s="25"/>
+      <c r="T17" s="26"/>
       <c r="U17" s="14"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -1671,13 +1698,13 @@
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="23"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="24"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="25"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="23"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="16"/>
@@ -1686,9 +1713,9 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="24"/>
+      <c r="R18" s="25"/>
       <c r="S18" s="13"/>
-      <c r="T18" s="25"/>
+      <c r="T18" s="26"/>
       <c r="U18" s="14"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -1698,37 +1725,37 @@
     </row>
     <row r="19" ht="25.5" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>22</v>
       </c>
       <c r="C19" s="17">
         <v>900.0</v>
       </c>
-      <c r="D19" s="27">
+      <c r="D19" s="29">
         <v>3000.0</v>
       </c>
-      <c r="E19" s="28">
+      <c r="E19" s="30">
         <v>342.0</v>
       </c>
-      <c r="F19" s="29">
+      <c r="F19" s="31">
         <f t="shared" ref="F19:F20" si="1">E19/C19</f>
         <v>0.38</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="26">
         <f t="shared" ref="G19:G20" si="2">$G$3/$E$3*E19</f>
-        <v>1368</v>
-      </c>
-      <c r="H19" s="30">
+        <v>171</v>
+      </c>
+      <c r="H19" s="32">
         <f t="shared" ref="H19:H20" si="3">G19/C19</f>
-        <v>1.52</v>
-      </c>
-      <c r="I19" s="31">
+        <v>0.19</v>
+      </c>
+      <c r="I19" s="33">
         <f>58331/0.6</f>
         <v>97218.33333</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="23">
         <f t="shared" ref="J19:J20" si="4">I19/C19</f>
         <v>108.0203704</v>
       </c>
@@ -1736,35 +1763,35 @@
         <f t="shared" ref="K19:K20" si="5">$K$3/$I$3*I19</f>
         <v>48609.16667</v>
       </c>
-      <c r="L19" s="30">
+      <c r="L19" s="32">
         <f t="shared" ref="L19:L20" si="6">K19/C19</f>
         <v>54.01018519</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M19" s="34">
         <f t="shared" ref="M19:M33" si="7">G19+K19</f>
-        <v>49977.16667</v>
-      </c>
-      <c r="N19" s="30">
+        <v>48780.16667</v>
+      </c>
+      <c r="N19" s="32">
         <f t="shared" ref="N19:N33" si="8">M19/C19</f>
-        <v>55.53018519</v>
+        <v>54.20018519</v>
       </c>
       <c r="O19" s="1"/>
-      <c r="P19" s="26" t="s">
-        <v>20</v>
+      <c r="P19" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="Q19" s="1"/>
-      <c r="R19" s="28">
+      <c r="R19" s="30">
         <v>5.7</v>
       </c>
-      <c r="S19" s="29">
+      <c r="S19" s="31">
         <f t="shared" ref="S19:S20" si="9">R19/D19</f>
         <v>0.0019</v>
       </c>
-      <c r="T19" s="25">
+      <c r="T19" s="26">
         <f t="shared" ref="T19:T49" si="10">T$4/R$4*R19</f>
         <v>61.07142857</v>
       </c>
-      <c r="U19" s="30">
+      <c r="U19" s="32">
         <f>T19/C19</f>
         <v>0.06785714286</v>
       </c>
@@ -1775,26 +1802,26 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" ht="25.5" customHeight="1">
-      <c r="B20" s="26" t="s">
-        <v>21</v>
+      <c r="B20" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="29" t="str">
+      <c r="E20" s="35"/>
+      <c r="F20" s="31" t="str">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="26">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H20" s="30" t="str">
+      <c r="H20" s="32" t="str">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I20" s="17"/>
-      <c r="J20" s="22" t="str">
+      <c r="J20" s="23" t="str">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1802,31 +1829,31 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L20" s="30" t="str">
+      <c r="L20" s="32" t="str">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="32">
+      <c r="M20" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N20" s="30" t="str">
+      <c r="N20" s="32" t="str">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O20" s="1"/>
-      <c r="P20" s="26"/>
+      <c r="P20" s="28"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="33"/>
-      <c r="S20" s="29" t="str">
+      <c r="R20" s="35"/>
+      <c r="S20" s="31" t="str">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T20" s="25">
+      <c r="T20" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U20" s="30" t="str">
+      <c r="U20" s="32" t="str">
         <f>T20/P20</f>
         <v>#DIV/0!</v>
       </c>
@@ -1840,32 +1867,32 @@
       <c r="B21" s="1"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="30"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="32"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="22"/>
+      <c r="J21" s="23"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="32">
+      <c r="L21" s="32"/>
+      <c r="M21" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N21" s="30" t="str">
+      <c r="N21" s="32" t="str">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="1"/>
-      <c r="P21" s="34"/>
+      <c r="P21" s="36"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="25">
+      <c r="R21" s="35"/>
+      <c r="S21" s="31"/>
+      <c r="T21" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U21" s="30"/>
+      <c r="U21" s="32"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -1874,34 +1901,34 @@
     </row>
     <row r="22" ht="25.5" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C22" s="17">
         <v>1.2</v>
       </c>
       <c r="D22" s="18"/>
-      <c r="E22" s="33">
+      <c r="E22" s="35">
         <v>2.38</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="31">
         <f t="shared" ref="F22:F33" si="11">E22/C22</f>
         <v>1.983333333</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="26">
         <f t="shared" ref="G22:G33" si="12">$G$3/$E$3*E22</f>
-        <v>9.52</v>
-      </c>
-      <c r="H22" s="30">
+        <v>1.19</v>
+      </c>
+      <c r="H22" s="32">
         <f t="shared" ref="H22:H33" si="13">G22/C22</f>
-        <v>7.933333333</v>
+        <v>0.9916666667</v>
       </c>
       <c r="I22" s="17">
         <v>2.0</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="23">
         <f t="shared" ref="J22:J33" si="14">I22/C22</f>
         <v>1.666666667</v>
       </c>
@@ -1909,35 +1936,35 @@
         <f t="shared" ref="K22:K33" si="15">$K$3/$I$3*I22</f>
         <v>1</v>
       </c>
-      <c r="L22" s="30">
+      <c r="L22" s="32">
         <f t="shared" ref="L22:L33" si="16">K22/C22</f>
         <v>0.8333333333</v>
       </c>
-      <c r="M22" s="32">
+      <c r="M22" s="34">
         <f t="shared" si="7"/>
-        <v>10.52</v>
-      </c>
-      <c r="N22" s="30">
+        <v>2.19</v>
+      </c>
+      <c r="N22" s="32">
         <f t="shared" si="8"/>
-        <v>8.766666667</v>
+        <v>1.825</v>
       </c>
       <c r="O22" s="1"/>
-      <c r="P22" s="26" t="s">
-        <v>24</v>
+      <c r="P22" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="Q22" s="1"/>
-      <c r="R22" s="33">
+      <c r="R22" s="35">
         <v>0.238</v>
       </c>
-      <c r="S22" s="29">
+      <c r="S22" s="31">
         <f t="shared" ref="S22:S33" si="17">R22/C22</f>
         <v>0.1983333333</v>
       </c>
-      <c r="T22" s="25">
+      <c r="T22" s="26">
         <f t="shared" si="10"/>
         <v>2.55</v>
       </c>
-      <c r="U22" s="30">
+      <c r="U22" s="32">
         <f t="shared" ref="U22:U59" si="18">T22/C22</f>
         <v>2.125</v>
       </c>
@@ -1949,34 +1976,34 @@
     </row>
     <row r="23" ht="25.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C23" s="17">
         <v>1.3</v>
       </c>
       <c r="D23" s="18"/>
-      <c r="E23" s="33">
+      <c r="E23" s="35">
         <v>3.67</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="31">
         <f t="shared" si="11"/>
         <v>2.823076923</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="26">
         <f t="shared" si="12"/>
-        <v>14.68</v>
-      </c>
-      <c r="H23" s="30">
+        <v>1.835</v>
+      </c>
+      <c r="H23" s="32">
         <f t="shared" si="13"/>
-        <v>11.29230769</v>
-      </c>
-      <c r="I23" s="35">
+        <v>1.411538462</v>
+      </c>
+      <c r="I23" s="37">
         <v>4.533</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="23">
         <f t="shared" si="14"/>
         <v>3.486923077</v>
       </c>
@@ -1984,76 +2011,76 @@
         <f t="shared" si="15"/>
         <v>2.2665</v>
       </c>
-      <c r="L23" s="30">
+      <c r="L23" s="32">
         <f t="shared" si="16"/>
         <v>1.743461538</v>
       </c>
-      <c r="M23" s="32">
+      <c r="M23" s="34">
         <f t="shared" si="7"/>
-        <v>16.9465</v>
-      </c>
-      <c r="N23" s="30">
+        <v>4.1015</v>
+      </c>
+      <c r="N23" s="32">
         <f t="shared" si="8"/>
-        <v>13.03576923</v>
+        <v>3.155</v>
       </c>
       <c r="O23" s="1"/>
-      <c r="P23" s="26" t="s">
-        <v>24</v>
+      <c r="P23" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="Q23" s="1"/>
-      <c r="R23" s="33">
+      <c r="R23" s="35">
         <v>0.367</v>
       </c>
-      <c r="S23" s="29">
+      <c r="S23" s="31">
         <f t="shared" si="17"/>
         <v>0.2823076923</v>
       </c>
-      <c r="T23" s="25">
+      <c r="T23" s="26">
         <f t="shared" si="10"/>
         <v>3.932142857</v>
       </c>
-      <c r="U23" s="30">
+      <c r="U23" s="32">
         <f t="shared" si="18"/>
         <v>3.024725275</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="36" t="s">
-        <v>27</v>
+      <c r="X23" s="38" t="s">
+        <v>30</v>
       </c>
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
     <row r="24" ht="25.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>32</v>
       </c>
       <c r="C24" s="17">
         <v>16.0</v>
       </c>
       <c r="D24" s="18"/>
-      <c r="E24" s="33">
+      <c r="E24" s="35">
         <v>12.82</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F24" s="31">
         <f t="shared" si="11"/>
         <v>0.80125</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="26">
         <f t="shared" si="12"/>
-        <v>51.28</v>
-      </c>
-      <c r="H24" s="30">
+        <v>6.41</v>
+      </c>
+      <c r="H24" s="32">
         <f t="shared" si="13"/>
-        <v>3.205</v>
-      </c>
-      <c r="I24" s="35">
+        <v>0.400625</v>
+      </c>
+      <c r="I24" s="37">
         <v>26.667</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="23">
         <f t="shared" si="14"/>
         <v>1.6666875</v>
       </c>
@@ -2061,35 +2088,35 @@
         <f t="shared" si="15"/>
         <v>13.3335</v>
       </c>
-      <c r="L24" s="30">
+      <c r="L24" s="32">
         <f t="shared" si="16"/>
         <v>0.83334375</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M24" s="34">
         <f t="shared" si="7"/>
-        <v>64.6135</v>
-      </c>
-      <c r="N24" s="30">
+        <v>19.7435</v>
+      </c>
+      <c r="N24" s="32">
         <f t="shared" si="8"/>
-        <v>4.03834375</v>
+        <v>1.23396875</v>
       </c>
       <c r="O24" s="1"/>
-      <c r="P24" s="26" t="s">
-        <v>24</v>
+      <c r="P24" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="Q24" s="1"/>
-      <c r="R24" s="33">
+      <c r="R24" s="35">
         <v>1.28</v>
       </c>
-      <c r="S24" s="29">
+      <c r="S24" s="31">
         <f t="shared" si="17"/>
         <v>0.08</v>
       </c>
-      <c r="T24" s="25">
+      <c r="T24" s="26">
         <f t="shared" si="10"/>
         <v>13.71428571</v>
       </c>
-      <c r="U24" s="30">
+      <c r="U24" s="32">
         <f t="shared" si="18"/>
         <v>0.8571428571</v>
       </c>
@@ -2101,32 +2128,32 @@
     </row>
     <row r="25" ht="25.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C25" s="17">
         <v>5.0</v>
       </c>
       <c r="D25" s="18"/>
-      <c r="E25" s="33">
+      <c r="E25" s="35">
         <v>3.48</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F25" s="31">
         <f t="shared" si="11"/>
         <v>0.696</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="26">
         <f t="shared" si="12"/>
-        <v>13.92</v>
-      </c>
-      <c r="H25" s="30">
+        <v>1.74</v>
+      </c>
+      <c r="H25" s="32">
         <f t="shared" si="13"/>
-        <v>2.784</v>
+        <v>0.348</v>
       </c>
       <c r="I25" s="17"/>
-      <c r="J25" s="22">
+      <c r="J25" s="23">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -2134,33 +2161,33 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L25" s="30">
+      <c r="L25" s="32">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M25" s="32">
+      <c r="M25" s="34">
         <f t="shared" si="7"/>
-        <v>13.92</v>
-      </c>
-      <c r="N25" s="30">
+        <v>1.74</v>
+      </c>
+      <c r="N25" s="32">
         <f t="shared" si="8"/>
-        <v>2.784</v>
+        <v>0.348</v>
       </c>
       <c r="O25" s="1"/>
-      <c r="P25" s="26" t="s">
-        <v>24</v>
+      <c r="P25" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="Q25" s="1"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="29">
+      <c r="R25" s="35"/>
+      <c r="S25" s="31">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T25" s="25">
+      <c r="T25" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U25" s="30">
+      <c r="U25" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -2172,32 +2199,32 @@
     </row>
     <row r="26" ht="25.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>36</v>
       </c>
       <c r="C26" s="17">
         <v>1.3</v>
       </c>
       <c r="D26" s="18"/>
-      <c r="E26" s="33">
+      <c r="E26" s="35">
         <v>0.364</v>
       </c>
-      <c r="F26" s="29">
+      <c r="F26" s="31">
         <f t="shared" si="11"/>
         <v>0.28</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="26">
         <f t="shared" si="12"/>
-        <v>1.456</v>
-      </c>
-      <c r="H26" s="30">
+        <v>0.182</v>
+      </c>
+      <c r="H26" s="32">
         <f t="shared" si="13"/>
-        <v>1.12</v>
+        <v>0.14</v>
       </c>
       <c r="I26" s="17"/>
-      <c r="J26" s="22">
+      <c r="J26" s="23">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -2205,35 +2232,35 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="32">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M26" s="34">
         <f t="shared" si="7"/>
-        <v>1.456</v>
-      </c>
-      <c r="N26" s="30">
+        <v>0.182</v>
+      </c>
+      <c r="N26" s="32">
         <f t="shared" si="8"/>
-        <v>1.12</v>
+        <v>0.14</v>
       </c>
       <c r="O26" s="1"/>
-      <c r="P26" s="26" t="s">
-        <v>24</v>
+      <c r="P26" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="Q26" s="1"/>
-      <c r="R26" s="33">
+      <c r="R26" s="35">
         <v>0.0364</v>
       </c>
-      <c r="S26" s="29">
+      <c r="S26" s="31">
         <f t="shared" si="17"/>
         <v>0.028</v>
       </c>
-      <c r="T26" s="25">
+      <c r="T26" s="26">
         <f t="shared" si="10"/>
         <v>0.39</v>
       </c>
-      <c r="U26" s="30">
+      <c r="U26" s="32">
         <f t="shared" si="18"/>
         <v>0.3</v>
       </c>
@@ -2245,32 +2272,32 @@
     </row>
     <row r="27" ht="25.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C27" s="17">
         <v>30.0</v>
       </c>
       <c r="D27" s="18"/>
-      <c r="E27" s="33">
+      <c r="E27" s="35">
         <v>94.0</v>
       </c>
-      <c r="F27" s="29">
+      <c r="F27" s="31">
         <f t="shared" si="11"/>
         <v>3.133333333</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="26">
         <f t="shared" si="12"/>
-        <v>376</v>
-      </c>
-      <c r="H27" s="30">
+        <v>47</v>
+      </c>
+      <c r="H27" s="32">
         <f t="shared" si="13"/>
-        <v>12.53333333</v>
+        <v>1.566666667</v>
       </c>
       <c r="I27" s="17"/>
-      <c r="J27" s="22">
+      <c r="J27" s="23">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -2278,33 +2305,33 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L27" s="30">
+      <c r="L27" s="32">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M27" s="32">
+      <c r="M27" s="34">
         <f t="shared" si="7"/>
-        <v>376</v>
-      </c>
-      <c r="N27" s="30">
+        <v>47</v>
+      </c>
+      <c r="N27" s="32">
         <f t="shared" si="8"/>
-        <v>12.53333333</v>
+        <v>1.566666667</v>
       </c>
       <c r="O27" s="1"/>
-      <c r="P27" s="26" t="s">
-        <v>20</v>
+      <c r="P27" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="Q27" s="1"/>
-      <c r="R27" s="33"/>
-      <c r="S27" s="29">
+      <c r="R27" s="35"/>
+      <c r="S27" s="31">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T27" s="25">
+      <c r="T27" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U27" s="30">
+      <c r="U27" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -2316,10 +2343,10 @@
     </row>
     <row r="28" ht="25.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>40</v>
       </c>
       <c r="C28" s="17">
         <v>400.0</v>
@@ -2327,23 +2354,23 @@
       <c r="D28" s="18">
         <v>1000.0</v>
       </c>
-      <c r="E28" s="33">
+      <c r="E28" s="35">
         <v>0.0</v>
       </c>
-      <c r="F28" s="29">
+      <c r="F28" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="26">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="32">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="22">
+      <c r="I28" s="39"/>
+      <c r="J28" s="23">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -2351,35 +2378,35 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L28" s="30">
+      <c r="L28" s="32">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M28" s="32">
+      <c r="M28" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N28" s="30">
+      <c r="N28" s="32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O28" s="1"/>
-      <c r="P28" s="26" t="s">
-        <v>20</v>
+      <c r="P28" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="Q28" s="1"/>
-      <c r="R28" s="33">
+      <c r="R28" s="35">
         <v>9.4</v>
       </c>
-      <c r="S28" s="29">
+      <c r="S28" s="31">
         <f t="shared" si="17"/>
         <v>0.0235</v>
       </c>
-      <c r="T28" s="25">
+      <c r="T28" s="26">
         <f t="shared" si="10"/>
         <v>100.7142857</v>
       </c>
-      <c r="U28" s="30">
+      <c r="U28" s="32">
         <f t="shared" si="18"/>
         <v>0.2517857143</v>
       </c>
@@ -2391,34 +2418,34 @@
     </row>
     <row r="29" ht="25.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="26" t="s">
-        <v>39</v>
+        <v>41</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>42</v>
       </c>
       <c r="C29" s="17">
         <v>2.4</v>
       </c>
       <c r="D29" s="18"/>
-      <c r="E29" s="33">
+      <c r="E29" s="35">
         <v>66.0</v>
       </c>
-      <c r="F29" s="29">
+      <c r="F29" s="31">
         <f t="shared" si="11"/>
         <v>27.5</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="26">
         <f t="shared" si="12"/>
-        <v>264</v>
-      </c>
-      <c r="H29" s="30">
+        <v>33</v>
+      </c>
+      <c r="H29" s="32">
         <f t="shared" si="13"/>
-        <v>110</v>
+        <v>13.75</v>
       </c>
       <c r="I29" s="17">
         <v>300.0</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="23">
         <f t="shared" si="14"/>
         <v>125</v>
       </c>
@@ -2426,35 +2453,35 @@
         <f t="shared" si="15"/>
         <v>150</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="32">
         <f t="shared" si="16"/>
         <v>62.5</v>
       </c>
-      <c r="M29" s="32">
+      <c r="M29" s="34">
         <f t="shared" si="7"/>
-        <v>414</v>
-      </c>
-      <c r="N29" s="30">
+        <v>183</v>
+      </c>
+      <c r="N29" s="32">
         <f t="shared" si="8"/>
-        <v>172.5</v>
+        <v>76.25</v>
       </c>
       <c r="O29" s="1"/>
-      <c r="P29" s="38" t="s">
-        <v>20</v>
+      <c r="P29" s="40" t="s">
+        <v>23</v>
       </c>
       <c r="Q29" s="1"/>
-      <c r="R29" s="33">
+      <c r="R29" s="35">
         <v>0.0</v>
       </c>
-      <c r="S29" s="29">
+      <c r="S29" s="31">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T29" s="25">
+      <c r="T29" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U29" s="30">
+      <c r="U29" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -2466,34 +2493,34 @@
     </row>
     <row r="30" ht="25.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C30" s="17">
         <v>90.0</v>
       </c>
       <c r="D30" s="18"/>
-      <c r="E30" s="33">
+      <c r="E30" s="35">
         <v>10.1</v>
       </c>
-      <c r="F30" s="29">
+      <c r="F30" s="31">
         <f t="shared" si="11"/>
         <v>0.1122222222</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="26">
         <f t="shared" si="12"/>
-        <v>40.4</v>
-      </c>
-      <c r="H30" s="30">
+        <v>5.05</v>
+      </c>
+      <c r="H30" s="32">
         <f t="shared" si="13"/>
-        <v>0.4488888889</v>
+        <v>0.05611111111</v>
       </c>
       <c r="I30" s="17">
         <v>20.0</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="23">
         <f t="shared" si="14"/>
         <v>0.2222222222</v>
       </c>
@@ -2501,35 +2528,35 @@
         <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="L30" s="30">
+      <c r="L30" s="32">
         <f t="shared" si="16"/>
         <v>0.1111111111</v>
       </c>
-      <c r="M30" s="32">
+      <c r="M30" s="34">
         <f t="shared" si="7"/>
-        <v>50.4</v>
-      </c>
-      <c r="N30" s="30">
+        <v>15.05</v>
+      </c>
+      <c r="N30" s="32">
         <f t="shared" si="8"/>
-        <v>0.56</v>
+        <v>0.1672222222</v>
       </c>
       <c r="O30" s="1"/>
-      <c r="P30" s="38" t="s">
-        <v>24</v>
+      <c r="P30" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="Q30" s="1"/>
-      <c r="R30" s="33">
+      <c r="R30" s="35">
         <v>1.01</v>
       </c>
-      <c r="S30" s="29">
+      <c r="S30" s="31">
         <f t="shared" si="17"/>
         <v>0.01122222222</v>
       </c>
-      <c r="T30" s="25">
+      <c r="T30" s="26">
         <f t="shared" si="10"/>
         <v>10.82142857</v>
       </c>
-      <c r="U30" s="30">
+      <c r="U30" s="32">
         <f t="shared" si="18"/>
         <v>0.1202380952</v>
       </c>
@@ -2541,10 +2568,10 @@
     </row>
     <row r="31" ht="25.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>46</v>
       </c>
       <c r="C31" s="17">
         <v>15.0</v>
@@ -2552,23 +2579,23 @@
       <c r="D31" s="18">
         <v>50.0</v>
       </c>
-      <c r="E31" s="33">
+      <c r="E31" s="35">
         <v>0.0</v>
       </c>
-      <c r="F31" s="29">
+      <c r="F31" s="31">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="26">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H31" s="30">
+      <c r="H31" s="32">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I31" s="17"/>
-      <c r="J31" s="22">
+      <c r="J31" s="23">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -2576,35 +2603,35 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L31" s="30">
+      <c r="L31" s="32">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M31" s="32">
+      <c r="M31" s="34">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="N31" s="30">
+      <c r="N31" s="32">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O31" s="1"/>
-      <c r="P31" s="26" t="s">
-        <v>20</v>
+      <c r="P31" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="Q31" s="1"/>
-      <c r="R31" s="33">
+      <c r="R31" s="35">
         <v>0.0</v>
       </c>
-      <c r="S31" s="29">
+      <c r="S31" s="31">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T31" s="25">
+      <c r="T31" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U31" s="30">
+      <c r="U31" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -2616,32 +2643,32 @@
     </row>
     <row r="32" ht="25.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>45</v>
+        <v>47</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>48</v>
       </c>
       <c r="C32" s="17">
         <v>15.0</v>
       </c>
       <c r="D32" s="18"/>
-      <c r="E32" s="33">
+      <c r="E32" s="35">
         <v>5.0</v>
       </c>
-      <c r="F32" s="29">
+      <c r="F32" s="31">
         <f t="shared" si="11"/>
         <v>0.3333333333</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="26">
         <f t="shared" si="12"/>
-        <v>20</v>
-      </c>
-      <c r="H32" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="H32" s="32">
         <f t="shared" si="13"/>
-        <v>1.333333333</v>
+        <v>0.1666666667</v>
       </c>
       <c r="I32" s="17"/>
-      <c r="J32" s="22">
+      <c r="J32" s="23">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -2649,35 +2676,35 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32" s="32">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M32" s="32">
+      <c r="M32" s="34">
         <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="N32" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="N32" s="32">
         <f t="shared" si="8"/>
-        <v>1.333333333</v>
+        <v>0.1666666667</v>
       </c>
       <c r="O32" s="1"/>
-      <c r="P32" s="26" t="s">
-        <v>24</v>
+      <c r="P32" s="28" t="s">
+        <v>27</v>
       </c>
       <c r="Q32" s="1"/>
-      <c r="R32" s="33">
+      <c r="R32" s="35">
         <v>0.675</v>
       </c>
-      <c r="S32" s="29">
+      <c r="S32" s="31">
         <f t="shared" si="17"/>
         <v>0.045</v>
       </c>
-      <c r="T32" s="25">
+      <c r="T32" s="26">
         <f t="shared" si="10"/>
         <v>7.232142857</v>
       </c>
-      <c r="U32" s="30">
+      <c r="U32" s="32">
         <f t="shared" si="18"/>
         <v>0.4821428571</v>
       </c>
@@ -2689,32 +2716,32 @@
     </row>
     <row r="33" ht="25.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>50</v>
       </c>
       <c r="C33" s="17">
         <v>120.0</v>
       </c>
       <c r="D33" s="18"/>
-      <c r="E33" s="33">
+      <c r="E33" s="35">
         <v>25.5</v>
       </c>
-      <c r="F33" s="29">
+      <c r="F33" s="31">
         <f t="shared" si="11"/>
         <v>0.2125</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="26">
         <f t="shared" si="12"/>
-        <v>102</v>
-      </c>
-      <c r="H33" s="30">
+        <v>12.75</v>
+      </c>
+      <c r="H33" s="32">
         <f t="shared" si="13"/>
-        <v>0.85</v>
+        <v>0.10625</v>
       </c>
       <c r="I33" s="17"/>
-      <c r="J33" s="22">
+      <c r="J33" s="23">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -2722,33 +2749,33 @@
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L33" s="30">
+      <c r="L33" s="32">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M33" s="32">
+      <c r="M33" s="34">
         <f t="shared" si="7"/>
-        <v>102</v>
-      </c>
-      <c r="N33" s="30">
+        <v>12.75</v>
+      </c>
+      <c r="N33" s="32">
         <f t="shared" si="8"/>
-        <v>0.85</v>
+        <v>0.10625</v>
       </c>
       <c r="O33" s="1"/>
-      <c r="P33" s="26" t="s">
-        <v>20</v>
+      <c r="P33" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="Q33" s="1"/>
-      <c r="R33" s="33"/>
-      <c r="S33" s="29">
+      <c r="R33" s="35"/>
+      <c r="S33" s="31">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T33" s="25">
+      <c r="T33" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U33" s="30">
+      <c r="U33" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -2764,25 +2791,25 @@
       <c r="C34" s="17"/>
       <c r="D34" s="18"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="30"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="32"/>
       <c r="I34" s="17"/>
-      <c r="J34" s="22"/>
+      <c r="J34" s="23"/>
       <c r="K34" s="15"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="30"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="32"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="19"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="25">
+      <c r="S34" s="31"/>
+      <c r="T34" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U34" s="30" t="str">
+      <c r="U34" s="32" t="str">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
@@ -2794,28 +2821,28 @@
     </row>
     <row r="35" ht="20.25" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B35" s="39"/>
+        <v>51</v>
+      </c>
+      <c r="B35" s="41"/>
       <c r="C35" s="17">
         <v>4.7</v>
       </c>
       <c r="D35" s="18"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29">
+      <c r="E35" s="30"/>
+      <c r="F35" s="31">
         <f t="shared" ref="F35:F49" si="19">E35/C35</f>
         <v>0</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="26">
         <f t="shared" ref="G35:G49" si="20">$G$3/$E$3*E35</f>
         <v>0</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H35" s="32">
         <f t="shared" ref="H35:H49" si="21">G35/C35</f>
         <v>0</v>
       </c>
       <c r="I35" s="17"/>
-      <c r="J35" s="22">
+      <c r="J35" s="23">
         <f t="shared" ref="J35:J49" si="22">I35/C35</f>
         <v>0</v>
       </c>
@@ -2823,35 +2850,35 @@
         <f t="shared" ref="K35:K49" si="23">$K$3/$I$3*I35</f>
         <v>0</v>
       </c>
-      <c r="L35" s="30">
+      <c r="L35" s="32">
         <f t="shared" ref="L35:L49" si="24">K35/C35</f>
         <v>0</v>
       </c>
-      <c r="M35" s="32">
+      <c r="M35" s="34">
         <f t="shared" ref="M35:M49" si="25">G35+K35</f>
         <v>0</v>
       </c>
-      <c r="N35" s="30">
+      <c r="N35" s="32">
         <f t="shared" ref="N35:N49" si="26">M35/C35</f>
         <v>0</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q35" s="1"/>
-      <c r="R35" s="28">
+      <c r="R35" s="30">
         <v>0.136</v>
       </c>
-      <c r="S35" s="29" t="str">
+      <c r="S35" s="31" t="str">
         <f t="shared" ref="S35:S49" si="27">R35/P35</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T35" s="25">
+      <c r="T35" s="26">
         <f t="shared" si="10"/>
         <v>1.457142857</v>
       </c>
-      <c r="U35" s="30">
+      <c r="U35" s="32">
         <f t="shared" si="18"/>
         <v>0.3100303951</v>
       </c>
@@ -2863,28 +2890,28 @@
     </row>
     <row r="36" ht="20.25" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="39"/>
+        <v>52</v>
+      </c>
+      <c r="B36" s="41"/>
       <c r="C36" s="17">
         <v>2.3</v>
       </c>
       <c r="D36" s="18"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29">
+      <c r="E36" s="30"/>
+      <c r="F36" s="31">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="26">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="32">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I36" s="17"/>
-      <c r="J36" s="22">
+      <c r="J36" s="23">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -2892,33 +2919,33 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L36" s="30">
+      <c r="L36" s="32">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M36" s="32">
+      <c r="M36" s="34">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N36" s="30">
+      <c r="N36" s="32">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q36" s="1"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="29" t="str">
+      <c r="R36" s="30"/>
+      <c r="S36" s="31" t="str">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T36" s="25">
+      <c r="T36" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U36" s="30">
+      <c r="U36" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -2930,32 +2957,32 @@
     </row>
     <row r="37" ht="20.25" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="39"/>
+        <v>53</v>
+      </c>
+      <c r="B37" s="41"/>
       <c r="C37" s="17">
         <v>2300.0</v>
       </c>
       <c r="D37" s="18">
         <v>6000.0</v>
       </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29">
+      <c r="E37" s="30"/>
+      <c r="F37" s="31">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="26">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H37" s="30">
+      <c r="H37" s="32">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I37" s="35">
+      <c r="I37" s="37">
         <v>0.0</v>
       </c>
-      <c r="J37" s="22">
+      <c r="J37" s="23">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -2963,35 +2990,35 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L37" s="30">
+      <c r="L37" s="32">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M37" s="32">
+      <c r="M37" s="34">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N37" s="30">
+      <c r="N37" s="32">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q37" s="1"/>
-      <c r="R37" s="28">
+      <c r="R37" s="30">
         <v>105.0</v>
       </c>
-      <c r="S37" s="29" t="str">
+      <c r="S37" s="31" t="str">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T37" s="25">
+      <c r="T37" s="26">
         <f t="shared" si="10"/>
         <v>1125</v>
       </c>
-      <c r="U37" s="30">
+      <c r="U37" s="32">
         <f t="shared" si="18"/>
         <v>0.4891304348</v>
       </c>
@@ -3003,32 +3030,32 @@
     </row>
     <row r="38" ht="20.25" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="39"/>
+        <v>54</v>
+      </c>
+      <c r="B38" s="41"/>
       <c r="C38" s="17">
         <v>1000.0</v>
       </c>
       <c r="D38" s="18">
         <v>2500.0</v>
       </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29">
+      <c r="E38" s="30"/>
+      <c r="F38" s="31">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="26">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="32">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I38" s="35">
+      <c r="I38" s="37">
         <v>333.0</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J38" s="23">
         <f t="shared" si="22"/>
         <v>0.333</v>
       </c>
@@ -3036,35 +3063,35 @@
         <f t="shared" si="23"/>
         <v>166.5</v>
       </c>
-      <c r="L38" s="30">
+      <c r="L38" s="32">
         <f t="shared" si="24"/>
         <v>0.1665</v>
       </c>
-      <c r="M38" s="32">
+      <c r="M38" s="34">
         <f t="shared" si="25"/>
         <v>166.5</v>
       </c>
-      <c r="N38" s="30">
+      <c r="N38" s="32">
         <f t="shared" si="26"/>
         <v>0.1665</v>
       </c>
       <c r="O38" s="1"/>
-      <c r="P38" s="38" t="s">
-        <v>24</v>
+      <c r="P38" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="Q38" s="1"/>
-      <c r="R38" s="28">
+      <c r="R38" s="30">
         <v>12.0</v>
       </c>
-      <c r="S38" s="29" t="str">
+      <c r="S38" s="31" t="str">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T38" s="25">
+      <c r="T38" s="26">
         <f t="shared" si="10"/>
         <v>128.5714286</v>
       </c>
-      <c r="U38" s="30">
+      <c r="U38" s="32">
         <f t="shared" si="18"/>
         <v>0.1285714286</v>
       </c>
@@ -3076,30 +3103,30 @@
     </row>
     <row r="39" ht="20.25" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="39"/>
+        <v>55</v>
+      </c>
+      <c r="B39" s="41"/>
       <c r="C39" s="17">
         <v>700.0</v>
       </c>
       <c r="D39" s="18">
         <v>4000.0</v>
       </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="29">
+      <c r="E39" s="30"/>
+      <c r="F39" s="31">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="26">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="32">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I39" s="35"/>
-      <c r="J39" s="22">
+      <c r="I39" s="37"/>
+      <c r="J39" s="23">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3107,35 +3134,35 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L39" s="30">
+      <c r="L39" s="32">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M39" s="32">
+      <c r="M39" s="34">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N39" s="30">
+      <c r="N39" s="32">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q39" s="1"/>
-      <c r="R39" s="28">
+      <c r="R39" s="30">
         <v>11.8</v>
       </c>
-      <c r="S39" s="29" t="str">
+      <c r="S39" s="31" t="str">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T39" s="25">
+      <c r="T39" s="26">
         <f t="shared" si="10"/>
         <v>126.4285714</v>
       </c>
-      <c r="U39" s="30">
+      <c r="U39" s="32">
         <f t="shared" si="18"/>
         <v>0.1806122449</v>
       </c>
@@ -3147,28 +3174,28 @@
     </row>
     <row r="40" ht="20.25" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="40"/>
+        <v>56</v>
+      </c>
+      <c r="B40" s="42"/>
       <c r="C40" s="17">
         <v>420.0</v>
       </c>
       <c r="D40" s="18"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="29">
+      <c r="E40" s="30"/>
+      <c r="F40" s="31">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="26">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="32">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I40" s="35"/>
-      <c r="J40" s="22">
+      <c r="I40" s="37"/>
+      <c r="J40" s="23">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3176,35 +3203,35 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L40" s="30">
+      <c r="L40" s="32">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M40" s="32">
+      <c r="M40" s="34">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N40" s="30">
+      <c r="N40" s="32">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q40" s="1"/>
-      <c r="R40" s="28">
+      <c r="R40" s="30">
         <v>19.5</v>
       </c>
-      <c r="S40" s="29" t="str">
+      <c r="S40" s="31" t="str">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T40" s="25">
+      <c r="T40" s="26">
         <f t="shared" si="10"/>
         <v>208.9285714</v>
       </c>
-      <c r="U40" s="30">
+      <c r="U40" s="32">
         <f t="shared" si="18"/>
         <v>0.4974489796</v>
       </c>
@@ -3216,32 +3243,32 @@
     </row>
     <row r="41" ht="20.25" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="40"/>
+        <v>57</v>
+      </c>
+      <c r="B41" s="42"/>
       <c r="C41" s="17">
         <v>4.0</v>
       </c>
       <c r="D41" s="18">
         <v>10.0</v>
       </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="29">
+      <c r="E41" s="30"/>
+      <c r="F41" s="31">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="26">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="32">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I41" s="35">
+      <c r="I41" s="37">
         <v>267.0</v>
       </c>
-      <c r="J41" s="22">
+      <c r="J41" s="23">
         <f t="shared" si="22"/>
         <v>66.75</v>
       </c>
@@ -3249,33 +3276,33 @@
         <f t="shared" si="23"/>
         <v>133.5</v>
       </c>
-      <c r="L41" s="30">
+      <c r="L41" s="32">
         <f t="shared" si="24"/>
         <v>33.375</v>
       </c>
-      <c r="M41" s="32">
+      <c r="M41" s="34">
         <f t="shared" si="25"/>
         <v>133.5</v>
       </c>
-      <c r="N41" s="30">
+      <c r="N41" s="32">
         <f t="shared" si="26"/>
         <v>33.375</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q41" s="1"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="29" t="str">
+      <c r="R41" s="30"/>
+      <c r="S41" s="31" t="str">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T41" s="25">
+      <c r="T41" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U41" s="30">
+      <c r="U41" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3287,32 +3314,32 @@
     </row>
     <row r="42" ht="20.25" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="39"/>
+        <v>58</v>
+      </c>
+      <c r="B42" s="41"/>
       <c r="C42" s="17">
         <v>8.0</v>
       </c>
       <c r="D42" s="18">
         <v>45.0</v>
       </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="29">
+      <c r="E42" s="30"/>
+      <c r="F42" s="31">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="26">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H42" s="30">
+      <c r="H42" s="32">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I42" s="17">
         <v>240.0</v>
       </c>
-      <c r="J42" s="22">
+      <c r="J42" s="23">
         <f t="shared" si="22"/>
         <v>30</v>
       </c>
@@ -3320,35 +3347,35 @@
         <f t="shared" si="23"/>
         <v>120</v>
       </c>
-      <c r="L42" s="30">
+      <c r="L42" s="32">
         <f t="shared" si="24"/>
         <v>15</v>
       </c>
-      <c r="M42" s="32">
+      <c r="M42" s="34">
         <f t="shared" si="25"/>
         <v>120</v>
       </c>
-      <c r="N42" s="30">
+      <c r="N42" s="32">
         <f t="shared" si="26"/>
         <v>15</v>
       </c>
       <c r="O42" s="1"/>
-      <c r="P42" s="38" t="s">
-        <v>24</v>
+      <c r="P42" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="Q42" s="1"/>
-      <c r="R42" s="28">
+      <c r="R42" s="30">
         <v>2.85</v>
       </c>
-      <c r="S42" s="29" t="str">
+      <c r="S42" s="31" t="str">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T42" s="25">
+      <c r="T42" s="26">
         <f t="shared" si="10"/>
         <v>30.53571429</v>
       </c>
-      <c r="U42" s="30">
+      <c r="U42" s="32">
         <f t="shared" si="18"/>
         <v>3.816964286</v>
       </c>
@@ -3360,32 +3387,32 @@
     </row>
     <row r="43" ht="20.25" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="39"/>
+        <v>59</v>
+      </c>
+      <c r="B43" s="41"/>
       <c r="C43" s="17">
         <v>22.0</v>
       </c>
       <c r="D43" s="18">
         <v>40.0</v>
       </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="29">
+      <c r="E43" s="30"/>
+      <c r="F43" s="31">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G43" s="26">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H43" s="30">
+      <c r="H43" s="32">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I43" s="17">
         <v>70.0</v>
       </c>
-      <c r="J43" s="22">
+      <c r="J43" s="23">
         <f t="shared" si="22"/>
         <v>3.181818182</v>
       </c>
@@ -3393,35 +3420,35 @@
         <f t="shared" si="23"/>
         <v>35</v>
       </c>
-      <c r="L43" s="30">
+      <c r="L43" s="32">
         <f t="shared" si="24"/>
         <v>1.590909091</v>
       </c>
-      <c r="M43" s="32">
+      <c r="M43" s="34">
         <f t="shared" si="25"/>
         <v>35</v>
       </c>
-      <c r="N43" s="30">
+      <c r="N43" s="32">
         <f t="shared" si="26"/>
         <v>1.590909091</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q43" s="1"/>
-      <c r="R43" s="28">
+      <c r="R43" s="30">
         <v>0.3</v>
       </c>
-      <c r="S43" s="29" t="str">
+      <c r="S43" s="31" t="str">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T43" s="25">
+      <c r="T43" s="26">
         <f t="shared" si="10"/>
         <v>3.214285714</v>
       </c>
-      <c r="U43" s="30">
+      <c r="U43" s="32">
         <f t="shared" si="18"/>
         <v>0.1461038961</v>
       </c>
@@ -3433,30 +3460,30 @@
     </row>
     <row r="44" ht="20.25" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B44" s="39"/>
+        <v>60</v>
+      </c>
+      <c r="B44" s="41"/>
       <c r="C44" s="17">
         <v>2.3</v>
       </c>
       <c r="D44" s="18">
         <v>11.0</v>
       </c>
-      <c r="E44" s="28"/>
-      <c r="F44" s="29">
+      <c r="E44" s="30"/>
+      <c r="F44" s="31">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G44" s="25">
+      <c r="G44" s="26">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H44" s="30">
+      <c r="H44" s="32">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I44" s="17"/>
-      <c r="J44" s="22">
+      <c r="J44" s="23">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3464,35 +3491,35 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L44" s="30">
+      <c r="L44" s="32">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M44" s="32">
+      <c r="M44" s="34">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N44" s="30">
+      <c r="N44" s="32">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Q44" s="1"/>
-      <c r="R44" s="28">
+      <c r="R44" s="30">
         <v>0.19</v>
       </c>
-      <c r="S44" s="29" t="str">
+      <c r="S44" s="31" t="str">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T44" s="25">
+      <c r="T44" s="26">
         <f t="shared" si="10"/>
         <v>2.035714286</v>
       </c>
-      <c r="U44" s="30">
+      <c r="U44" s="32">
         <f t="shared" si="18"/>
         <v>0.8850931677</v>
       </c>
@@ -3504,30 +3531,30 @@
     </row>
     <row r="45" ht="20.25" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="39"/>
-      <c r="C45" s="35">
+        <v>61</v>
+      </c>
+      <c r="B45" s="41"/>
+      <c r="C45" s="37">
         <v>900.0</v>
       </c>
       <c r="D45" s="18">
         <v>10000.0</v>
       </c>
       <c r="E45" s="19"/>
-      <c r="F45" s="29">
+      <c r="F45" s="31">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="26">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H45" s="30">
+      <c r="H45" s="32">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I45" s="17"/>
-      <c r="J45" s="22">
+      <c r="J45" s="23">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3535,35 +3562,35 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L45" s="30">
+      <c r="L45" s="32">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M45" s="32">
+      <c r="M45" s="34">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N45" s="30">
+      <c r="N45" s="32">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q45" s="1"/>
       <c r="R45" s="19">
         <v>0.61</v>
       </c>
-      <c r="S45" s="29" t="str">
+      <c r="S45" s="31" t="str">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T45" s="25">
+      <c r="T45" s="26">
         <f t="shared" si="10"/>
         <v>6.535714286</v>
       </c>
-      <c r="U45" s="30">
+      <c r="U45" s="32">
         <f t="shared" si="18"/>
         <v>0.007261904762</v>
       </c>
@@ -3575,30 +3602,30 @@
     </row>
     <row r="46" ht="20.25" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="39"/>
-      <c r="C46" s="35">
+        <v>62</v>
+      </c>
+      <c r="B46" s="41"/>
+      <c r="C46" s="37">
         <v>150.0</v>
       </c>
       <c r="D46" s="18">
         <v>1100.0</v>
       </c>
-      <c r="E46" s="28"/>
-      <c r="F46" s="29">
+      <c r="E46" s="30"/>
+      <c r="F46" s="31">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G46" s="25">
+      <c r="G46" s="26">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H46" s="30">
+      <c r="H46" s="32">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I46" s="35"/>
-      <c r="J46" s="22">
+      <c r="I46" s="37"/>
+      <c r="J46" s="23">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3606,33 +3633,33 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L46" s="30">
+      <c r="L46" s="32">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M46" s="32">
+      <c r="M46" s="34">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N46" s="30">
+      <c r="N46" s="32">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q46" s="1"/>
-      <c r="R46" s="28"/>
-      <c r="S46" s="29" t="str">
+      <c r="R46" s="30"/>
+      <c r="S46" s="31" t="str">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T46" s="25">
+      <c r="T46" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U46" s="30">
+      <c r="U46" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3644,28 +3671,28 @@
     </row>
     <row r="47" ht="20.25" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="39"/>
-      <c r="C47" s="35">
+        <v>63</v>
+      </c>
+      <c r="B47" s="41"/>
+      <c r="C47" s="37">
         <v>35.0</v>
       </c>
-      <c r="D47" s="41"/>
+      <c r="D47" s="43"/>
       <c r="E47" s="19"/>
-      <c r="F47" s="29">
+      <c r="F47" s="31">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G47" s="25">
+      <c r="G47" s="26">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H47" s="30">
+      <c r="H47" s="32">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I47" s="17"/>
-      <c r="J47" s="22">
+      <c r="J47" s="23">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3673,33 +3700,33 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L47" s="30">
+      <c r="L47" s="32">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M47" s="32">
+      <c r="M47" s="34">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N47" s="30">
+      <c r="N47" s="32">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="19"/>
-      <c r="S47" s="29" t="str">
+      <c r="S47" s="31" t="str">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T47" s="25">
+      <c r="T47" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U47" s="30">
+      <c r="U47" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3711,30 +3738,30 @@
     </row>
     <row r="48" ht="20.25" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="39"/>
-      <c r="C48" s="35">
+        <v>64</v>
+      </c>
+      <c r="B48" s="41"/>
+      <c r="C48" s="37">
         <v>45.0</v>
       </c>
-      <c r="D48" s="41">
+      <c r="D48" s="43">
         <v>2000.0</v>
       </c>
       <c r="E48" s="19"/>
-      <c r="F48" s="29">
+      <c r="F48" s="31">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G48" s="25">
+      <c r="G48" s="26">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H48" s="30">
+      <c r="H48" s="32">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I48" s="17"/>
-      <c r="J48" s="22">
+      <c r="J48" s="23">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3742,33 +3769,33 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L48" s="30">
+      <c r="L48" s="32">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M48" s="32">
+      <c r="M48" s="34">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N48" s="30">
+      <c r="N48" s="32">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="19"/>
-      <c r="S48" s="29" t="str">
+      <c r="S48" s="31" t="str">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T48" s="25">
+      <c r="T48" s="26">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="U48" s="30">
+      <c r="U48" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3780,30 +3807,30 @@
     </row>
     <row r="49" ht="20.25" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="39"/>
-      <c r="C49" s="35">
+        <v>65</v>
+      </c>
+      <c r="B49" s="41"/>
+      <c r="C49" s="37">
         <v>55.0</v>
       </c>
-      <c r="D49" s="41">
+      <c r="D49" s="43">
         <v>400.0</v>
       </c>
       <c r="E49" s="19"/>
-      <c r="F49" s="29">
+      <c r="F49" s="31">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="G49" s="25">
+      <c r="G49" s="26">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H49" s="30">
+      <c r="H49" s="32">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I49" s="17"/>
-      <c r="J49" s="22">
+      <c r="J49" s="23">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3811,35 +3838,35 @@
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L49" s="30">
+      <c r="L49" s="32">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M49" s="32">
+      <c r="M49" s="34">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N49" s="30">
+      <c r="N49" s="32">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q49" s="1"/>
       <c r="R49" s="19">
         <v>0.72</v>
       </c>
-      <c r="S49" s="29" t="str">
+      <c r="S49" s="31" t="str">
         <f t="shared" si="27"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T49" s="25">
+      <c r="T49" s="26">
         <f t="shared" si="10"/>
         <v>7.714285714</v>
       </c>
-      <c r="U49" s="30">
+      <c r="U49" s="32">
         <f t="shared" si="18"/>
         <v>0.1402597403</v>
       </c>
@@ -3850,45 +3877,45 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" ht="41.25" customHeight="1">
-      <c r="A50" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="43"/>
-      <c r="C50" s="44" t="s">
-        <v>64</v>
+      <c r="A50" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="45"/>
+      <c r="C50" s="46" t="s">
+        <v>67</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="F50" s="29"/>
-      <c r="G50" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="H50" s="30"/>
-      <c r="I50" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22" t="s">
+      <c r="E50" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="L50" s="30"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="30"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H50" s="32"/>
+      <c r="I50" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="L50" s="32"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="32"/>
       <c r="O50" s="1"/>
-      <c r="P50" s="47"/>
+      <c r="P50" s="49"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="S50" s="29"/>
-      <c r="T50" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="U50" s="30" t="str">
+      <c r="R50" s="47" t="s">
+        <v>69</v>
+      </c>
+      <c r="S50" s="31"/>
+      <c r="T50" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="U50" s="32" t="str">
         <f t="shared" si="18"/>
         <v>#VALUE!</v>
       </c>
@@ -3899,36 +3926,36 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="50">
+      <c r="A51" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="51"/>
+      <c r="C51" s="52">
         <v>1.8</v>
       </c>
       <c r="D51" s="15">
         <f t="shared" ref="D51:D59" si="28">C51/2</f>
         <v>0.9</v>
       </c>
-      <c r="E51" s="51">
+      <c r="E51" s="53">
         <v>1.888</v>
       </c>
-      <c r="F51" s="29">
+      <c r="F51" s="31">
         <f t="shared" ref="F51:F59" si="29">E51/D51</f>
         <v>2.097777778</v>
       </c>
-      <c r="G51" s="25">
+      <c r="G51" s="26">
         <f t="shared" ref="G51:G59" si="30">E51*$G$5/100</f>
-        <v>4.315428571</v>
-      </c>
-      <c r="H51" s="30">
+        <v>0.5394285714</v>
+      </c>
+      <c r="H51" s="32">
         <f t="shared" ref="H51:H59" si="31">G51/D51</f>
-        <v>4.794920635</v>
-      </c>
-      <c r="I51" s="50">
+        <v>0.5993650794</v>
+      </c>
+      <c r="I51" s="52">
         <v>3.3</v>
       </c>
-      <c r="J51" s="22">
+      <c r="J51" s="23">
         <f t="shared" ref="J51:J59" si="32">I51/D51</f>
         <v>3.666666667</v>
       </c>
@@ -3936,33 +3963,33 @@
         <f t="shared" ref="K51:K59" si="33">I51*$K$5/100</f>
         <v>0.9428571429</v>
       </c>
-      <c r="L51" s="30">
+      <c r="L51" s="32">
         <f t="shared" ref="L51:L59" si="34">K51/D51</f>
         <v>1.047619048</v>
       </c>
-      <c r="M51" s="32">
+      <c r="M51" s="34">
         <f t="shared" ref="M51:M59" si="35">G51+K51</f>
-        <v>5.258285714</v>
-      </c>
-      <c r="N51" s="30">
+        <v>1.482285714</v>
+      </c>
+      <c r="N51" s="32">
         <f t="shared" ref="N51:N59" si="36">M51/D51</f>
-        <v>5.842539683</v>
+        <v>1.646984127</v>
       </c>
       <c r="O51" s="1"/>
-      <c r="P51" s="52" t="s">
-        <v>12</v>
+      <c r="P51" s="54" t="s">
+        <v>13</v>
       </c>
       <c r="Q51" s="1"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="29" t="str">
+      <c r="R51" s="53"/>
+      <c r="S51" s="31" t="str">
         <f t="shared" ref="S51:S59" si="37">R51/Q51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T51" s="25">
+      <c r="T51" s="26">
         <f t="shared" ref="T51:T59" si="38">R51*$G$5/100</f>
         <v>0</v>
       </c>
-      <c r="U51" s="30">
+      <c r="U51" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -3973,36 +4000,36 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="53" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="54"/>
-      <c r="C52" s="50">
+      <c r="A52" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="56"/>
+      <c r="C52" s="52">
         <v>2.5</v>
       </c>
       <c r="D52" s="15">
         <f t="shared" si="28"/>
         <v>1.25</v>
       </c>
-      <c r="E52" s="55">
+      <c r="E52" s="57">
         <v>5.584</v>
       </c>
-      <c r="F52" s="29">
+      <c r="F52" s="31">
         <f t="shared" si="29"/>
         <v>4.4672</v>
       </c>
-      <c r="G52" s="25">
+      <c r="G52" s="26">
         <f t="shared" si="30"/>
-        <v>12.76342857</v>
-      </c>
-      <c r="H52" s="30">
+        <v>1.595428571</v>
+      </c>
+      <c r="H52" s="32">
         <f t="shared" si="31"/>
-        <v>10.21074286</v>
-      </c>
-      <c r="I52" s="50">
+        <v>1.276342857</v>
+      </c>
+      <c r="I52" s="52">
         <v>3.5</v>
       </c>
-      <c r="J52" s="22">
+      <c r="J52" s="23">
         <f t="shared" si="32"/>
         <v>2.8</v>
       </c>
@@ -4010,33 +4037,33 @@
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="L52" s="30">
+      <c r="L52" s="32">
         <f t="shared" si="34"/>
         <v>0.8</v>
       </c>
-      <c r="M52" s="32">
+      <c r="M52" s="34">
         <f t="shared" si="35"/>
-        <v>13.76342857</v>
-      </c>
-      <c r="N52" s="30">
+        <v>2.595428571</v>
+      </c>
+      <c r="N52" s="32">
         <f t="shared" si="36"/>
-        <v>11.01074286</v>
+        <v>2.076342857</v>
       </c>
       <c r="O52" s="1"/>
-      <c r="P52" s="52" t="s">
-        <v>12</v>
+      <c r="P52" s="54" t="s">
+        <v>13</v>
       </c>
       <c r="Q52" s="1"/>
-      <c r="R52" s="55"/>
-      <c r="S52" s="29" t="str">
+      <c r="R52" s="57"/>
+      <c r="S52" s="31" t="str">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T52" s="25">
+      <c r="T52" s="26">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="U52" s="30">
+      <c r="U52" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4047,36 +4074,36 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="54"/>
-      <c r="C53" s="50">
+      <c r="A53" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="56"/>
+      <c r="C53" s="52">
         <v>5.5</v>
       </c>
       <c r="D53" s="15">
         <f t="shared" si="28"/>
         <v>2.75</v>
       </c>
-      <c r="E53" s="55">
+      <c r="E53" s="57">
         <v>8.608</v>
       </c>
-      <c r="F53" s="29">
+      <c r="F53" s="31">
         <f t="shared" si="29"/>
         <v>3.130181818</v>
       </c>
-      <c r="G53" s="25">
+      <c r="G53" s="26">
         <f t="shared" si="30"/>
-        <v>19.67542857</v>
-      </c>
-      <c r="H53" s="30">
+        <v>2.459428571</v>
+      </c>
+      <c r="H53" s="32">
         <f t="shared" si="31"/>
-        <v>7.154701299</v>
-      </c>
-      <c r="I53" s="56">
+        <v>0.8943376623</v>
+      </c>
+      <c r="I53" s="58">
         <v>6.1</v>
       </c>
-      <c r="J53" s="22">
+      <c r="J53" s="23">
         <f t="shared" si="32"/>
         <v>2.218181818</v>
       </c>
@@ -4084,33 +4111,33 @@
         <f t="shared" si="33"/>
         <v>1.742857143</v>
       </c>
-      <c r="L53" s="30">
+      <c r="L53" s="32">
         <f t="shared" si="34"/>
         <v>0.6337662338</v>
       </c>
-      <c r="M53" s="32">
+      <c r="M53" s="34">
         <f t="shared" si="35"/>
-        <v>21.41828571</v>
-      </c>
-      <c r="N53" s="30">
+        <v>4.202285714</v>
+      </c>
+      <c r="N53" s="32">
         <f t="shared" si="36"/>
-        <v>7.788467532</v>
+        <v>1.528103896</v>
       </c>
       <c r="O53" s="1"/>
-      <c r="P53" s="52" t="s">
-        <v>12</v>
+      <c r="P53" s="54" t="s">
+        <v>13</v>
       </c>
       <c r="Q53" s="1"/>
-      <c r="R53" s="55"/>
-      <c r="S53" s="29" t="str">
+      <c r="R53" s="57"/>
+      <c r="S53" s="31" t="str">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T53" s="25">
+      <c r="T53" s="26">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="U53" s="30">
+      <c r="U53" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4121,36 +4148,36 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" s="54"/>
-      <c r="C54" s="50">
+      <c r="A54" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="56"/>
+      <c r="C54" s="52">
         <v>5.1</v>
       </c>
       <c r="D54" s="15">
         <f t="shared" si="28"/>
         <v>2.55</v>
       </c>
-      <c r="E54" s="51">
+      <c r="E54" s="53">
         <v>5.264</v>
       </c>
-      <c r="F54" s="29">
+      <c r="F54" s="31">
         <f t="shared" si="29"/>
         <v>2.064313725</v>
       </c>
-      <c r="G54" s="25">
+      <c r="G54" s="26">
         <f t="shared" si="30"/>
-        <v>12.032</v>
-      </c>
-      <c r="H54" s="30">
+        <v>1.504</v>
+      </c>
+      <c r="H54" s="32">
         <f t="shared" si="31"/>
-        <v>4.718431373</v>
-      </c>
-      <c r="I54" s="50">
+        <v>0.5898039216</v>
+      </c>
+      <c r="I54" s="52">
         <v>10.2</v>
       </c>
-      <c r="J54" s="22">
+      <c r="J54" s="23">
         <f t="shared" si="32"/>
         <v>4</v>
       </c>
@@ -4158,33 +4185,33 @@
         <f t="shared" si="33"/>
         <v>2.914285714</v>
       </c>
-      <c r="L54" s="30">
+      <c r="L54" s="32">
         <f t="shared" si="34"/>
         <v>1.142857143</v>
       </c>
-      <c r="M54" s="32">
+      <c r="M54" s="34">
         <f t="shared" si="35"/>
-        <v>14.94628571</v>
-      </c>
-      <c r="N54" s="30">
+        <v>4.418285714</v>
+      </c>
+      <c r="N54" s="32">
         <f t="shared" si="36"/>
-        <v>5.861288515</v>
+        <v>1.732661064</v>
       </c>
       <c r="O54" s="1"/>
-      <c r="P54" s="52" t="s">
-        <v>12</v>
+      <c r="P54" s="54" t="s">
+        <v>13</v>
       </c>
       <c r="Q54" s="1"/>
-      <c r="R54" s="51"/>
-      <c r="S54" s="29" t="str">
+      <c r="R54" s="53"/>
+      <c r="S54" s="31" t="str">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T54" s="25">
+      <c r="T54" s="26">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="U54" s="30">
+      <c r="U54" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4195,36 +4222,36 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="57" t="s">
-        <v>74</v>
-      </c>
-      <c r="B55" s="54"/>
-      <c r="C55" s="50">
+      <c r="A55" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="56"/>
+      <c r="C55" s="52">
         <v>2.5</v>
       </c>
       <c r="D55" s="15">
         <f t="shared" si="28"/>
         <v>1.25</v>
       </c>
-      <c r="E55" s="55">
+      <c r="E55" s="57">
         <v>3.151</v>
       </c>
-      <c r="F55" s="29">
+      <c r="F55" s="31">
         <f t="shared" si="29"/>
         <v>2.5208</v>
       </c>
-      <c r="G55" s="25">
+      <c r="G55" s="26">
         <f t="shared" si="30"/>
-        <v>7.202285714</v>
-      </c>
-      <c r="H55" s="30">
+        <v>0.9002857143</v>
+      </c>
+      <c r="H55" s="32">
         <f t="shared" si="31"/>
-        <v>5.761828571</v>
-      </c>
-      <c r="I55" s="58">
+        <v>0.7202285714</v>
+      </c>
+      <c r="I55" s="60">
         <v>1.6</v>
       </c>
-      <c r="J55" s="22">
+      <c r="J55" s="23">
         <f t="shared" si="32"/>
         <v>1.28</v>
       </c>
@@ -4232,33 +4259,33 @@
         <f t="shared" si="33"/>
         <v>0.4571428571</v>
       </c>
-      <c r="L55" s="30">
+      <c r="L55" s="32">
         <f t="shared" si="34"/>
         <v>0.3657142857</v>
       </c>
-      <c r="M55" s="32">
+      <c r="M55" s="34">
         <f t="shared" si="35"/>
-        <v>7.659428571</v>
-      </c>
-      <c r="N55" s="30">
+        <v>1.357428571</v>
+      </c>
+      <c r="N55" s="32">
         <f t="shared" si="36"/>
-        <v>6.127542857</v>
+        <v>1.085942857</v>
       </c>
       <c r="O55" s="1"/>
-      <c r="P55" s="52" t="s">
-        <v>12</v>
+      <c r="P55" s="54" t="s">
+        <v>13</v>
       </c>
       <c r="Q55" s="1"/>
-      <c r="R55" s="55"/>
-      <c r="S55" s="29" t="str">
+      <c r="R55" s="57"/>
+      <c r="S55" s="31" t="str">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T55" s="25">
+      <c r="T55" s="26">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="U55" s="30">
+      <c r="U55" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4269,36 +4296,36 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="B56" s="54"/>
-      <c r="C56" s="50">
+      <c r="A56" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="56"/>
+      <c r="C56" s="52">
         <v>4.7</v>
       </c>
       <c r="D56" s="15">
         <f t="shared" si="28"/>
         <v>2.35</v>
       </c>
-      <c r="E56" s="55">
+      <c r="E56" s="57">
         <v>9.328</v>
       </c>
-      <c r="F56" s="29">
+      <c r="F56" s="31">
         <f t="shared" si="29"/>
         <v>3.969361702</v>
       </c>
-      <c r="G56" s="25">
+      <c r="G56" s="26">
         <f t="shared" si="30"/>
-        <v>21.32114286</v>
-      </c>
-      <c r="H56" s="30">
+        <v>2.665142857</v>
+      </c>
+      <c r="H56" s="32">
         <f t="shared" si="31"/>
-        <v>9.072826748</v>
-      </c>
-      <c r="I56" s="50">
+        <v>1.134103343</v>
+      </c>
+      <c r="I56" s="52">
         <v>5.6</v>
       </c>
-      <c r="J56" s="22">
+      <c r="J56" s="23">
         <f t="shared" si="32"/>
         <v>2.382978723</v>
       </c>
@@ -4306,33 +4333,33 @@
         <f t="shared" si="33"/>
         <v>1.6</v>
       </c>
-      <c r="L56" s="30">
+      <c r="L56" s="32">
         <f t="shared" si="34"/>
         <v>0.6808510638</v>
       </c>
-      <c r="M56" s="32">
+      <c r="M56" s="34">
         <f t="shared" si="35"/>
-        <v>22.92114286</v>
-      </c>
-      <c r="N56" s="30">
+        <v>4.265142857</v>
+      </c>
+      <c r="N56" s="32">
         <f t="shared" si="36"/>
-        <v>9.753677812</v>
+        <v>1.814954407</v>
       </c>
       <c r="O56" s="1"/>
-      <c r="P56" s="52" t="s">
-        <v>12</v>
+      <c r="P56" s="54" t="s">
+        <v>13</v>
       </c>
       <c r="Q56" s="1"/>
-      <c r="R56" s="55"/>
-      <c r="S56" s="29" t="str">
+      <c r="R56" s="57"/>
+      <c r="S56" s="31" t="str">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T56" s="25">
+      <c r="T56" s="26">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="U56" s="30">
+      <c r="U56" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4343,36 +4370,36 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57" s="54"/>
-      <c r="C57" s="50">
+      <c r="A57" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="56"/>
+      <c r="C57" s="52">
         <v>2.7</v>
       </c>
       <c r="D57" s="15">
         <f t="shared" si="28"/>
         <v>1.35</v>
       </c>
-      <c r="E57" s="55">
+      <c r="E57" s="57">
         <v>5.168</v>
       </c>
-      <c r="F57" s="29">
+      <c r="F57" s="31">
         <f t="shared" si="29"/>
         <v>3.828148148</v>
       </c>
-      <c r="G57" s="25">
+      <c r="G57" s="26">
         <f t="shared" si="30"/>
-        <v>11.81257143</v>
-      </c>
-      <c r="H57" s="30">
+        <v>1.476571429</v>
+      </c>
+      <c r="H57" s="32">
         <f t="shared" si="31"/>
-        <v>8.75005291</v>
-      </c>
-      <c r="I57" s="50">
+        <v>1.093756614</v>
+      </c>
+      <c r="I57" s="52">
         <v>2.9</v>
       </c>
-      <c r="J57" s="22">
+      <c r="J57" s="23">
         <f t="shared" si="32"/>
         <v>2.148148148</v>
       </c>
@@ -4380,33 +4407,33 @@
         <f t="shared" si="33"/>
         <v>0.8285714286</v>
       </c>
-      <c r="L57" s="30">
+      <c r="L57" s="32">
         <f t="shared" si="34"/>
         <v>0.6137566138</v>
       </c>
-      <c r="M57" s="32">
+      <c r="M57" s="34">
         <f t="shared" si="35"/>
-        <v>12.64114286</v>
-      </c>
-      <c r="N57" s="30">
+        <v>2.305142857</v>
+      </c>
+      <c r="N57" s="32">
         <f t="shared" si="36"/>
-        <v>9.363809524</v>
+        <v>1.707513228</v>
       </c>
       <c r="O57" s="1"/>
-      <c r="P57" s="52" t="s">
-        <v>12</v>
+      <c r="P57" s="54" t="s">
+        <v>13</v>
       </c>
       <c r="Q57" s="1"/>
-      <c r="R57" s="55"/>
-      <c r="S57" s="29" t="str">
+      <c r="R57" s="57"/>
+      <c r="S57" s="31" t="str">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T57" s="25">
+      <c r="T57" s="26">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="U57" s="30">
+      <c r="U57" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4417,36 +4444,36 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B58" s="54"/>
-      <c r="C58" s="50">
+      <c r="A58" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="56"/>
+      <c r="C58" s="52">
         <v>0.7</v>
       </c>
       <c r="D58" s="15">
         <f t="shared" si="28"/>
         <v>0.35</v>
       </c>
-      <c r="E58" s="55">
+      <c r="E58" s="57">
         <v>1.616</v>
       </c>
-      <c r="F58" s="29">
+      <c r="F58" s="31">
         <f t="shared" si="29"/>
         <v>4.617142857</v>
       </c>
-      <c r="G58" s="25">
+      <c r="G58" s="26">
         <f t="shared" si="30"/>
-        <v>3.693714286</v>
-      </c>
-      <c r="H58" s="30">
+        <v>0.4617142857</v>
+      </c>
+      <c r="H58" s="32">
         <f t="shared" si="31"/>
-        <v>10.55346939</v>
-      </c>
-      <c r="I58" s="50">
+        <v>1.319183673</v>
+      </c>
+      <c r="I58" s="52">
         <v>2.1</v>
       </c>
-      <c r="J58" s="22">
+      <c r="J58" s="23">
         <f t="shared" si="32"/>
         <v>6</v>
       </c>
@@ -4454,33 +4481,33 @@
         <f t="shared" si="33"/>
         <v>0.6</v>
       </c>
-      <c r="L58" s="30">
+      <c r="L58" s="32">
         <f t="shared" si="34"/>
         <v>1.714285714</v>
       </c>
-      <c r="M58" s="32">
+      <c r="M58" s="34">
         <f t="shared" si="35"/>
-        <v>4.293714286</v>
-      </c>
-      <c r="N58" s="30">
+        <v>1.061714286</v>
+      </c>
+      <c r="N58" s="32">
         <f t="shared" si="36"/>
-        <v>12.2677551</v>
+        <v>3.033469388</v>
       </c>
       <c r="O58" s="1"/>
-      <c r="P58" s="52" t="s">
-        <v>12</v>
+      <c r="P58" s="54" t="s">
+        <v>13</v>
       </c>
       <c r="Q58" s="1"/>
-      <c r="R58" s="55"/>
-      <c r="S58" s="29" t="str">
+      <c r="R58" s="57"/>
+      <c r="S58" s="31" t="str">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T58" s="25">
+      <c r="T58" s="26">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="U58" s="30">
+      <c r="U58" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4491,36 +4518,36 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="B59" s="54"/>
-      <c r="C59" s="50">
+      <c r="A59" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="56"/>
+      <c r="C59" s="52">
         <v>3.2</v>
       </c>
       <c r="D59" s="15">
         <f t="shared" si="28"/>
         <v>1.6</v>
       </c>
-      <c r="E59" s="55">
+      <c r="E59" s="57">
         <v>6.111</v>
       </c>
-      <c r="F59" s="29">
+      <c r="F59" s="31">
         <f t="shared" si="29"/>
         <v>3.819375</v>
       </c>
-      <c r="G59" s="25">
+      <c r="G59" s="26">
         <f t="shared" si="30"/>
-        <v>13.968</v>
-      </c>
-      <c r="H59" s="30">
+        <v>1.746</v>
+      </c>
+      <c r="H59" s="32">
         <f t="shared" si="31"/>
-        <v>8.73</v>
-      </c>
-      <c r="I59" s="50">
+        <v>1.09125</v>
+      </c>
+      <c r="I59" s="52">
         <v>5.5</v>
       </c>
-      <c r="J59" s="22">
+      <c r="J59" s="23">
         <f t="shared" si="32"/>
         <v>3.4375</v>
       </c>
@@ -4528,33 +4555,33 @@
         <f t="shared" si="33"/>
         <v>1.571428571</v>
       </c>
-      <c r="L59" s="30">
+      <c r="L59" s="32">
         <f t="shared" si="34"/>
         <v>0.9821428571</v>
       </c>
-      <c r="M59" s="32">
+      <c r="M59" s="34">
         <f t="shared" si="35"/>
-        <v>15.53942857</v>
-      </c>
-      <c r="N59" s="30">
+        <v>3.317428571</v>
+      </c>
+      <c r="N59" s="32">
         <f t="shared" si="36"/>
-        <v>9.712142857</v>
+        <v>2.073392857</v>
       </c>
       <c r="O59" s="1"/>
-      <c r="P59" s="52" t="s">
-        <v>12</v>
+      <c r="P59" s="54" t="s">
+        <v>13</v>
       </c>
       <c r="Q59" s="1"/>
-      <c r="R59" s="55"/>
-      <c r="S59" s="29" t="str">
+      <c r="R59" s="57"/>
+      <c r="S59" s="31" t="str">
         <f t="shared" si="37"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T59" s="25">
+      <c r="T59" s="26">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="U59" s="30">
+      <c r="U59" s="32">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
@@ -4565,452 +4592,452 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" ht="15.0" customHeight="1">
-      <c r="A60" s="59"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="59"/>
-      <c r="M60" s="59"/>
-      <c r="N60" s="59"/>
-      <c r="O60" s="59"/>
-      <c r="P60" s="59"/>
-      <c r="Q60" s="59"/>
-      <c r="R60" s="59"/>
-      <c r="S60" s="59"/>
-      <c r="T60" s="59"/>
-      <c r="U60" s="59"/>
-      <c r="V60" s="59"/>
-      <c r="W60" s="59"/>
-      <c r="X60" s="59"/>
-      <c r="Y60" s="59"/>
-      <c r="Z60" s="59"/>
+      <c r="A60" s="61"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="61"/>
+      <c r="E60" s="61"/>
+      <c r="F60" s="61"/>
+      <c r="G60" s="61"/>
+      <c r="H60" s="61"/>
+      <c r="I60" s="61"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="61"/>
+      <c r="L60" s="61"/>
+      <c r="M60" s="61"/>
+      <c r="N60" s="61"/>
+      <c r="O60" s="61"/>
+      <c r="P60" s="61"/>
+      <c r="Q60" s="61"/>
+      <c r="R60" s="61"/>
+      <c r="S60" s="61"/>
+      <c r="T60" s="61"/>
+      <c r="U60" s="61"/>
+      <c r="V60" s="61"/>
+      <c r="W60" s="61"/>
+      <c r="X60" s="61"/>
+      <c r="Y60" s="61"/>
+      <c r="Z60" s="61"/>
     </row>
     <row r="61" ht="15.0" customHeight="1">
-      <c r="A61" s="59"/>
-      <c r="B61" s="59"/>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="59"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="59"/>
-      <c r="L61" s="59"/>
-      <c r="M61" s="59"/>
-      <c r="N61" s="59"/>
-      <c r="O61" s="59"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="59"/>
-      <c r="R61" s="59"/>
-      <c r="S61" s="59"/>
-      <c r="T61" s="59"/>
-      <c r="U61" s="59"/>
-      <c r="V61" s="59"/>
-      <c r="W61" s="59"/>
-      <c r="X61" s="59"/>
-      <c r="Y61" s="59"/>
-      <c r="Z61" s="59"/>
+      <c r="A61" s="61"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="61"/>
+      <c r="E61" s="61"/>
+      <c r="F61" s="61"/>
+      <c r="G61" s="61"/>
+      <c r="H61" s="61"/>
+      <c r="I61" s="61"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="61"/>
+      <c r="L61" s="61"/>
+      <c r="M61" s="61"/>
+      <c r="N61" s="61"/>
+      <c r="O61" s="61"/>
+      <c r="P61" s="61"/>
+      <c r="Q61" s="61"/>
+      <c r="R61" s="61"/>
+      <c r="S61" s="61"/>
+      <c r="T61" s="61"/>
+      <c r="U61" s="61"/>
+      <c r="V61" s="61"/>
+      <c r="W61" s="61"/>
+      <c r="X61" s="61"/>
+      <c r="Y61" s="61"/>
+      <c r="Z61" s="61"/>
     </row>
     <row r="62" ht="15.0" customHeight="1">
-      <c r="A62" s="59"/>
-      <c r="B62" s="59"/>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="59"/>
-      <c r="I62" s="59"/>
-      <c r="J62" s="59"/>
-      <c r="K62" s="59"/>
-      <c r="L62" s="59"/>
-      <c r="M62" s="59"/>
-      <c r="N62" s="59"/>
-      <c r="O62" s="59"/>
-      <c r="P62" s="59"/>
-      <c r="Q62" s="59"/>
-      <c r="R62" s="59"/>
-      <c r="S62" s="59"/>
-      <c r="T62" s="59"/>
-      <c r="U62" s="59"/>
-      <c r="V62" s="59"/>
-      <c r="W62" s="59"/>
-      <c r="X62" s="59"/>
-      <c r="Y62" s="59"/>
-      <c r="Z62" s="59"/>
+      <c r="A62" s="61"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="61"/>
+      <c r="L62" s="61"/>
+      <c r="M62" s="61"/>
+      <c r="N62" s="61"/>
+      <c r="O62" s="61"/>
+      <c r="P62" s="61"/>
+      <c r="Q62" s="61"/>
+      <c r="R62" s="61"/>
+      <c r="S62" s="61"/>
+      <c r="T62" s="61"/>
+      <c r="U62" s="61"/>
+      <c r="V62" s="61"/>
+      <c r="W62" s="61"/>
+      <c r="X62" s="61"/>
+      <c r="Y62" s="61"/>
+      <c r="Z62" s="61"/>
     </row>
     <row r="63" ht="15.0" customHeight="1">
-      <c r="A63" s="59"/>
-      <c r="B63" s="59"/>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="59"/>
-      <c r="J63" s="59"/>
-      <c r="K63" s="59"/>
-      <c r="L63" s="59"/>
-      <c r="M63" s="59"/>
-      <c r="N63" s="59"/>
-      <c r="O63" s="59"/>
-      <c r="P63" s="59"/>
-      <c r="Q63" s="59"/>
-      <c r="R63" s="59"/>
-      <c r="S63" s="59"/>
-      <c r="T63" s="59"/>
-      <c r="U63" s="59"/>
-      <c r="V63" s="59"/>
-      <c r="W63" s="59"/>
-      <c r="X63" s="59"/>
-      <c r="Y63" s="59"/>
-      <c r="Z63" s="59"/>
+      <c r="A63" s="61"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="61"/>
+      <c r="E63" s="61"/>
+      <c r="F63" s="61"/>
+      <c r="G63" s="61"/>
+      <c r="H63" s="61"/>
+      <c r="I63" s="61"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="61"/>
+      <c r="L63" s="61"/>
+      <c r="M63" s="61"/>
+      <c r="N63" s="61"/>
+      <c r="O63" s="61"/>
+      <c r="P63" s="61"/>
+      <c r="Q63" s="61"/>
+      <c r="R63" s="61"/>
+      <c r="S63" s="61"/>
+      <c r="T63" s="61"/>
+      <c r="U63" s="61"/>
+      <c r="V63" s="61"/>
+      <c r="W63" s="61"/>
+      <c r="X63" s="61"/>
+      <c r="Y63" s="61"/>
+      <c r="Z63" s="61"/>
     </row>
     <row r="64" ht="15.0" customHeight="1">
-      <c r="A64" s="59"/>
-      <c r="B64" s="59"/>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="59"/>
-      <c r="I64" s="59"/>
-      <c r="J64" s="59"/>
-      <c r="K64" s="59"/>
-      <c r="L64" s="59"/>
-      <c r="M64" s="59"/>
-      <c r="N64" s="59"/>
-      <c r="O64" s="59"/>
-      <c r="P64" s="59"/>
-      <c r="Q64" s="59"/>
-      <c r="R64" s="59"/>
-      <c r="S64" s="59"/>
-      <c r="T64" s="59"/>
-      <c r="U64" s="59"/>
-      <c r="V64" s="59"/>
-      <c r="W64" s="59"/>
-      <c r="X64" s="59"/>
-      <c r="Y64" s="59"/>
-      <c r="Z64" s="59"/>
+      <c r="A64" s="61"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="61"/>
+      <c r="E64" s="61"/>
+      <c r="F64" s="61"/>
+      <c r="G64" s="61"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="61"/>
+      <c r="L64" s="61"/>
+      <c r="M64" s="61"/>
+      <c r="N64" s="61"/>
+      <c r="O64" s="61"/>
+      <c r="P64" s="61"/>
+      <c r="Q64" s="61"/>
+      <c r="R64" s="61"/>
+      <c r="S64" s="61"/>
+      <c r="T64" s="61"/>
+      <c r="U64" s="61"/>
+      <c r="V64" s="61"/>
+      <c r="W64" s="61"/>
+      <c r="X64" s="61"/>
+      <c r="Y64" s="61"/>
+      <c r="Z64" s="61"/>
     </row>
     <row r="65" ht="15.0" customHeight="1">
-      <c r="A65" s="59"/>
-      <c r="B65" s="59"/>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="59"/>
-      <c r="F65" s="59"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="59"/>
-      <c r="I65" s="59"/>
-      <c r="J65" s="59"/>
-      <c r="K65" s="59"/>
-      <c r="L65" s="59"/>
-      <c r="M65" s="59"/>
-      <c r="N65" s="59"/>
-      <c r="O65" s="59"/>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="59"/>
-      <c r="R65" s="59"/>
-      <c r="S65" s="59"/>
-      <c r="T65" s="59"/>
-      <c r="U65" s="59"/>
-      <c r="V65" s="59"/>
-      <c r="W65" s="59"/>
-      <c r="X65" s="59"/>
-      <c r="Y65" s="59"/>
-      <c r="Z65" s="59"/>
+      <c r="A65" s="61"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="61"/>
+      <c r="F65" s="61"/>
+      <c r="G65" s="61"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="61"/>
+      <c r="L65" s="61"/>
+      <c r="M65" s="61"/>
+      <c r="N65" s="61"/>
+      <c r="O65" s="61"/>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="61"/>
+      <c r="R65" s="61"/>
+      <c r="S65" s="61"/>
+      <c r="T65" s="61"/>
+      <c r="U65" s="61"/>
+      <c r="V65" s="61"/>
+      <c r="W65" s="61"/>
+      <c r="X65" s="61"/>
+      <c r="Y65" s="61"/>
+      <c r="Z65" s="61"/>
     </row>
     <row r="66" ht="15.0" customHeight="1">
-      <c r="A66" s="59"/>
-      <c r="B66" s="59"/>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
-      <c r="E66" s="59"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
-      <c r="J66" s="59"/>
-      <c r="K66" s="59"/>
-      <c r="L66" s="59"/>
-      <c r="M66" s="59"/>
-      <c r="N66" s="59"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="59"/>
-      <c r="Q66" s="59"/>
-      <c r="R66" s="59"/>
-      <c r="S66" s="59"/>
-      <c r="T66" s="59"/>
-      <c r="U66" s="59"/>
-      <c r="V66" s="59"/>
-      <c r="W66" s="59"/>
-      <c r="X66" s="59"/>
-      <c r="Y66" s="59"/>
-      <c r="Z66" s="59"/>
+      <c r="A66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="61"/>
+      <c r="E66" s="61"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="61"/>
+      <c r="H66" s="61"/>
+      <c r="I66" s="61"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="61"/>
+      <c r="M66" s="61"/>
+      <c r="N66" s="61"/>
+      <c r="O66" s="61"/>
+      <c r="P66" s="61"/>
+      <c r="Q66" s="61"/>
+      <c r="R66" s="61"/>
+      <c r="S66" s="61"/>
+      <c r="T66" s="61"/>
+      <c r="U66" s="61"/>
+      <c r="V66" s="61"/>
+      <c r="W66" s="61"/>
+      <c r="X66" s="61"/>
+      <c r="Y66" s="61"/>
+      <c r="Z66" s="61"/>
     </row>
     <row r="67" ht="15.0" customHeight="1">
-      <c r="A67" s="59"/>
-      <c r="B67" s="59"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="59"/>
-      <c r="E67" s="59"/>
-      <c r="F67" s="59"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="59"/>
-      <c r="J67" s="59"/>
-      <c r="K67" s="59"/>
-      <c r="L67" s="59"/>
-      <c r="M67" s="59"/>
-      <c r="N67" s="59"/>
-      <c r="O67" s="59"/>
-      <c r="P67" s="59"/>
-      <c r="Q67" s="59"/>
-      <c r="R67" s="59"/>
-      <c r="S67" s="59"/>
-      <c r="T67" s="59"/>
-      <c r="U67" s="59"/>
-      <c r="V67" s="59"/>
-      <c r="W67" s="59"/>
-      <c r="X67" s="59"/>
-      <c r="Y67" s="59"/>
-      <c r="Z67" s="59"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="61"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="61"/>
+      <c r="F67" s="61"/>
+      <c r="G67" s="61"/>
+      <c r="H67" s="61"/>
+      <c r="I67" s="61"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="61"/>
+      <c r="L67" s="61"/>
+      <c r="M67" s="61"/>
+      <c r="N67" s="61"/>
+      <c r="O67" s="61"/>
+      <c r="P67" s="61"/>
+      <c r="Q67" s="61"/>
+      <c r="R67" s="61"/>
+      <c r="S67" s="61"/>
+      <c r="T67" s="61"/>
+      <c r="U67" s="61"/>
+      <c r="V67" s="61"/>
+      <c r="W67" s="61"/>
+      <c r="X67" s="61"/>
+      <c r="Y67" s="61"/>
+      <c r="Z67" s="61"/>
     </row>
     <row r="68" ht="15.0" customHeight="1">
-      <c r="A68" s="59"/>
-      <c r="B68" s="59"/>
-      <c r="C68" s="59"/>
-      <c r="D68" s="59"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
-      <c r="J68" s="59"/>
-      <c r="K68" s="59"/>
-      <c r="L68" s="59"/>
-      <c r="M68" s="59"/>
-      <c r="N68" s="59"/>
-      <c r="O68" s="59"/>
-      <c r="P68" s="59"/>
-      <c r="Q68" s="59"/>
-      <c r="R68" s="59"/>
-      <c r="S68" s="59"/>
-      <c r="T68" s="59"/>
-      <c r="U68" s="59"/>
-      <c r="V68" s="59"/>
-      <c r="W68" s="59"/>
-      <c r="X68" s="59"/>
-      <c r="Y68" s="59"/>
-      <c r="Z68" s="59"/>
+      <c r="A68" s="61"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="61"/>
+      <c r="D68" s="61"/>
+      <c r="E68" s="61"/>
+      <c r="F68" s="61"/>
+      <c r="G68" s="61"/>
+      <c r="H68" s="61"/>
+      <c r="I68" s="61"/>
+      <c r="J68" s="61"/>
+      <c r="K68" s="61"/>
+      <c r="L68" s="61"/>
+      <c r="M68" s="61"/>
+      <c r="N68" s="61"/>
+      <c r="O68" s="61"/>
+      <c r="P68" s="61"/>
+      <c r="Q68" s="61"/>
+      <c r="R68" s="61"/>
+      <c r="S68" s="61"/>
+      <c r="T68" s="61"/>
+      <c r="U68" s="61"/>
+      <c r="V68" s="61"/>
+      <c r="W68" s="61"/>
+      <c r="X68" s="61"/>
+      <c r="Y68" s="61"/>
+      <c r="Z68" s="61"/>
     </row>
     <row r="69" ht="15.0" customHeight="1">
-      <c r="A69" s="59"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="59"/>
-      <c r="E69" s="59"/>
-      <c r="F69" s="59"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="59"/>
-      <c r="J69" s="59"/>
-      <c r="K69" s="59"/>
-      <c r="L69" s="59"/>
-      <c r="M69" s="59"/>
-      <c r="N69" s="59"/>
-      <c r="O69" s="59"/>
-      <c r="P69" s="59"/>
-      <c r="Q69" s="59"/>
-      <c r="R69" s="59"/>
-      <c r="S69" s="59"/>
-      <c r="T69" s="59"/>
-      <c r="U69" s="59"/>
-      <c r="V69" s="59"/>
-      <c r="W69" s="59"/>
-      <c r="X69" s="59"/>
-      <c r="Y69" s="59"/>
-      <c r="Z69" s="59"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="61"/>
+      <c r="K69" s="61"/>
+      <c r="L69" s="61"/>
+      <c r="M69" s="61"/>
+      <c r="N69" s="61"/>
+      <c r="O69" s="61"/>
+      <c r="P69" s="61"/>
+      <c r="Q69" s="61"/>
+      <c r="R69" s="61"/>
+      <c r="S69" s="61"/>
+      <c r="T69" s="61"/>
+      <c r="U69" s="61"/>
+      <c r="V69" s="61"/>
+      <c r="W69" s="61"/>
+      <c r="X69" s="61"/>
+      <c r="Y69" s="61"/>
+      <c r="Z69" s="61"/>
     </row>
     <row r="70" ht="15.0" customHeight="1">
-      <c r="A70" s="59"/>
-      <c r="B70" s="59"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="59"/>
-      <c r="K70" s="59"/>
-      <c r="L70" s="59"/>
-      <c r="M70" s="59"/>
-      <c r="N70" s="59"/>
-      <c r="O70" s="59"/>
-      <c r="P70" s="59"/>
-      <c r="Q70" s="59"/>
-      <c r="R70" s="59"/>
-      <c r="S70" s="59"/>
-      <c r="T70" s="59"/>
-      <c r="U70" s="59"/>
-      <c r="V70" s="59"/>
-      <c r="W70" s="59"/>
-      <c r="X70" s="59"/>
-      <c r="Y70" s="59"/>
-      <c r="Z70" s="59"/>
+      <c r="A70" s="61"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="61"/>
+      <c r="E70" s="61"/>
+      <c r="F70" s="61"/>
+      <c r="G70" s="61"/>
+      <c r="H70" s="61"/>
+      <c r="I70" s="61"/>
+      <c r="J70" s="61"/>
+      <c r="K70" s="61"/>
+      <c r="L70" s="61"/>
+      <c r="M70" s="61"/>
+      <c r="N70" s="61"/>
+      <c r="O70" s="61"/>
+      <c r="P70" s="61"/>
+      <c r="Q70" s="61"/>
+      <c r="R70" s="61"/>
+      <c r="S70" s="61"/>
+      <c r="T70" s="61"/>
+      <c r="U70" s="61"/>
+      <c r="V70" s="61"/>
+      <c r="W70" s="61"/>
+      <c r="X70" s="61"/>
+      <c r="Y70" s="61"/>
+      <c r="Z70" s="61"/>
     </row>
     <row r="71" ht="15.0" customHeight="1">
-      <c r="A71" s="59"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
-      <c r="M71" s="59"/>
-      <c r="N71" s="59"/>
-      <c r="O71" s="59"/>
-      <c r="P71" s="59"/>
-      <c r="Q71" s="59"/>
-      <c r="R71" s="59"/>
-      <c r="S71" s="59"/>
-      <c r="T71" s="59"/>
-      <c r="U71" s="59"/>
-      <c r="V71" s="59"/>
-      <c r="W71" s="59"/>
-      <c r="X71" s="59"/>
-      <c r="Y71" s="59"/>
-      <c r="Z71" s="59"/>
+      <c r="A71" s="61"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="61"/>
+      <c r="K71" s="61"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="61"/>
+      <c r="P71" s="61"/>
+      <c r="Q71" s="61"/>
+      <c r="R71" s="61"/>
+      <c r="S71" s="61"/>
+      <c r="T71" s="61"/>
+      <c r="U71" s="61"/>
+      <c r="V71" s="61"/>
+      <c r="W71" s="61"/>
+      <c r="X71" s="61"/>
+      <c r="Y71" s="61"/>
+      <c r="Z71" s="61"/>
     </row>
     <row r="72" ht="15.0" customHeight="1">
-      <c r="A72" s="59"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="59"/>
-      <c r="M72" s="59"/>
-      <c r="N72" s="59"/>
-      <c r="O72" s="59"/>
-      <c r="P72" s="59"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="59"/>
-      <c r="S72" s="59"/>
-      <c r="T72" s="59"/>
-      <c r="U72" s="59"/>
-      <c r="V72" s="59"/>
-      <c r="W72" s="59"/>
-      <c r="X72" s="59"/>
-      <c r="Y72" s="59"/>
-      <c r="Z72" s="59"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="61"/>
+      <c r="L72" s="61"/>
+      <c r="M72" s="61"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="61"/>
+      <c r="P72" s="61"/>
+      <c r="Q72" s="61"/>
+      <c r="R72" s="61"/>
+      <c r="S72" s="61"/>
+      <c r="T72" s="61"/>
+      <c r="U72" s="61"/>
+      <c r="V72" s="61"/>
+      <c r="W72" s="61"/>
+      <c r="X72" s="61"/>
+      <c r="Y72" s="61"/>
+      <c r="Z72" s="61"/>
     </row>
     <row r="73" ht="15.0" customHeight="1">
-      <c r="A73" s="59"/>
-      <c r="B73" s="59"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="59"/>
-      <c r="K73" s="59"/>
-      <c r="L73" s="59"/>
-      <c r="M73" s="59"/>
-      <c r="N73" s="59"/>
-      <c r="O73" s="59"/>
-      <c r="P73" s="59"/>
-      <c r="Q73" s="59"/>
-      <c r="R73" s="59"/>
-      <c r="S73" s="59"/>
-      <c r="T73" s="59"/>
-      <c r="U73" s="59"/>
-      <c r="V73" s="59"/>
-      <c r="W73" s="59"/>
-      <c r="X73" s="59"/>
-      <c r="Y73" s="59"/>
-      <c r="Z73" s="59"/>
+      <c r="A73" s="61"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="61"/>
+      <c r="D73" s="61"/>
+      <c r="E73" s="61"/>
+      <c r="F73" s="61"/>
+      <c r="G73" s="61"/>
+      <c r="H73" s="61"/>
+      <c r="I73" s="61"/>
+      <c r="J73" s="61"/>
+      <c r="K73" s="61"/>
+      <c r="L73" s="61"/>
+      <c r="M73" s="61"/>
+      <c r="N73" s="61"/>
+      <c r="O73" s="61"/>
+      <c r="P73" s="61"/>
+      <c r="Q73" s="61"/>
+      <c r="R73" s="61"/>
+      <c r="S73" s="61"/>
+      <c r="T73" s="61"/>
+      <c r="U73" s="61"/>
+      <c r="V73" s="61"/>
+      <c r="W73" s="61"/>
+      <c r="X73" s="61"/>
+      <c r="Y73" s="61"/>
+      <c r="Z73" s="61"/>
     </row>
     <row r="74" ht="15.0" customHeight="1">
-      <c r="A74" s="59"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="59"/>
-      <c r="K74" s="59"/>
-      <c r="L74" s="59"/>
-      <c r="M74" s="59"/>
-      <c r="N74" s="59"/>
-      <c r="O74" s="59"/>
-      <c r="P74" s="59"/>
-      <c r="Q74" s="59"/>
-      <c r="R74" s="59"/>
-      <c r="S74" s="59"/>
-      <c r="T74" s="59"/>
-      <c r="U74" s="59"/>
-      <c r="V74" s="59"/>
-      <c r="W74" s="59"/>
-      <c r="X74" s="59"/>
-      <c r="Y74" s="59"/>
-      <c r="Z74" s="59"/>
+      <c r="A74" s="61"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="61"/>
+      <c r="E74" s="61"/>
+      <c r="F74" s="61"/>
+      <c r="G74" s="61"/>
+      <c r="H74" s="61"/>
+      <c r="I74" s="61"/>
+      <c r="J74" s="61"/>
+      <c r="K74" s="61"/>
+      <c r="L74" s="61"/>
+      <c r="M74" s="61"/>
+      <c r="N74" s="61"/>
+      <c r="O74" s="61"/>
+      <c r="P74" s="61"/>
+      <c r="Q74" s="61"/>
+      <c r="R74" s="61"/>
+      <c r="S74" s="61"/>
+      <c r="T74" s="61"/>
+      <c r="U74" s="61"/>
+      <c r="V74" s="61"/>
+      <c r="W74" s="61"/>
+      <c r="X74" s="61"/>
+      <c r="Y74" s="61"/>
+      <c r="Z74" s="61"/>
     </row>
     <row r="75" ht="15.0" customHeight="1">
-      <c r="A75" s="59"/>
-      <c r="B75" s="59"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="59"/>
-      <c r="E75" s="59"/>
-      <c r="F75" s="59"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="59"/>
-      <c r="I75" s="59"/>
-      <c r="J75" s="59"/>
-      <c r="K75" s="59"/>
-      <c r="L75" s="59"/>
-      <c r="M75" s="59"/>
-      <c r="N75" s="59"/>
-      <c r="O75" s="59"/>
-      <c r="P75" s="59"/>
-      <c r="Q75" s="59"/>
-      <c r="R75" s="59"/>
-      <c r="S75" s="59"/>
-      <c r="T75" s="59"/>
-      <c r="U75" s="59"/>
-      <c r="V75" s="59"/>
-      <c r="W75" s="59"/>
-      <c r="X75" s="59"/>
-      <c r="Y75" s="59"/>
-      <c r="Z75" s="59"/>
+      <c r="A75" s="61"/>
+      <c r="B75" s="61"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="61"/>
+      <c r="E75" s="61"/>
+      <c r="F75" s="61"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="61"/>
+      <c r="I75" s="61"/>
+      <c r="J75" s="61"/>
+      <c r="K75" s="61"/>
+      <c r="L75" s="61"/>
+      <c r="M75" s="61"/>
+      <c r="N75" s="61"/>
+      <c r="O75" s="61"/>
+      <c r="P75" s="61"/>
+      <c r="Q75" s="61"/>
+      <c r="R75" s="61"/>
+      <c r="S75" s="61"/>
+      <c r="T75" s="61"/>
+      <c r="U75" s="61"/>
+      <c r="V75" s="61"/>
+      <c r="W75" s="61"/>
+      <c r="X75" s="61"/>
+      <c r="Y75" s="61"/>
+      <c r="Z75" s="61"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
@@ -5886,7 +5913,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="60"/>
+      <c r="F107" s="62"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -5899,7 +5926,7 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
-      <c r="S107" s="60"/>
+      <c r="S107" s="62"/>
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
       <c r="V107" s="1"/>
@@ -6305,8 +6332,8 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="61"/>
-      <c r="F122" s="61"/>
+      <c r="E122" s="63"/>
+      <c r="F122" s="63"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -6318,8 +6345,8 @@
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
-      <c r="R122" s="61"/>
-      <c r="S122" s="61"/>
+      <c r="R122" s="63"/>
+      <c r="S122" s="63"/>
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
       <c r="V122" s="1"/>
@@ -6334,10 +6361,10 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F123" s="60" t="s">
-        <v>80</v>
+        <v>82</v>
+      </c>
+      <c r="F123" s="62" t="s">
+        <v>83</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -6351,10 +6378,10 @@
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="S123" s="60" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="S123" s="62" t="s">
+        <v>84</v>
       </c>
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
@@ -6370,14 +6397,14 @@
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
       <c r="E124" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F124" s="62" t="s">
-        <v>82</v>
+        <v>54</v>
+      </c>
+      <c r="F124" s="64" t="s">
+        <v>85</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
-      <c r="I124" s="63">
+      <c r="I124" s="65">
         <v>0.12</v>
       </c>
       <c r="J124" s="1"/>
@@ -6389,10 +6416,10 @@
       <c r="P124" s="1"/>
       <c r="Q124" s="1"/>
       <c r="R124" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S124" s="62" t="s">
-        <v>82</v>
+        <v>54</v>
+      </c>
+      <c r="S124" s="64" t="s">
+        <v>85</v>
       </c>
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
@@ -6408,14 +6435,14 @@
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F125" s="62" t="s">
-        <v>83</v>
+        <v>58</v>
+      </c>
+      <c r="F125" s="64" t="s">
+        <v>86</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
-      <c r="I125" s="63">
+      <c r="I125" s="65">
         <v>2.19</v>
       </c>
       <c r="J125" s="1"/>
@@ -6427,10 +6454,10 @@
       <c r="P125" s="1"/>
       <c r="Q125" s="1"/>
       <c r="R125" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S125" s="62" t="s">
-        <v>83</v>
+        <v>58</v>
+      </c>
+      <c r="S125" s="64" t="s">
+        <v>86</v>
       </c>
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
@@ -6446,14 +6473,14 @@
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
       <c r="E126" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F126" s="62" t="s">
-        <v>84</v>
+        <v>56</v>
+      </c>
+      <c r="F126" s="64" t="s">
+        <v>87</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
-      <c r="I126" s="63">
+      <c r="I126" s="65">
         <v>0.55</v>
       </c>
       <c r="J126" s="1"/>
@@ -6465,10 +6492,10 @@
       <c r="P126" s="1"/>
       <c r="Q126" s="1"/>
       <c r="R126" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="S126" s="62" t="s">
-        <v>84</v>
+        <v>56</v>
+      </c>
+      <c r="S126" s="64" t="s">
+        <v>87</v>
       </c>
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
@@ -6484,14 +6511,14 @@
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F127" s="62" t="s">
-        <v>85</v>
+        <v>60</v>
+      </c>
+      <c r="F127" s="64" t="s">
+        <v>88</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
-      <c r="I127" s="63">
+      <c r="I127" s="65">
         <v>0.9</v>
       </c>
       <c r="J127" s="1"/>
@@ -6503,10 +6530,10 @@
       <c r="P127" s="1"/>
       <c r="Q127" s="1"/>
       <c r="R127" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S127" s="62" t="s">
-        <v>85</v>
+        <v>60</v>
+      </c>
+      <c r="S127" s="64" t="s">
+        <v>88</v>
       </c>
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
@@ -6522,14 +6549,14 @@
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F128" s="62" t="s">
-        <v>86</v>
+        <v>55</v>
+      </c>
+      <c r="F128" s="64" t="s">
+        <v>89</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
-      <c r="I128" s="63">
+      <c r="I128" s="65">
         <v>0.17</v>
       </c>
       <c r="J128" s="1"/>
@@ -6541,10 +6568,10 @@
       <c r="P128" s="1"/>
       <c r="Q128" s="1"/>
       <c r="R128" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="S128" s="62" t="s">
-        <v>86</v>
+        <v>55</v>
+      </c>
+      <c r="S128" s="64" t="s">
+        <v>89</v>
       </c>
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
@@ -6560,14 +6587,14 @@
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F129" s="62" t="s">
-        <v>87</v>
+        <v>51</v>
+      </c>
+      <c r="F129" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
-      <c r="I129" s="63">
+      <c r="I129" s="65">
         <v>0.29</v>
       </c>
       <c r="J129" s="1"/>
@@ -6579,10 +6606,10 @@
       <c r="P129" s="1"/>
       <c r="Q129" s="1"/>
       <c r="R129" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S129" s="62" t="s">
-        <v>87</v>
+        <v>51</v>
+      </c>
+      <c r="S129" s="64" t="s">
+        <v>90</v>
       </c>
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
@@ -6598,14 +6625,14 @@
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F130" s="62" t="s">
-        <v>88</v>
+        <v>53</v>
+      </c>
+      <c r="F130" s="64" t="s">
+        <v>91</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
-      <c r="I130" s="63">
+      <c r="I130" s="65">
         <v>0.7</v>
       </c>
       <c r="J130" s="1"/>
@@ -6617,10 +6644,10 @@
       <c r="P130" s="1"/>
       <c r="Q130" s="1"/>
       <c r="R130" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S130" s="62" t="s">
-        <v>88</v>
+        <v>53</v>
+      </c>
+      <c r="S130" s="64" t="s">
+        <v>91</v>
       </c>
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
@@ -6636,14 +6663,14 @@
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F131" s="62" t="s">
-        <v>89</v>
+        <v>59</v>
+      </c>
+      <c r="F131" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
-      <c r="I131" s="63">
+      <c r="I131" s="65">
         <v>0.21</v>
       </c>
       <c r="J131" s="1"/>
@@ -6655,10 +6682,10 @@
       <c r="P131" s="1"/>
       <c r="Q131" s="1"/>
       <c r="R131" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="S131" s="62" t="s">
-        <v>89</v>
+        <v>59</v>
+      </c>
+      <c r="S131" s="64" t="s">
+        <v>92</v>
       </c>
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
@@ -6673,8 +6700,8 @@
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="61"/>
-      <c r="F132" s="61"/>
+      <c r="E132" s="63"/>
+      <c r="F132" s="63"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -6686,8 +6713,8 @@
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
-      <c r="R132" s="61"/>
-      <c r="S132" s="61"/>
+      <c r="R132" s="63"/>
+      <c r="S132" s="63"/>
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
       <c r="V132" s="1"/>
@@ -6701,11 +6728,11 @@
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
-      <c r="E133" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="F133" s="60" t="s">
-        <v>91</v>
+      <c r="E133" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="F133" s="62" t="s">
+        <v>94</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -6718,11 +6745,11 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
-      <c r="R133" s="64" t="s">
-        <v>90</v>
-      </c>
-      <c r="S133" s="60" t="s">
-        <v>91</v>
+      <c r="R133" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="S133" s="62" t="s">
+        <v>94</v>
       </c>
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
@@ -6737,11 +6764,11 @@
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
-      <c r="E134" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="F134" s="62" t="s">
-        <v>93</v>
+      <c r="E134" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="F134" s="64" t="s">
+        <v>96</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -6754,11 +6781,11 @@
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
-      <c r="R134" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="S134" s="62" t="s">
-        <v>93</v>
+      <c r="R134" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="S134" s="64" t="s">
+        <v>96</v>
       </c>
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>

--- a/Bio/nutrition spiruline chlorella.xlsx
+++ b/Bio/nutrition spiruline chlorella.xlsx
@@ -9,7 +9,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7miG+qDpLCF8wn64u0z/nCmavZ1dtw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mg3yjeCr6mSDRxJNjrmkvkeI6KEcQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -35,14 +35,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miv0/iB/MwUJxXKRWpX+bX+t+tBhw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mh/DK9nfd5RPhnRn7QGHwDuN9IC4w=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="99">
   <si>
     <t>needed</t>
   </si>
@@ -336,6 +336,12 @@
     <t>Valine**</t>
   </si>
   <si>
+    <t xml:space="preserve">solving caloric issue </t>
+  </si>
+  <si>
+    <t>https://youtu.be/jb7f3EUiO9I</t>
+  </si>
+  <si>
     <t>Minerals</t>
   </si>
   <si>
@@ -434,10 +440,6 @@
     </font>
     <font/>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <sz val="13.0"/>
       <color rgb="FF212121"/>
       <name val="Source Sans Pro"/>
@@ -450,7 +452,7 @@
     <font>
       <sz val="14.0"/>
       <color rgb="FF000000"/>
-      <name val="&quot;Times New Roman&quot;"/>
+      <name val="Times"/>
     </font>
     <font>
       <b/>
@@ -472,6 +474,13 @@
     <font>
       <sz val="11.0"/>
       <color rgb="FF0B0080"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9.0"/>
+      <color rgb="FF202122"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -616,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="71">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -674,11 +683,11 @@
     <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="2" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
@@ -689,10 +698,13 @@
     <xf borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="8" fillId="3" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="7" fillId="3" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="3" fontId="3" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="3" fontId="0" numFmtId="2" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -710,13 +722,13 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -725,13 +737,11 @@
     <xf borderId="6" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="7" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="6" fillId="2" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -743,22 +753,22 @@
     <xf borderId="7" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="7" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -767,13 +777,13 @@
     <xf borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -782,37 +792,43 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="7" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="8" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="6" fillId="8" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="9" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1202,7 +1218,7 @@
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="21">
-        <v>50.0</v>
+        <v>87.0</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>12</v>
@@ -1250,9 +1266,12 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13">
         <f>81/28*G3</f>
-        <v>144.6428571</v>
-      </c>
-      <c r="H4" s="14"/>
+        <v>251.6785714</v>
+      </c>
+      <c r="H4" s="26">
+        <f t="shared" ref="H4:H5" si="1">G4/C4</f>
+        <v>0.1258392857</v>
+      </c>
       <c r="I4" s="24">
         <f>115/28*I3</f>
         <v>410.7142857</v>
@@ -1298,11 +1317,14 @@
         <v>57.14285714</v>
       </c>
       <c r="F5" s="13"/>
-      <c r="G5" s="26">
+      <c r="G5" s="27">
         <f>16/28*G3</f>
-        <v>28.57142857</v>
-      </c>
-      <c r="H5" s="14"/>
+        <v>49.71428571</v>
+      </c>
+      <c r="H5" s="26">
+        <f t="shared" si="1"/>
+        <v>0.9942857143</v>
+      </c>
       <c r="I5" s="24">
         <f>16/28*I3</f>
         <v>57.14285714</v>
@@ -1322,7 +1344,7 @@
         <v>5.74</v>
       </c>
       <c r="S5" s="13"/>
-      <c r="T5" s="26">
+      <c r="T5" s="27">
         <f>16/28*T3</f>
         <v>28.57142857</v>
       </c>
@@ -1344,7 +1366,7 @@
       <c r="D6" s="16"/>
       <c r="E6" s="25"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="26"/>
+      <c r="G6" s="27"/>
       <c r="H6" s="14"/>
       <c r="I6" s="24"/>
       <c r="J6" s="15"/>
@@ -1359,7 +1381,7 @@
         <v>2.39</v>
       </c>
       <c r="S6" s="13"/>
-      <c r="T6" s="26"/>
+      <c r="T6" s="27"/>
       <c r="U6" s="14"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1380,7 +1402,7 @@
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="26"/>
+      <c r="G7" s="27"/>
       <c r="H7" s="14"/>
       <c r="I7" s="24"/>
       <c r="J7" s="15"/>
@@ -1397,7 +1419,7 @@
         <v>0.772</v>
       </c>
       <c r="S7" s="13"/>
-      <c r="T7" s="26"/>
+      <c r="T7" s="27"/>
       <c r="U7" s="14"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -1412,9 +1434,9 @@
       <c r="D8" s="16"/>
       <c r="E8" s="25"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="26">
+      <c r="G8" s="27">
         <f>G3/(1-0.8)</f>
-        <v>250</v>
+        <v>435</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>19</v>
@@ -1430,7 +1452,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="25"/>
       <c r="S8" s="13"/>
-      <c r="T8" s="26"/>
+      <c r="T8" s="27"/>
       <c r="U8" s="14"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -1445,9 +1467,9 @@
       <c r="D9" s="16"/>
       <c r="E9" s="25"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="26">
+      <c r="G9" s="27">
         <f>G8-G3</f>
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>20</v>
@@ -1463,7 +1485,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="25"/>
       <c r="S9" s="13"/>
-      <c r="T9" s="26"/>
+      <c r="T9" s="27"/>
       <c r="U9" s="14"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -1478,7 +1500,7 @@
       <c r="D10" s="16"/>
       <c r="E10" s="25"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="27"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="14"/>
       <c r="I10" s="24"/>
       <c r="J10" s="15"/>
@@ -1491,7 +1513,7 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="25"/>
       <c r="S10" s="13"/>
-      <c r="T10" s="26"/>
+      <c r="T10" s="27"/>
       <c r="U10" s="14"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -1506,7 +1528,7 @@
       <c r="D11" s="16"/>
       <c r="E11" s="25"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="26"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="14"/>
       <c r="I11" s="24"/>
       <c r="J11" s="15"/>
@@ -1519,7 +1541,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="25"/>
       <c r="S11" s="13"/>
-      <c r="T11" s="26"/>
+      <c r="T11" s="27"/>
       <c r="U11" s="14"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -1534,7 +1556,7 @@
       <c r="D12" s="16"/>
       <c r="E12" s="25"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="26"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="14"/>
       <c r="I12" s="24"/>
       <c r="J12" s="15"/>
@@ -1547,7 +1569,7 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="25"/>
       <c r="S12" s="13"/>
-      <c r="T12" s="26"/>
+      <c r="T12" s="27"/>
       <c r="U12" s="14"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -1562,7 +1584,7 @@
       <c r="D13" s="16"/>
       <c r="E13" s="25"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="26"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="14"/>
       <c r="I13" s="24"/>
       <c r="J13" s="15"/>
@@ -1575,7 +1597,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="25"/>
       <c r="S13" s="13"/>
-      <c r="T13" s="26"/>
+      <c r="T13" s="27"/>
       <c r="U13" s="14"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -1590,7 +1612,7 @@
       <c r="D14" s="16"/>
       <c r="E14" s="25"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="26"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="14"/>
       <c r="I14" s="24"/>
       <c r="J14" s="15"/>
@@ -1603,7 +1625,7 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="25"/>
       <c r="S14" s="13"/>
-      <c r="T14" s="26"/>
+      <c r="T14" s="27"/>
       <c r="U14" s="14"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -1618,7 +1640,7 @@
       <c r="D15" s="16"/>
       <c r="E15" s="25"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="26"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="14"/>
       <c r="I15" s="24"/>
       <c r="J15" s="15"/>
@@ -1631,7 +1653,7 @@
       <c r="Q15" s="1"/>
       <c r="R15" s="25"/>
       <c r="S15" s="13"/>
-      <c r="T15" s="26"/>
+      <c r="T15" s="27"/>
       <c r="U15" s="14"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -1646,7 +1668,7 @@
       <c r="D16" s="16"/>
       <c r="E16" s="25"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="26"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="14"/>
       <c r="I16" s="24"/>
       <c r="J16" s="15"/>
@@ -1659,7 +1681,7 @@
       <c r="Q16" s="1"/>
       <c r="R16" s="25"/>
       <c r="S16" s="13"/>
-      <c r="T16" s="26"/>
+      <c r="T16" s="27"/>
       <c r="U16" s="14"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -1674,7 +1696,7 @@
       <c r="D17" s="16"/>
       <c r="E17" s="25"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="26"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="14"/>
       <c r="I17" s="24"/>
       <c r="J17" s="15"/>
@@ -1687,7 +1709,7 @@
       <c r="Q17" s="1"/>
       <c r="R17" s="25"/>
       <c r="S17" s="13"/>
-      <c r="T17" s="26"/>
+      <c r="T17" s="27"/>
       <c r="U17" s="14"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -1702,7 +1724,7 @@
       <c r="D18" s="16"/>
       <c r="E18" s="25"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="26"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="14"/>
       <c r="I18" s="24"/>
       <c r="J18" s="15"/>
@@ -1715,7 +1737,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="25"/>
       <c r="S18" s="13"/>
-      <c r="T18" s="26"/>
+      <c r="T18" s="27"/>
       <c r="U18" s="14"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -1727,71 +1749,71 @@
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="17">
         <v>900.0</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="30">
         <v>3000.0</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="31">
         <v>342.0</v>
       </c>
-      <c r="F19" s="31">
-        <f t="shared" ref="F19:F20" si="1">E19/C19</f>
+      <c r="F19" s="32">
+        <f t="shared" ref="F19:F20" si="2">E19/C19</f>
         <v>0.38</v>
       </c>
-      <c r="G19" s="26">
-        <f t="shared" ref="G19:G20" si="2">$G$3/$E$3*E19</f>
-        <v>171</v>
-      </c>
-      <c r="H19" s="32">
-        <f t="shared" ref="H19:H20" si="3">G19/C19</f>
-        <v>0.19</v>
-      </c>
-      <c r="I19" s="33">
+      <c r="G19" s="27">
+        <f t="shared" ref="G19:G20" si="3">$G$3/$E$3*E19</f>
+        <v>297.54</v>
+      </c>
+      <c r="H19" s="33">
+        <f t="shared" ref="H19:H20" si="4">G19/C19</f>
+        <v>0.3306</v>
+      </c>
+      <c r="I19" s="34">
         <f>58331/0.6</f>
         <v>97218.33333</v>
       </c>
       <c r="J19" s="23">
-        <f t="shared" ref="J19:J20" si="4">I19/C19</f>
+        <f t="shared" ref="J19:J20" si="5">I19/C19</f>
         <v>108.0203704</v>
       </c>
       <c r="K19" s="15">
-        <f t="shared" ref="K19:K20" si="5">$K$3/$I$3*I19</f>
+        <f t="shared" ref="K19:K20" si="6">$K$3/$I$3*I19</f>
         <v>48609.16667</v>
       </c>
-      <c r="L19" s="32">
-        <f t="shared" ref="L19:L20" si="6">K19/C19</f>
+      <c r="L19" s="33">
+        <f t="shared" ref="L19:L20" si="7">K19/C19</f>
         <v>54.01018519</v>
       </c>
-      <c r="M19" s="34">
-        <f t="shared" ref="M19:M33" si="7">G19+K19</f>
-        <v>48780.16667</v>
-      </c>
-      <c r="N19" s="32">
-        <f t="shared" ref="N19:N33" si="8">M19/C19</f>
-        <v>54.20018519</v>
+      <c r="M19" s="35">
+        <f t="shared" ref="M19:M33" si="8">G19+K19</f>
+        <v>48906.70667</v>
+      </c>
+      <c r="N19" s="33">
+        <f t="shared" ref="N19:N33" si="9">M19/C19</f>
+        <v>54.34078519</v>
       </c>
       <c r="O19" s="1"/>
-      <c r="P19" s="28" t="s">
+      <c r="P19" s="29" t="s">
         <v>23</v>
       </c>
       <c r="Q19" s="1"/>
-      <c r="R19" s="30">
+      <c r="R19" s="31">
         <v>5.7</v>
       </c>
-      <c r="S19" s="31">
-        <f t="shared" ref="S19:S20" si="9">R19/D19</f>
+      <c r="S19" s="32">
+        <f t="shared" ref="S19:S20" si="10">R19/D19</f>
         <v>0.0019</v>
       </c>
-      <c r="T19" s="26">
-        <f t="shared" ref="T19:T49" si="10">T$4/R$4*R19</f>
+      <c r="T19" s="27">
+        <f t="shared" ref="T19:T49" si="11">T$4/R$4*R19</f>
         <v>61.07142857</v>
       </c>
-      <c r="U19" s="32">
+      <c r="U19" s="33">
         <f>T19/C19</f>
         <v>0.06785714286</v>
       </c>
@@ -1802,58 +1824,58 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" ht="25.5" customHeight="1">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="31" t="str">
-        <f t="shared" si="1"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="32" t="str">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="26">
-        <f t="shared" si="2"/>
+      <c r="G20" s="27">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H20" s="32" t="str">
-        <f t="shared" si="3"/>
+      <c r="H20" s="33" t="str">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
       <c r="I20" s="17"/>
       <c r="J20" s="23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K20" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L20" s="32" t="str">
-        <f t="shared" si="6"/>
+      <c r="L20" s="33" t="str">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="34">
-        <f t="shared" si="7"/>
+      <c r="M20" s="35">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N20" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O20" s="1"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="31" t="str">
+      <c r="N20" s="33" t="str">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T20" s="26">
+      <c r="O20" s="1"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="32" t="str">
         <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T20" s="27">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U20" s="32" t="str">
+      <c r="U20" s="33" t="str">
         <f>T20/P20</f>
         <v>#DIV/0!</v>
       </c>
@@ -1867,32 +1889,32 @@
       <c r="B21" s="1"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="32"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="33"/>
       <c r="I21" s="17"/>
       <c r="J21" s="23"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="34">
-        <f t="shared" si="7"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="35">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N21" s="32" t="str">
-        <f t="shared" si="8"/>
+      <c r="N21" s="33" t="str">
+        <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="1"/>
-      <c r="P21" s="36"/>
+      <c r="P21" s="37"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="26">
-        <f t="shared" si="10"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="27">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U21" s="32"/>
+      <c r="U21" s="33"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -1910,62 +1932,62 @@
         <v>1.2</v>
       </c>
       <c r="D22" s="18"/>
-      <c r="E22" s="35">
+      <c r="E22" s="36">
         <v>2.38</v>
       </c>
-      <c r="F22" s="31">
-        <f t="shared" ref="F22:F33" si="11">E22/C22</f>
+      <c r="F22" s="32">
+        <f t="shared" ref="F22:F33" si="12">E22/C22</f>
         <v>1.983333333</v>
       </c>
-      <c r="G22" s="26">
-        <f t="shared" ref="G22:G33" si="12">$G$3/$E$3*E22</f>
-        <v>1.19</v>
-      </c>
-      <c r="H22" s="32">
-        <f t="shared" ref="H22:H33" si="13">G22/C22</f>
-        <v>0.9916666667</v>
+      <c r="G22" s="27">
+        <f t="shared" ref="G22:G33" si="13">$G$3/$E$3*E22</f>
+        <v>2.0706</v>
+      </c>
+      <c r="H22" s="33">
+        <f t="shared" ref="H22:H33" si="14">G22/C22</f>
+        <v>1.7255</v>
       </c>
       <c r="I22" s="17">
         <v>2.0</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" ref="J22:J33" si="14">I22/C22</f>
+        <f t="shared" ref="J22:J33" si="15">I22/C22</f>
         <v>1.666666667</v>
       </c>
       <c r="K22" s="15">
-        <f t="shared" ref="K22:K33" si="15">$K$3/$I$3*I22</f>
+        <f t="shared" ref="K22:K33" si="16">$K$3/$I$3*I22</f>
         <v>1</v>
       </c>
-      <c r="L22" s="32">
-        <f t="shared" ref="L22:L33" si="16">K22/C22</f>
+      <c r="L22" s="33">
+        <f t="shared" ref="L22:L33" si="17">K22/C22</f>
         <v>0.8333333333</v>
       </c>
-      <c r="M22" s="34">
-        <f t="shared" si="7"/>
-        <v>2.19</v>
-      </c>
-      <c r="N22" s="32">
+      <c r="M22" s="35">
         <f t="shared" si="8"/>
-        <v>1.825</v>
+        <v>3.0706</v>
+      </c>
+      <c r="N22" s="33">
+        <f t="shared" si="9"/>
+        <v>2.558833333</v>
       </c>
       <c r="O22" s="1"/>
-      <c r="P22" s="28" t="s">
+      <c r="P22" s="29" t="s">
         <v>27</v>
       </c>
       <c r="Q22" s="1"/>
-      <c r="R22" s="35">
+      <c r="R22" s="36">
         <v>0.238</v>
       </c>
-      <c r="S22" s="31">
-        <f t="shared" ref="S22:S33" si="17">R22/C22</f>
+      <c r="S22" s="32">
+        <f t="shared" ref="S22:S33" si="18">R22/C22</f>
         <v>0.1983333333</v>
       </c>
-      <c r="T22" s="26">
-        <f t="shared" si="10"/>
+      <c r="T22" s="27">
+        <f t="shared" si="11"/>
         <v>2.55</v>
       </c>
-      <c r="U22" s="32">
-        <f t="shared" ref="U22:U59" si="18">T22/C22</f>
+      <c r="U22" s="33">
+        <f t="shared" ref="U22:U59" si="19">T22/C22</f>
         <v>2.125</v>
       </c>
       <c r="V22" s="1"/>
@@ -1985,67 +2007,67 @@
         <v>1.3</v>
       </c>
       <c r="D23" s="18"/>
-      <c r="E23" s="35">
+      <c r="E23" s="36">
         <v>3.67</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="32">
+        <f t="shared" si="12"/>
+        <v>2.823076923</v>
+      </c>
+      <c r="G23" s="27">
+        <f t="shared" si="13"/>
+        <v>3.1929</v>
+      </c>
+      <c r="H23" s="33">
+        <f t="shared" si="14"/>
+        <v>2.456076923</v>
+      </c>
+      <c r="I23" s="38">
+        <v>4.533</v>
+      </c>
+      <c r="J23" s="23">
+        <f t="shared" si="15"/>
+        <v>3.486923077</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="16"/>
+        <v>2.2665</v>
+      </c>
+      <c r="L23" s="33">
+        <f t="shared" si="17"/>
+        <v>1.743461538</v>
+      </c>
+      <c r="M23" s="35">
+        <f t="shared" si="8"/>
+        <v>5.4594</v>
+      </c>
+      <c r="N23" s="33">
+        <f t="shared" si="9"/>
+        <v>4.199538462</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="36">
+        <v>0.367</v>
+      </c>
+      <c r="S23" s="32">
+        <f t="shared" si="18"/>
+        <v>0.2823076923</v>
+      </c>
+      <c r="T23" s="27">
         <f t="shared" si="11"/>
-        <v>2.823076923</v>
-      </c>
-      <c r="G23" s="26">
-        <f t="shared" si="12"/>
-        <v>1.835</v>
-      </c>
-      <c r="H23" s="32">
-        <f t="shared" si="13"/>
-        <v>1.411538462</v>
-      </c>
-      <c r="I23" s="37">
-        <v>4.533</v>
-      </c>
-      <c r="J23" s="23">
-        <f t="shared" si="14"/>
-        <v>3.486923077</v>
-      </c>
-      <c r="K23" s="15">
-        <f t="shared" si="15"/>
-        <v>2.2665</v>
-      </c>
-      <c r="L23" s="32">
-        <f t="shared" si="16"/>
-        <v>1.743461538</v>
-      </c>
-      <c r="M23" s="34">
-        <f t="shared" si="7"/>
-        <v>4.1015</v>
-      </c>
-      <c r="N23" s="32">
-        <f t="shared" si="8"/>
-        <v>3.155</v>
-      </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="35">
-        <v>0.367</v>
-      </c>
-      <c r="S23" s="31">
-        <f t="shared" si="17"/>
-        <v>0.2823076923</v>
-      </c>
-      <c r="T23" s="26">
-        <f t="shared" si="10"/>
         <v>3.932142857</v>
       </c>
-      <c r="U23" s="32">
-        <f t="shared" si="18"/>
+      <c r="U23" s="33">
+        <f t="shared" si="19"/>
         <v>3.024725275</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="38" t="s">
+      <c r="X23" s="39" t="s">
         <v>30</v>
       </c>
       <c r="Y23" s="1"/>
@@ -2055,69 +2077,69 @@
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="17">
         <v>16.0</v>
       </c>
       <c r="D24" s="18"/>
-      <c r="E24" s="35">
+      <c r="E24" s="36">
         <v>12.82</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="32">
+        <f t="shared" si="12"/>
+        <v>0.80125</v>
+      </c>
+      <c r="G24" s="27">
+        <f t="shared" si="13"/>
+        <v>11.1534</v>
+      </c>
+      <c r="H24" s="33">
+        <f t="shared" si="14"/>
+        <v>0.6970875</v>
+      </c>
+      <c r="I24" s="38">
+        <v>26.667</v>
+      </c>
+      <c r="J24" s="23">
+        <f t="shared" si="15"/>
+        <v>1.6666875</v>
+      </c>
+      <c r="K24" s="15">
+        <f t="shared" si="16"/>
+        <v>13.3335</v>
+      </c>
+      <c r="L24" s="33">
+        <f t="shared" si="17"/>
+        <v>0.83334375</v>
+      </c>
+      <c r="M24" s="35">
+        <f t="shared" si="8"/>
+        <v>24.4869</v>
+      </c>
+      <c r="N24" s="33">
+        <f t="shared" si="9"/>
+        <v>1.53043125</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="36">
+        <v>1.28</v>
+      </c>
+      <c r="S24" s="32">
+        <f t="shared" si="18"/>
+        <v>0.08</v>
+      </c>
+      <c r="T24" s="27">
         <f t="shared" si="11"/>
-        <v>0.80125</v>
-      </c>
-      <c r="G24" s="26">
-        <f t="shared" si="12"/>
-        <v>6.41</v>
-      </c>
-      <c r="H24" s="32">
-        <f t="shared" si="13"/>
-        <v>0.400625</v>
-      </c>
-      <c r="I24" s="37">
-        <v>26.667</v>
-      </c>
-      <c r="J24" s="23">
-        <f t="shared" si="14"/>
-        <v>1.6666875</v>
-      </c>
-      <c r="K24" s="15">
-        <f t="shared" si="15"/>
-        <v>13.3335</v>
-      </c>
-      <c r="L24" s="32">
-        <f t="shared" si="16"/>
-        <v>0.83334375</v>
-      </c>
-      <c r="M24" s="34">
-        <f t="shared" si="7"/>
-        <v>19.7435</v>
-      </c>
-      <c r="N24" s="32">
-        <f t="shared" si="8"/>
-        <v>1.23396875</v>
-      </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="35">
-        <v>1.28</v>
-      </c>
-      <c r="S24" s="31">
-        <f t="shared" si="17"/>
-        <v>0.08</v>
-      </c>
-      <c r="T24" s="26">
-        <f t="shared" si="10"/>
         <v>13.71428571</v>
       </c>
-      <c r="U24" s="32">
-        <f t="shared" si="18"/>
+      <c r="U24" s="33">
+        <f t="shared" si="19"/>
         <v>0.8571428571</v>
       </c>
       <c r="V24" s="1"/>
@@ -2137,58 +2159,58 @@
         <v>5.0</v>
       </c>
       <c r="D25" s="18"/>
-      <c r="E25" s="35">
+      <c r="E25" s="36">
         <v>3.48</v>
       </c>
-      <c r="F25" s="31">
-        <f t="shared" si="11"/>
+      <c r="F25" s="32">
+        <f t="shared" si="12"/>
         <v>0.696</v>
       </c>
-      <c r="G25" s="26">
-        <f t="shared" si="12"/>
-        <v>1.74</v>
-      </c>
-      <c r="H25" s="32">
+      <c r="G25" s="27">
         <f t="shared" si="13"/>
-        <v>0.348</v>
+        <v>3.0276</v>
+      </c>
+      <c r="H25" s="33">
+        <f t="shared" si="14"/>
+        <v>0.60552</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="23">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="15">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L25" s="32">
+      <c r="K25" s="15">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M25" s="34">
-        <f t="shared" si="7"/>
-        <v>1.74</v>
-      </c>
-      <c r="N25" s="32">
-        <f t="shared" si="8"/>
-        <v>0.348</v>
-      </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="31">
+      <c r="L25" s="33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T25" s="26">
-        <f t="shared" si="10"/>
+      <c r="M25" s="35">
+        <f t="shared" si="8"/>
+        <v>3.0276</v>
+      </c>
+      <c r="N25" s="33">
+        <f t="shared" si="9"/>
+        <v>0.60552</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="32">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U25" s="32">
-        <f t="shared" si="18"/>
+      <c r="T25" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="33">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V25" s="1"/>
@@ -2201,67 +2223,67 @@
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="29" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="17">
         <v>1.3</v>
       </c>
       <c r="D26" s="18"/>
-      <c r="E26" s="35">
+      <c r="E26" s="36">
         <v>0.364</v>
       </c>
-      <c r="F26" s="31">
-        <f t="shared" si="11"/>
+      <c r="F26" s="32">
+        <f t="shared" si="12"/>
         <v>0.28</v>
       </c>
-      <c r="G26" s="26">
-        <f t="shared" si="12"/>
-        <v>0.182</v>
-      </c>
-      <c r="H26" s="32">
+      <c r="G26" s="27">
         <f t="shared" si="13"/>
-        <v>0.14</v>
+        <v>0.31668</v>
+      </c>
+      <c r="H26" s="33">
+        <f t="shared" si="14"/>
+        <v>0.2436</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="23">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="15">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L26" s="32">
+      <c r="K26" s="15">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M26" s="34">
-        <f t="shared" si="7"/>
-        <v>0.182</v>
-      </c>
-      <c r="N26" s="32">
+      <c r="L26" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="35">
         <f t="shared" si="8"/>
-        <v>0.14</v>
+        <v>0.31668</v>
+      </c>
+      <c r="N26" s="33">
+        <f t="shared" si="9"/>
+        <v>0.2436</v>
       </c>
       <c r="O26" s="1"/>
-      <c r="P26" s="28" t="s">
+      <c r="P26" s="29" t="s">
         <v>27</v>
       </c>
       <c r="Q26" s="1"/>
-      <c r="R26" s="35">
+      <c r="R26" s="36">
         <v>0.0364</v>
       </c>
-      <c r="S26" s="31">
-        <f t="shared" si="17"/>
+      <c r="S26" s="32">
+        <f t="shared" si="18"/>
         <v>0.028</v>
       </c>
-      <c r="T26" s="26">
-        <f t="shared" si="10"/>
+      <c r="T26" s="27">
+        <f t="shared" si="11"/>
         <v>0.39</v>
       </c>
-      <c r="U26" s="32">
-        <f t="shared" si="18"/>
+      <c r="U26" s="33">
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="V26" s="1"/>
@@ -2281,58 +2303,58 @@
         <v>30.0</v>
       </c>
       <c r="D27" s="18"/>
-      <c r="E27" s="35">
+      <c r="E27" s="36">
         <v>94.0</v>
       </c>
-      <c r="F27" s="31">
-        <f t="shared" si="11"/>
+      <c r="F27" s="32">
+        <f t="shared" si="12"/>
         <v>3.133333333</v>
       </c>
-      <c r="G27" s="26">
-        <f t="shared" si="12"/>
-        <v>47</v>
-      </c>
-      <c r="H27" s="32">
+      <c r="G27" s="27">
         <f t="shared" si="13"/>
-        <v>1.566666667</v>
+        <v>81.78</v>
+      </c>
+      <c r="H27" s="33">
+        <f t="shared" si="14"/>
+        <v>2.726</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="23">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="15">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L27" s="32">
+      <c r="K27" s="15">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M27" s="34">
-        <f t="shared" si="7"/>
-        <v>47</v>
-      </c>
-      <c r="N27" s="32">
-        <f t="shared" si="8"/>
-        <v>1.566666667</v>
-      </c>
-      <c r="O27" s="1"/>
-      <c r="P27" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="31">
+      <c r="L27" s="33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T27" s="26">
-        <f t="shared" si="10"/>
+      <c r="M27" s="35">
+        <f t="shared" si="8"/>
+        <v>81.78</v>
+      </c>
+      <c r="N27" s="33">
+        <f t="shared" si="9"/>
+        <v>2.726</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="32">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U27" s="32">
-        <f t="shared" si="18"/>
+      <c r="T27" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="33">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V27" s="1"/>
@@ -2345,7 +2367,7 @@
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="B28" s="29" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="17">
@@ -2354,60 +2376,60 @@
       <c r="D28" s="18">
         <v>1000.0</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="36">
         <v>0.0</v>
       </c>
-      <c r="F28" s="31">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="26">
+      <c r="F28" s="32">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H28" s="32">
+      <c r="G28" s="27">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="23">
+      <c r="H28" s="33">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="K28" s="15">
+      <c r="I28" s="40"/>
+      <c r="J28" s="23">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L28" s="32">
+      <c r="K28" s="15">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M28" s="34">
-        <f t="shared" si="7"/>
+      <c r="L28" s="33">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="N28" s="32">
+      <c r="M28" s="35">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
+      <c r="N28" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="O28" s="1"/>
-      <c r="P28" s="28" t="s">
+      <c r="P28" s="29" t="s">
         <v>23</v>
       </c>
       <c r="Q28" s="1"/>
-      <c r="R28" s="35">
+      <c r="R28" s="36">
         <v>9.4</v>
       </c>
-      <c r="S28" s="31">
-        <f t="shared" si="17"/>
+      <c r="S28" s="32">
+        <f t="shared" si="18"/>
         <v>0.0235</v>
       </c>
-      <c r="T28" s="26">
-        <f t="shared" si="10"/>
+      <c r="T28" s="27">
+        <f t="shared" si="11"/>
         <v>100.7142857</v>
       </c>
-      <c r="U28" s="32">
-        <f t="shared" si="18"/>
+      <c r="U28" s="33">
+        <f t="shared" si="19"/>
         <v>0.2517857143</v>
       </c>
       <c r="V28" s="1"/>
@@ -2420,69 +2442,69 @@
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="29" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="17">
         <v>2.4</v>
       </c>
       <c r="D29" s="18"/>
-      <c r="E29" s="35">
+      <c r="E29" s="36">
         <v>66.0</v>
       </c>
-      <c r="F29" s="31">
-        <f t="shared" si="11"/>
+      <c r="F29" s="32">
+        <f t="shared" si="12"/>
         <v>27.5</v>
       </c>
-      <c r="G29" s="26">
-        <f t="shared" si="12"/>
-        <v>33</v>
-      </c>
-      <c r="H29" s="32">
+      <c r="G29" s="27">
         <f t="shared" si="13"/>
-        <v>13.75</v>
+        <v>57.42</v>
+      </c>
+      <c r="H29" s="33">
+        <f t="shared" si="14"/>
+        <v>23.925</v>
       </c>
       <c r="I29" s="17">
         <v>300.0</v>
       </c>
       <c r="J29" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>125</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>150</v>
       </c>
-      <c r="L29" s="32">
-        <f t="shared" si="16"/>
+      <c r="L29" s="33">
+        <f t="shared" si="17"/>
         <v>62.5</v>
       </c>
-      <c r="M29" s="34">
-        <f t="shared" si="7"/>
-        <v>183</v>
-      </c>
-      <c r="N29" s="32">
+      <c r="M29" s="35">
         <f t="shared" si="8"/>
-        <v>76.25</v>
+        <v>207.42</v>
+      </c>
+      <c r="N29" s="33">
+        <f t="shared" si="9"/>
+        <v>86.425</v>
       </c>
       <c r="O29" s="1"/>
-      <c r="P29" s="40" t="s">
+      <c r="P29" s="41" t="s">
         <v>23</v>
       </c>
       <c r="Q29" s="1"/>
-      <c r="R29" s="35">
+      <c r="R29" s="36">
         <v>0.0</v>
       </c>
-      <c r="S29" s="31">
-        <f t="shared" si="17"/>
+      <c r="S29" s="32">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T29" s="26">
-        <f t="shared" si="10"/>
+      <c r="T29" s="27">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U29" s="32">
-        <f t="shared" si="18"/>
+      <c r="U29" s="33">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V29" s="1"/>
@@ -2502,62 +2524,62 @@
         <v>90.0</v>
       </c>
       <c r="D30" s="18"/>
-      <c r="E30" s="35">
+      <c r="E30" s="36">
         <v>10.1</v>
       </c>
-      <c r="F30" s="31">
-        <f t="shared" si="11"/>
+      <c r="F30" s="32">
+        <f t="shared" si="12"/>
         <v>0.1122222222</v>
       </c>
-      <c r="G30" s="26">
-        <f t="shared" si="12"/>
-        <v>5.05</v>
-      </c>
-      <c r="H30" s="32">
+      <c r="G30" s="27">
         <f t="shared" si="13"/>
-        <v>0.05611111111</v>
+        <v>8.787</v>
+      </c>
+      <c r="H30" s="33">
+        <f t="shared" si="14"/>
+        <v>0.09763333333</v>
       </c>
       <c r="I30" s="17">
         <v>20.0</v>
       </c>
       <c r="J30" s="23">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.2222222222</v>
       </c>
       <c r="K30" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="L30" s="32">
-        <f t="shared" si="16"/>
+      <c r="L30" s="33">
+        <f t="shared" si="17"/>
         <v>0.1111111111</v>
       </c>
-      <c r="M30" s="34">
-        <f t="shared" si="7"/>
-        <v>15.05</v>
-      </c>
-      <c r="N30" s="32">
+      <c r="M30" s="35">
         <f t="shared" si="8"/>
-        <v>0.1672222222</v>
+        <v>18.787</v>
+      </c>
+      <c r="N30" s="33">
+        <f t="shared" si="9"/>
+        <v>0.2087444444</v>
       </c>
       <c r="O30" s="1"/>
-      <c r="P30" s="40" t="s">
+      <c r="P30" s="41" t="s">
         <v>27</v>
       </c>
       <c r="Q30" s="1"/>
-      <c r="R30" s="35">
+      <c r="R30" s="36">
         <v>1.01</v>
       </c>
-      <c r="S30" s="31">
-        <f t="shared" si="17"/>
+      <c r="S30" s="32">
+        <f t="shared" si="18"/>
         <v>0.01122222222</v>
       </c>
-      <c r="T30" s="26">
-        <f t="shared" si="10"/>
+      <c r="T30" s="27">
+        <f t="shared" si="11"/>
         <v>10.82142857</v>
       </c>
-      <c r="U30" s="32">
-        <f t="shared" si="18"/>
+      <c r="U30" s="33">
+        <f t="shared" si="19"/>
         <v>0.1202380952</v>
       </c>
       <c r="V30" s="1"/>
@@ -2570,7 +2592,7 @@
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="29" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="17">
@@ -2579,60 +2601,60 @@
       <c r="D31" s="18">
         <v>50.0</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="36">
         <v>0.0</v>
       </c>
-      <c r="F31" s="31">
+      <c r="F31" s="32">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="27">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="33">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="17"/>
+      <c r="J31" s="23">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="35">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="36">
+        <v>0.0</v>
+      </c>
+      <c r="S31" s="32">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="27">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="G31" s="26">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="32">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="17"/>
-      <c r="J31" s="23">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="15">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="32">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="34">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="32">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="1"/>
-      <c r="P31" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="35">
-        <v>0.0</v>
-      </c>
-      <c r="S31" s="31">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="26">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="32">
-        <f t="shared" si="18"/>
+      <c r="U31" s="33">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V31" s="1"/>
@@ -2645,67 +2667,67 @@
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="29" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="17">
         <v>15.0</v>
       </c>
       <c r="D32" s="18"/>
-      <c r="E32" s="35">
+      <c r="E32" s="36">
         <v>5.0</v>
       </c>
-      <c r="F32" s="31">
-        <f t="shared" si="11"/>
+      <c r="F32" s="32">
+        <f t="shared" si="12"/>
         <v>0.3333333333</v>
       </c>
-      <c r="G32" s="26">
-        <f t="shared" si="12"/>
-        <v>2.5</v>
-      </c>
-      <c r="H32" s="32">
+      <c r="G32" s="27">
         <f t="shared" si="13"/>
-        <v>0.1666666667</v>
+        <v>4.35</v>
+      </c>
+      <c r="H32" s="33">
+        <f t="shared" si="14"/>
+        <v>0.29</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="23">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="15">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L32" s="32">
+      <c r="K32" s="15">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M32" s="34">
-        <f t="shared" si="7"/>
-        <v>2.5</v>
-      </c>
-      <c r="N32" s="32">
+      <c r="L32" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="35">
         <f t="shared" si="8"/>
-        <v>0.1666666667</v>
+        <v>4.35</v>
+      </c>
+      <c r="N32" s="33">
+        <f t="shared" si="9"/>
+        <v>0.29</v>
       </c>
       <c r="O32" s="1"/>
-      <c r="P32" s="28" t="s">
+      <c r="P32" s="29" t="s">
         <v>27</v>
       </c>
       <c r="Q32" s="1"/>
-      <c r="R32" s="35">
+      <c r="R32" s="36">
         <v>0.675</v>
       </c>
-      <c r="S32" s="31">
-        <f t="shared" si="17"/>
+      <c r="S32" s="32">
+        <f t="shared" si="18"/>
         <v>0.045</v>
       </c>
-      <c r="T32" s="26">
-        <f t="shared" si="10"/>
+      <c r="T32" s="27">
+        <f t="shared" si="11"/>
         <v>7.232142857</v>
       </c>
-      <c r="U32" s="32">
-        <f t="shared" si="18"/>
+      <c r="U32" s="33">
+        <f t="shared" si="19"/>
         <v>0.4821428571</v>
       </c>
       <c r="V32" s="1"/>
@@ -2718,65 +2740,65 @@
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="29" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="17">
         <v>120.0</v>
       </c>
       <c r="D33" s="18"/>
-      <c r="E33" s="35">
+      <c r="E33" s="36">
         <v>25.5</v>
       </c>
-      <c r="F33" s="31">
-        <f t="shared" si="11"/>
+      <c r="F33" s="32">
+        <f t="shared" si="12"/>
         <v>0.2125</v>
       </c>
-      <c r="G33" s="26">
-        <f t="shared" si="12"/>
-        <v>12.75</v>
-      </c>
-      <c r="H33" s="32">
+      <c r="G33" s="27">
         <f t="shared" si="13"/>
-        <v>0.10625</v>
+        <v>22.185</v>
+      </c>
+      <c r="H33" s="33">
+        <f t="shared" si="14"/>
+        <v>0.184875</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="23">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="15">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="L33" s="32">
+      <c r="K33" s="15">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="M33" s="34">
-        <f t="shared" si="7"/>
-        <v>12.75</v>
-      </c>
-      <c r="N33" s="32">
-        <f t="shared" si="8"/>
-        <v>0.10625</v>
-      </c>
-      <c r="O33" s="1"/>
-      <c r="P33" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="31">
+      <c r="L33" s="33">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="T33" s="26">
-        <f t="shared" si="10"/>
+      <c r="M33" s="35">
+        <f t="shared" si="8"/>
+        <v>22.185</v>
+      </c>
+      <c r="N33" s="33">
+        <f t="shared" si="9"/>
+        <v>0.184875</v>
+      </c>
+      <c r="O33" s="1"/>
+      <c r="P33" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="32">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="U33" s="32">
-        <f t="shared" si="18"/>
+      <c r="T33" s="27">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="33">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V33" s="1"/>
@@ -2791,26 +2813,26 @@
       <c r="C34" s="17"/>
       <c r="D34" s="18"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="33"/>
       <c r="I34" s="17"/>
       <c r="J34" s="23"/>
       <c r="K34" s="15"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="32"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="33"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="19"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="26">
-        <f t="shared" si="10"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="27">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U34" s="32" t="str">
-        <f t="shared" si="18"/>
+      <c r="U34" s="33" t="str">
+        <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V34" s="1"/>
@@ -2823,43 +2845,43 @@
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="41"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="17">
         <v>4.7</v>
       </c>
       <c r="D35" s="18"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="31">
-        <f t="shared" ref="F35:F49" si="19">E35/C35</f>
+      <c r="E35" s="31"/>
+      <c r="F35" s="32">
+        <f t="shared" ref="F35:F49" si="20">E35/C35</f>
         <v>0</v>
       </c>
-      <c r="G35" s="26">
-        <f t="shared" ref="G35:G49" si="20">$G$3/$E$3*E35</f>
+      <c r="G35" s="27">
+        <f t="shared" ref="G35:G49" si="21">$G$3/$E$3*E35</f>
         <v>0</v>
       </c>
-      <c r="H35" s="32">
-        <f t="shared" ref="H35:H49" si="21">G35/C35</f>
+      <c r="H35" s="33">
+        <f t="shared" ref="H35:H49" si="22">G35/C35</f>
         <v>0</v>
       </c>
       <c r="I35" s="17"/>
       <c r="J35" s="23">
-        <f t="shared" ref="J35:J49" si="22">I35/C35</f>
+        <f t="shared" ref="J35:J49" si="23">I35/C35</f>
         <v>0</v>
       </c>
       <c r="K35" s="15">
-        <f t="shared" ref="K35:K49" si="23">$K$3/$I$3*I35</f>
+        <f t="shared" ref="K35:K49" si="24">$K$3/$I$3*I35</f>
         <v>0</v>
       </c>
-      <c r="L35" s="32">
-        <f t="shared" ref="L35:L49" si="24">K35/C35</f>
+      <c r="L35" s="33">
+        <f t="shared" ref="L35:L49" si="25">K35/C35</f>
         <v>0</v>
       </c>
-      <c r="M35" s="34">
-        <f t="shared" ref="M35:M49" si="25">G35+K35</f>
+      <c r="M35" s="35">
+        <f t="shared" ref="M35:M49" si="26">G35+K35</f>
         <v>0</v>
       </c>
-      <c r="N35" s="32">
-        <f t="shared" ref="N35:N49" si="26">M35/C35</f>
+      <c r="N35" s="33">
+        <f t="shared" ref="N35:N49" si="27">M35/C35</f>
         <v>0</v>
       </c>
       <c r="O35" s="1"/>
@@ -2867,19 +2889,19 @@
         <v>13</v>
       </c>
       <c r="Q35" s="1"/>
-      <c r="R35" s="30">
+      <c r="R35" s="31">
         <v>0.136</v>
       </c>
-      <c r="S35" s="31" t="str">
-        <f t="shared" ref="S35:S49" si="27">R35/P35</f>
+      <c r="S35" s="32" t="str">
+        <f t="shared" ref="S35:S49" si="28">R35/P35</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T35" s="26">
-        <f t="shared" si="10"/>
+      <c r="T35" s="27">
+        <f t="shared" si="11"/>
         <v>1.457142857</v>
       </c>
-      <c r="U35" s="32">
-        <f t="shared" si="18"/>
+      <c r="U35" s="33">
+        <f t="shared" si="19"/>
         <v>0.3100303951</v>
       </c>
       <c r="V35" s="1"/>
@@ -2892,43 +2914,43 @@
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="41"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="17">
         <v>2.3</v>
       </c>
       <c r="D36" s="18"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="26">
+      <c r="E36" s="31"/>
+      <c r="F36" s="32">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H36" s="32">
+      <c r="G36" s="27">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="H36" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="I36" s="17"/>
       <c r="J36" s="23">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K36" s="15">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L36" s="32">
+      <c r="K36" s="15">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M36" s="34">
+      <c r="L36" s="33">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N36" s="32">
+      <c r="M36" s="35">
         <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="33">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O36" s="1"/>
@@ -2936,17 +2958,17 @@
         <v>13</v>
       </c>
       <c r="Q36" s="1"/>
-      <c r="R36" s="30"/>
-      <c r="S36" s="31" t="str">
-        <f t="shared" si="27"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="32" t="str">
+        <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T36" s="26">
-        <f t="shared" si="10"/>
+      <c r="T36" s="27">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U36" s="32">
-        <f t="shared" si="18"/>
+      <c r="U36" s="33">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V36" s="1"/>
@@ -2959,47 +2981,47 @@
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="41"/>
+      <c r="B37" s="42"/>
       <c r="C37" s="17">
         <v>2300.0</v>
       </c>
       <c r="D37" s="18">
         <v>6000.0</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="26">
+      <c r="E37" s="31"/>
+      <c r="F37" s="32">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H37" s="32">
+      <c r="G37" s="27">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I37" s="37">
-        <v>0.0</v>
-      </c>
-      <c r="J37" s="23">
+      <c r="H37" s="33">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K37" s="15">
+      <c r="I37" s="38">
+        <v>0.0</v>
+      </c>
+      <c r="J37" s="23">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L37" s="32">
+      <c r="K37" s="15">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M37" s="34">
+      <c r="L37" s="33">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N37" s="32">
+      <c r="M37" s="35">
         <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="33">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O37" s="1"/>
@@ -3007,19 +3029,19 @@
         <v>27</v>
       </c>
       <c r="Q37" s="1"/>
-      <c r="R37" s="30">
+      <c r="R37" s="31">
         <v>105.0</v>
       </c>
-      <c r="S37" s="31" t="str">
-        <f t="shared" si="27"/>
+      <c r="S37" s="32" t="str">
+        <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T37" s="26">
-        <f t="shared" si="10"/>
+      <c r="T37" s="27">
+        <f t="shared" si="11"/>
         <v>1125</v>
       </c>
-      <c r="U37" s="32">
-        <f t="shared" si="18"/>
+      <c r="U37" s="33">
+        <f t="shared" si="19"/>
         <v>0.4891304348</v>
       </c>
       <c r="V37" s="1"/>
@@ -3032,67 +3054,67 @@
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="41"/>
+      <c r="B38" s="42"/>
       <c r="C38" s="17">
         <v>1000.0</v>
       </c>
       <c r="D38" s="18">
         <v>2500.0</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="26">
+      <c r="E38" s="31"/>
+      <c r="F38" s="32">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H38" s="32">
+      <c r="G38" s="27">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I38" s="37">
+      <c r="H38" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="38">
         <v>333.0</v>
       </c>
       <c r="J38" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.333</v>
       </c>
       <c r="K38" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>166.5</v>
       </c>
-      <c r="L38" s="32">
-        <f t="shared" si="24"/>
+      <c r="L38" s="33">
+        <f t="shared" si="25"/>
         <v>0.1665</v>
       </c>
-      <c r="M38" s="34">
-        <f t="shared" si="25"/>
+      <c r="M38" s="35">
+        <f t="shared" si="26"/>
         <v>166.5</v>
       </c>
-      <c r="N38" s="32">
-        <f t="shared" si="26"/>
+      <c r="N38" s="33">
+        <f t="shared" si="27"/>
         <v>0.1665</v>
       </c>
       <c r="O38" s="1"/>
-      <c r="P38" s="40" t="s">
+      <c r="P38" s="41" t="s">
         <v>27</v>
       </c>
       <c r="Q38" s="1"/>
-      <c r="R38" s="30">
+      <c r="R38" s="31">
         <v>12.0</v>
       </c>
-      <c r="S38" s="31" t="str">
-        <f t="shared" si="27"/>
+      <c r="S38" s="32" t="str">
+        <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T38" s="26">
-        <f t="shared" si="10"/>
+      <c r="T38" s="27">
+        <f t="shared" si="11"/>
         <v>128.5714286</v>
       </c>
-      <c r="U38" s="32">
-        <f t="shared" si="18"/>
+      <c r="U38" s="33">
+        <f t="shared" si="19"/>
         <v>0.1285714286</v>
       </c>
       <c r="V38" s="1"/>
@@ -3105,45 +3127,45 @@
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="41"/>
+      <c r="B39" s="42"/>
       <c r="C39" s="17">
         <v>700.0</v>
       </c>
       <c r="D39" s="18">
         <v>4000.0</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="26">
+      <c r="E39" s="31"/>
+      <c r="F39" s="32">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H39" s="32">
+      <c r="G39" s="27">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I39" s="37"/>
-      <c r="J39" s="23">
+      <c r="H39" s="33">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K39" s="15">
+      <c r="I39" s="38"/>
+      <c r="J39" s="23">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L39" s="32">
+      <c r="K39" s="15">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M39" s="34">
+      <c r="L39" s="33">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N39" s="32">
+      <c r="M39" s="35">
         <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="33">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O39" s="1"/>
@@ -3151,19 +3173,19 @@
         <v>27</v>
       </c>
       <c r="Q39" s="1"/>
-      <c r="R39" s="30">
+      <c r="R39" s="31">
         <v>11.8</v>
       </c>
-      <c r="S39" s="31" t="str">
-        <f t="shared" si="27"/>
+      <c r="S39" s="32" t="str">
+        <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T39" s="26">
-        <f t="shared" si="10"/>
+      <c r="T39" s="27">
+        <f t="shared" si="11"/>
         <v>126.4285714</v>
       </c>
-      <c r="U39" s="32">
-        <f t="shared" si="18"/>
+      <c r="U39" s="33">
+        <f t="shared" si="19"/>
         <v>0.1806122449</v>
       </c>
       <c r="V39" s="1"/>
@@ -3176,43 +3198,43 @@
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="42"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="17">
         <v>420.0</v>
       </c>
       <c r="D40" s="18"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="26">
+      <c r="E40" s="31"/>
+      <c r="F40" s="32">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H40" s="32">
+      <c r="G40" s="27">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I40" s="37"/>
-      <c r="J40" s="23">
+      <c r="H40" s="33">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K40" s="15">
+      <c r="I40" s="38"/>
+      <c r="J40" s="23">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L40" s="32">
+      <c r="K40" s="15">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M40" s="34">
+      <c r="L40" s="33">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N40" s="32">
+      <c r="M40" s="35">
         <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="33">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O40" s="1"/>
@@ -3220,19 +3242,19 @@
         <v>27</v>
       </c>
       <c r="Q40" s="1"/>
-      <c r="R40" s="30">
+      <c r="R40" s="31">
         <v>19.5</v>
       </c>
-      <c r="S40" s="31" t="str">
-        <f t="shared" si="27"/>
+      <c r="S40" s="32" t="str">
+        <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T40" s="26">
-        <f t="shared" si="10"/>
+      <c r="T40" s="27">
+        <f t="shared" si="11"/>
         <v>208.9285714</v>
       </c>
-      <c r="U40" s="32">
-        <f t="shared" si="18"/>
+      <c r="U40" s="33">
+        <f t="shared" si="19"/>
         <v>0.4974489796</v>
       </c>
       <c r="V40" s="1"/>
@@ -3245,47 +3267,47 @@
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="42"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="17">
         <v>4.0</v>
       </c>
       <c r="D41" s="18">
         <v>10.0</v>
       </c>
-      <c r="E41" s="30"/>
-      <c r="F41" s="31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G41" s="26">
+      <c r="E41" s="31"/>
+      <c r="F41" s="32">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H41" s="32">
+      <c r="G41" s="27">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I41" s="37">
+      <c r="H41" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="38">
         <v>267.0</v>
       </c>
       <c r="J41" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>66.75</v>
       </c>
       <c r="K41" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>133.5</v>
       </c>
-      <c r="L41" s="32">
-        <f t="shared" si="24"/>
+      <c r="L41" s="33">
+        <f t="shared" si="25"/>
         <v>33.375</v>
       </c>
-      <c r="M41" s="34">
-        <f t="shared" si="25"/>
+      <c r="M41" s="35">
+        <f t="shared" si="26"/>
         <v>133.5</v>
       </c>
-      <c r="N41" s="32">
-        <f t="shared" si="26"/>
+      <c r="N41" s="33">
+        <f t="shared" si="27"/>
         <v>33.375</v>
       </c>
       <c r="O41" s="1"/>
@@ -3293,17 +3315,17 @@
         <v>27</v>
       </c>
       <c r="Q41" s="1"/>
-      <c r="R41" s="30"/>
-      <c r="S41" s="31" t="str">
-        <f t="shared" si="27"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="32" t="str">
+        <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T41" s="26">
-        <f t="shared" si="10"/>
+      <c r="T41" s="27">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U41" s="32">
-        <f t="shared" si="18"/>
+      <c r="U41" s="33">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V41" s="1"/>
@@ -3316,67 +3338,67 @@
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="41"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="17">
         <v>8.0</v>
       </c>
       <c r="D42" s="18">
         <v>45.0</v>
       </c>
-      <c r="E42" s="30"/>
-      <c r="F42" s="31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="26">
+      <c r="E42" s="31"/>
+      <c r="F42" s="32">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H42" s="32">
+      <c r="G42" s="27">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="H42" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="I42" s="17">
         <v>240.0</v>
       </c>
       <c r="J42" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>30</v>
       </c>
       <c r="K42" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>120</v>
       </c>
-      <c r="L42" s="32">
-        <f t="shared" si="24"/>
+      <c r="L42" s="33">
+        <f t="shared" si="25"/>
         <v>15</v>
       </c>
-      <c r="M42" s="34">
-        <f t="shared" si="25"/>
+      <c r="M42" s="35">
+        <f t="shared" si="26"/>
         <v>120</v>
       </c>
-      <c r="N42" s="32">
-        <f t="shared" si="26"/>
+      <c r="N42" s="33">
+        <f t="shared" si="27"/>
         <v>15</v>
       </c>
       <c r="O42" s="1"/>
-      <c r="P42" s="40" t="s">
+      <c r="P42" s="41" t="s">
         <v>27</v>
       </c>
       <c r="Q42" s="1"/>
-      <c r="R42" s="30">
+      <c r="R42" s="31">
         <v>2.85</v>
       </c>
-      <c r="S42" s="31" t="str">
-        <f t="shared" si="27"/>
+      <c r="S42" s="32" t="str">
+        <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T42" s="26">
-        <f t="shared" si="10"/>
+      <c r="T42" s="27">
+        <f t="shared" si="11"/>
         <v>30.53571429</v>
       </c>
-      <c r="U42" s="32">
-        <f t="shared" si="18"/>
+      <c r="U42" s="33">
+        <f t="shared" si="19"/>
         <v>3.816964286</v>
       </c>
       <c r="V42" s="1"/>
@@ -3389,47 +3411,47 @@
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="41"/>
+      <c r="B43" s="42"/>
       <c r="C43" s="17">
         <v>22.0</v>
       </c>
       <c r="D43" s="18">
         <v>40.0</v>
       </c>
-      <c r="E43" s="30"/>
-      <c r="F43" s="31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="26">
+      <c r="E43" s="31"/>
+      <c r="F43" s="32">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H43" s="32">
+      <c r="G43" s="27">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="H43" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="I43" s="17">
         <v>70.0</v>
       </c>
       <c r="J43" s="23">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.181818182</v>
       </c>
       <c r="K43" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>35</v>
       </c>
-      <c r="L43" s="32">
-        <f t="shared" si="24"/>
+      <c r="L43" s="33">
+        <f t="shared" si="25"/>
         <v>1.590909091</v>
       </c>
-      <c r="M43" s="34">
-        <f t="shared" si="25"/>
+      <c r="M43" s="35">
+        <f t="shared" si="26"/>
         <v>35</v>
       </c>
-      <c r="N43" s="32">
-        <f t="shared" si="26"/>
+      <c r="N43" s="33">
+        <f t="shared" si="27"/>
         <v>1.590909091</v>
       </c>
       <c r="O43" s="1"/>
@@ -3437,19 +3459,19 @@
         <v>27</v>
       </c>
       <c r="Q43" s="1"/>
-      <c r="R43" s="30">
+      <c r="R43" s="31">
         <v>0.3</v>
       </c>
-      <c r="S43" s="31" t="str">
-        <f t="shared" si="27"/>
+      <c r="S43" s="32" t="str">
+        <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T43" s="26">
-        <f t="shared" si="10"/>
+      <c r="T43" s="27">
+        <f t="shared" si="11"/>
         <v>3.214285714</v>
       </c>
-      <c r="U43" s="32">
-        <f t="shared" si="18"/>
+      <c r="U43" s="33">
+        <f t="shared" si="19"/>
         <v>0.1461038961</v>
       </c>
       <c r="V43" s="1"/>
@@ -3462,45 +3484,45 @@
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="41"/>
+      <c r="B44" s="42"/>
       <c r="C44" s="17">
         <v>2.3</v>
       </c>
       <c r="D44" s="18">
         <v>11.0</v>
       </c>
-      <c r="E44" s="30"/>
-      <c r="F44" s="31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="26">
+      <c r="E44" s="31"/>
+      <c r="F44" s="32">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H44" s="32">
+      <c r="G44" s="27">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="H44" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="I44" s="17"/>
       <c r="J44" s="23">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="15">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L44" s="32">
+      <c r="K44" s="15">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M44" s="34">
+      <c r="L44" s="33">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N44" s="32">
+      <c r="M44" s="35">
         <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="33">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O44" s="1"/>
@@ -3508,19 +3530,19 @@
         <v>27</v>
       </c>
       <c r="Q44" s="1"/>
-      <c r="R44" s="30">
+      <c r="R44" s="31">
         <v>0.19</v>
       </c>
-      <c r="S44" s="31" t="str">
-        <f t="shared" si="27"/>
+      <c r="S44" s="32" t="str">
+        <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T44" s="26">
-        <f t="shared" si="10"/>
+      <c r="T44" s="27">
+        <f t="shared" si="11"/>
         <v>2.035714286</v>
       </c>
-      <c r="U44" s="32">
-        <f t="shared" si="18"/>
+      <c r="U44" s="33">
+        <f t="shared" si="19"/>
         <v>0.8850931677</v>
       </c>
       <c r="V44" s="1"/>
@@ -3533,45 +3555,45 @@
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="41"/>
-      <c r="C45" s="37">
+      <c r="B45" s="42"/>
+      <c r="C45" s="38">
         <v>900.0</v>
       </c>
       <c r="D45" s="18">
         <v>10000.0</v>
       </c>
       <c r="E45" s="19"/>
-      <c r="F45" s="31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="26">
+      <c r="F45" s="32">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H45" s="32">
+      <c r="G45" s="27">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="H45" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="I45" s="17"/>
       <c r="J45" s="23">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K45" s="15">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L45" s="32">
+      <c r="K45" s="15">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M45" s="34">
+      <c r="L45" s="33">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N45" s="32">
+      <c r="M45" s="35">
         <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="33">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O45" s="1"/>
@@ -3582,16 +3604,16 @@
       <c r="R45" s="19">
         <v>0.61</v>
       </c>
-      <c r="S45" s="31" t="str">
-        <f t="shared" si="27"/>
+      <c r="S45" s="32" t="str">
+        <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T45" s="26">
-        <f t="shared" si="10"/>
+      <c r="T45" s="27">
+        <f t="shared" si="11"/>
         <v>6.535714286</v>
       </c>
-      <c r="U45" s="32">
-        <f t="shared" si="18"/>
+      <c r="U45" s="33">
+        <f t="shared" si="19"/>
         <v>0.007261904762</v>
       </c>
       <c r="V45" s="1"/>
@@ -3604,45 +3626,45 @@
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="37">
+      <c r="B46" s="42"/>
+      <c r="C46" s="38">
         <v>150.0</v>
       </c>
       <c r="D46" s="18">
         <v>1100.0</v>
       </c>
-      <c r="E46" s="30"/>
-      <c r="F46" s="31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="26">
+      <c r="E46" s="31"/>
+      <c r="F46" s="32">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H46" s="32">
+      <c r="G46" s="27">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="I46" s="37"/>
-      <c r="J46" s="23">
+      <c r="H46" s="33">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="K46" s="15">
+      <c r="I46" s="38"/>
+      <c r="J46" s="23">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L46" s="32">
+      <c r="K46" s="15">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M46" s="34">
+      <c r="L46" s="33">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N46" s="32">
+      <c r="M46" s="35">
         <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="33">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O46" s="1"/>
@@ -3650,17 +3672,17 @@
         <v>23</v>
       </c>
       <c r="Q46" s="1"/>
-      <c r="R46" s="30"/>
-      <c r="S46" s="31" t="str">
-        <f t="shared" si="27"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="32" t="str">
+        <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T46" s="26">
-        <f t="shared" si="10"/>
+      <c r="T46" s="27">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U46" s="32">
-        <f t="shared" si="18"/>
+      <c r="U46" s="33">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V46" s="1"/>
@@ -3673,43 +3695,43 @@
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="41"/>
-      <c r="C47" s="37">
+      <c r="B47" s="42"/>
+      <c r="C47" s="38">
         <v>35.0</v>
       </c>
-      <c r="D47" s="43"/>
+      <c r="D47" s="44"/>
       <c r="E47" s="19"/>
-      <c r="F47" s="31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="26">
+      <c r="F47" s="32">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H47" s="32">
+      <c r="G47" s="27">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="H47" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="I47" s="17"/>
       <c r="J47" s="23">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K47" s="15">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L47" s="32">
+      <c r="K47" s="15">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M47" s="34">
+      <c r="L47" s="33">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N47" s="32">
+      <c r="M47" s="35">
         <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="33">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O47" s="1"/>
@@ -3718,16 +3740,16 @@
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="19"/>
-      <c r="S47" s="31" t="str">
-        <f t="shared" si="27"/>
+      <c r="S47" s="32" t="str">
+        <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T47" s="26">
-        <f t="shared" si="10"/>
+      <c r="T47" s="27">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U47" s="32">
-        <f t="shared" si="18"/>
+      <c r="U47" s="33">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V47" s="1"/>
@@ -3740,45 +3762,45 @@
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="41"/>
-      <c r="C48" s="37">
+      <c r="B48" s="42"/>
+      <c r="C48" s="38">
         <v>45.0</v>
       </c>
-      <c r="D48" s="43">
+      <c r="D48" s="44">
         <v>2000.0</v>
       </c>
       <c r="E48" s="19"/>
-      <c r="F48" s="31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G48" s="26">
+      <c r="F48" s="32">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H48" s="32">
+      <c r="G48" s="27">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="H48" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="I48" s="17"/>
       <c r="J48" s="23">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K48" s="15">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L48" s="32">
+      <c r="K48" s="15">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M48" s="34">
+      <c r="L48" s="33">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N48" s="32">
+      <c r="M48" s="35">
         <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="33">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O48" s="1"/>
@@ -3787,16 +3809,16 @@
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="19"/>
-      <c r="S48" s="31" t="str">
-        <f t="shared" si="27"/>
+      <c r="S48" s="32" t="str">
+        <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T48" s="26">
-        <f t="shared" si="10"/>
+      <c r="T48" s="27">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U48" s="32">
-        <f t="shared" si="18"/>
+      <c r="U48" s="33">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V48" s="1"/>
@@ -3809,45 +3831,45 @@
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="37">
+      <c r="B49" s="42"/>
+      <c r="C49" s="38">
         <v>55.0</v>
       </c>
-      <c r="D49" s="43">
+      <c r="D49" s="44">
         <v>400.0</v>
       </c>
       <c r="E49" s="19"/>
-      <c r="F49" s="31">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="26">
+      <c r="F49" s="32">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="H49" s="32">
+      <c r="G49" s="27">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
+      <c r="H49" s="33">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
       <c r="I49" s="17"/>
       <c r="J49" s="23">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="K49" s="15">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="L49" s="32">
+      <c r="K49" s="15">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="M49" s="34">
+      <c r="L49" s="33">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="N49" s="32">
+      <c r="M49" s="35">
         <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="33">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O49" s="1"/>
@@ -3858,16 +3880,16 @@
       <c r="R49" s="19">
         <v>0.72</v>
       </c>
-      <c r="S49" s="31" t="str">
-        <f t="shared" si="27"/>
+      <c r="S49" s="32" t="str">
+        <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T49" s="26">
-        <f t="shared" si="10"/>
+      <c r="T49" s="27">
+        <f t="shared" si="11"/>
         <v>7.714285714</v>
       </c>
-      <c r="U49" s="32">
-        <f t="shared" si="18"/>
+      <c r="U49" s="33">
+        <f t="shared" si="19"/>
         <v>0.1402597403</v>
       </c>
       <c r="V49" s="1"/>
@@ -3877,46 +3899,46 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" ht="41.25" customHeight="1">
-      <c r="A50" s="44" t="s">
+      <c r="A50" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="45"/>
-      <c r="C50" s="46" t="s">
+      <c r="B50" s="46"/>
+      <c r="C50" s="47" t="s">
         <v>67</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="47" t="s">
+      <c r="E50" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="F50" s="31"/>
-      <c r="G50" s="26" t="s">
+      <c r="F50" s="32"/>
+      <c r="G50" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H50" s="32"/>
-      <c r="I50" s="48" t="s">
+      <c r="H50" s="33"/>
+      <c r="I50" s="49" t="s">
         <v>71</v>
       </c>
       <c r="J50" s="23"/>
       <c r="K50" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="L50" s="32"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="32"/>
+      <c r="L50" s="33"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="33"/>
       <c r="O50" s="1"/>
-      <c r="P50" s="49"/>
+      <c r="P50" s="50"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="47" t="s">
+      <c r="R50" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="S50" s="31"/>
-      <c r="T50" s="26" t="s">
+      <c r="S50" s="32"/>
+      <c r="T50" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="U50" s="32" t="str">
-        <f t="shared" si="18"/>
+      <c r="U50" s="33" t="str">
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="V50" s="1"/>
@@ -3926,71 +3948,71 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="50" t="s">
+      <c r="A51" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="52">
+      <c r="B51" s="52"/>
+      <c r="C51" s="53">
         <v>1.8</v>
       </c>
       <c r="D51" s="15">
-        <f t="shared" ref="D51:D59" si="28">C51/2</f>
+        <f t="shared" ref="D51:D59" si="29">C51/2</f>
         <v>0.9</v>
       </c>
-      <c r="E51" s="53">
+      <c r="E51" s="54">
         <v>1.888</v>
       </c>
-      <c r="F51" s="31">
-        <f t="shared" ref="F51:F59" si="29">E51/D51</f>
+      <c r="F51" s="32">
+        <f t="shared" ref="F51:F59" si="30">E51/D51</f>
         <v>2.097777778</v>
       </c>
-      <c r="G51" s="26">
-        <f t="shared" ref="G51:G59" si="30">E51*$G$5/100</f>
-        <v>0.5394285714</v>
-      </c>
-      <c r="H51" s="32">
-        <f t="shared" ref="H51:H59" si="31">G51/D51</f>
-        <v>0.5993650794</v>
-      </c>
-      <c r="I51" s="52">
+      <c r="G51" s="27">
+        <f t="shared" ref="G51:G59" si="31">E51*$G$5/100</f>
+        <v>0.9386057143</v>
+      </c>
+      <c r="H51" s="33">
+        <f t="shared" ref="H51:H59" si="32">G51/D51</f>
+        <v>1.042895238</v>
+      </c>
+      <c r="I51" s="53">
         <v>3.3</v>
       </c>
       <c r="J51" s="23">
-        <f t="shared" ref="J51:J59" si="32">I51/D51</f>
+        <f t="shared" ref="J51:J59" si="33">I51/D51</f>
         <v>3.666666667</v>
       </c>
       <c r="K51" s="15">
-        <f t="shared" ref="K51:K59" si="33">I51*$K$5/100</f>
+        <f t="shared" ref="K51:K59" si="34">I51*$K$5/100</f>
         <v>0.9428571429</v>
       </c>
-      <c r="L51" s="32">
-        <f t="shared" ref="L51:L59" si="34">K51/D51</f>
+      <c r="L51" s="33">
+        <f t="shared" ref="L51:L59" si="35">K51/D51</f>
         <v>1.047619048</v>
       </c>
-      <c r="M51" s="34">
-        <f t="shared" ref="M51:M59" si="35">G51+K51</f>
-        <v>1.482285714</v>
-      </c>
-      <c r="N51" s="32">
-        <f t="shared" ref="N51:N59" si="36">M51/D51</f>
-        <v>1.646984127</v>
+      <c r="M51" s="35">
+        <f t="shared" ref="M51:M59" si="36">G51+K51</f>
+        <v>1.881462857</v>
+      </c>
+      <c r="N51" s="33">
+        <f t="shared" ref="N51:N59" si="37">M51/D51</f>
+        <v>2.090514286</v>
       </c>
       <c r="O51" s="1"/>
-      <c r="P51" s="54" t="s">
+      <c r="P51" s="55" t="s">
         <v>13</v>
       </c>
       <c r="Q51" s="1"/>
-      <c r="R51" s="53"/>
-      <c r="S51" s="31" t="str">
-        <f t="shared" ref="S51:S59" si="37">R51/Q51</f>
+      <c r="R51" s="54"/>
+      <c r="S51" s="32" t="str">
+        <f t="shared" ref="S51:S59" si="38">R51/Q51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T51" s="26">
-        <f t="shared" ref="T51:T59" si="38">R51*$G$5/100</f>
+      <c r="T51" s="27">
+        <f t="shared" ref="T51:T59" si="39">R51*$G$5/100</f>
         <v>0</v>
       </c>
-      <c r="U51" s="32">
-        <f t="shared" si="18"/>
+      <c r="U51" s="33">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V51" s="1"/>
@@ -4000,71 +4022,71 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="56"/>
-      <c r="C52" s="52">
+      <c r="B52" s="57"/>
+      <c r="C52" s="53">
         <v>2.5</v>
       </c>
       <c r="D52" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.25</v>
       </c>
-      <c r="E52" s="57">
+      <c r="E52" s="58">
         <v>5.584</v>
       </c>
-      <c r="F52" s="31">
-        <f t="shared" si="29"/>
+      <c r="F52" s="32">
+        <f t="shared" si="30"/>
         <v>4.4672</v>
       </c>
-      <c r="G52" s="26">
-        <f t="shared" si="30"/>
-        <v>1.595428571</v>
-      </c>
-      <c r="H52" s="32">
+      <c r="G52" s="27">
         <f t="shared" si="31"/>
-        <v>1.276342857</v>
-      </c>
-      <c r="I52" s="52">
+        <v>2.776045714</v>
+      </c>
+      <c r="H52" s="33">
+        <f t="shared" si="32"/>
+        <v>2.220836571</v>
+      </c>
+      <c r="I52" s="53">
         <v>3.5</v>
       </c>
       <c r="J52" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.8</v>
       </c>
       <c r="K52" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="L52" s="32">
-        <f t="shared" si="34"/>
+      <c r="L52" s="33">
+        <f t="shared" si="35"/>
         <v>0.8</v>
       </c>
-      <c r="M52" s="34">
-        <f t="shared" si="35"/>
-        <v>2.595428571</v>
-      </c>
-      <c r="N52" s="32">
+      <c r="M52" s="35">
         <f t="shared" si="36"/>
-        <v>2.076342857</v>
+        <v>3.776045714</v>
+      </c>
+      <c r="N52" s="33">
+        <f t="shared" si="37"/>
+        <v>3.020836571</v>
       </c>
       <c r="O52" s="1"/>
-      <c r="P52" s="54" t="s">
+      <c r="P52" s="55" t="s">
         <v>13</v>
       </c>
       <c r="Q52" s="1"/>
-      <c r="R52" s="57"/>
-      <c r="S52" s="31" t="str">
-        <f t="shared" si="37"/>
+      <c r="R52" s="58"/>
+      <c r="S52" s="32" t="str">
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T52" s="26">
-        <f t="shared" si="38"/>
+      <c r="T52" s="27">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="U52" s="32">
-        <f t="shared" si="18"/>
+      <c r="U52" s="33">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V52" s="1"/>
@@ -4074,71 +4096,71 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="56"/>
-      <c r="C53" s="52">
+      <c r="B53" s="57"/>
+      <c r="C53" s="53">
         <v>5.5</v>
       </c>
       <c r="D53" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.75</v>
       </c>
-      <c r="E53" s="57">
+      <c r="E53" s="58">
         <v>8.608</v>
       </c>
-      <c r="F53" s="31">
-        <f t="shared" si="29"/>
+      <c r="F53" s="32">
+        <f t="shared" si="30"/>
         <v>3.130181818</v>
       </c>
-      <c r="G53" s="26">
-        <f t="shared" si="30"/>
-        <v>2.459428571</v>
-      </c>
-      <c r="H53" s="32">
+      <c r="G53" s="27">
         <f t="shared" si="31"/>
-        <v>0.8943376623</v>
-      </c>
-      <c r="I53" s="58">
+        <v>4.279405714</v>
+      </c>
+      <c r="H53" s="33">
+        <f t="shared" si="32"/>
+        <v>1.556147532</v>
+      </c>
+      <c r="I53" s="59">
         <v>6.1</v>
       </c>
       <c r="J53" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.218181818</v>
       </c>
       <c r="K53" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.742857143</v>
       </c>
-      <c r="L53" s="32">
-        <f t="shared" si="34"/>
+      <c r="L53" s="33">
+        <f t="shared" si="35"/>
         <v>0.6337662338</v>
       </c>
-      <c r="M53" s="34">
-        <f t="shared" si="35"/>
-        <v>4.202285714</v>
-      </c>
-      <c r="N53" s="32">
+      <c r="M53" s="35">
         <f t="shared" si="36"/>
-        <v>1.528103896</v>
+        <v>6.022262857</v>
+      </c>
+      <c r="N53" s="33">
+        <f t="shared" si="37"/>
+        <v>2.189913766</v>
       </c>
       <c r="O53" s="1"/>
-      <c r="P53" s="54" t="s">
+      <c r="P53" s="55" t="s">
         <v>13</v>
       </c>
       <c r="Q53" s="1"/>
-      <c r="R53" s="57"/>
-      <c r="S53" s="31" t="str">
-        <f t="shared" si="37"/>
+      <c r="R53" s="58"/>
+      <c r="S53" s="32" t="str">
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T53" s="26">
-        <f t="shared" si="38"/>
+      <c r="T53" s="27">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="U53" s="32">
-        <f t="shared" si="18"/>
+      <c r="U53" s="33">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V53" s="1"/>
@@ -4148,71 +4170,71 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="55" t="s">
+      <c r="A54" s="56" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="56"/>
-      <c r="C54" s="52">
+      <c r="B54" s="57"/>
+      <c r="C54" s="53">
         <v>5.1</v>
       </c>
       <c r="D54" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.55</v>
       </c>
-      <c r="E54" s="53">
+      <c r="E54" s="54">
         <v>5.264</v>
       </c>
-      <c r="F54" s="31">
-        <f t="shared" si="29"/>
+      <c r="F54" s="32">
+        <f t="shared" si="30"/>
         <v>2.064313725</v>
       </c>
-      <c r="G54" s="26">
-        <f t="shared" si="30"/>
-        <v>1.504</v>
-      </c>
-      <c r="H54" s="32">
+      <c r="G54" s="27">
         <f t="shared" si="31"/>
-        <v>0.5898039216</v>
-      </c>
-      <c r="I54" s="52">
+        <v>2.61696</v>
+      </c>
+      <c r="H54" s="33">
+        <f t="shared" si="32"/>
+        <v>1.026258824</v>
+      </c>
+      <c r="I54" s="53">
         <v>10.2</v>
       </c>
       <c r="J54" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>4</v>
       </c>
       <c r="K54" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>2.914285714</v>
       </c>
-      <c r="L54" s="32">
-        <f t="shared" si="34"/>
+      <c r="L54" s="33">
+        <f t="shared" si="35"/>
         <v>1.142857143</v>
       </c>
-      <c r="M54" s="34">
-        <f t="shared" si="35"/>
-        <v>4.418285714</v>
-      </c>
-      <c r="N54" s="32">
+      <c r="M54" s="35">
         <f t="shared" si="36"/>
-        <v>1.732661064</v>
+        <v>5.531245714</v>
+      </c>
+      <c r="N54" s="33">
+        <f t="shared" si="37"/>
+        <v>2.169115966</v>
       </c>
       <c r="O54" s="1"/>
-      <c r="P54" s="54" t="s">
+      <c r="P54" s="55" t="s">
         <v>13</v>
       </c>
       <c r="Q54" s="1"/>
-      <c r="R54" s="53"/>
-      <c r="S54" s="31" t="str">
-        <f t="shared" si="37"/>
+      <c r="R54" s="54"/>
+      <c r="S54" s="32" t="str">
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T54" s="26">
-        <f t="shared" si="38"/>
+      <c r="T54" s="27">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="U54" s="32">
-        <f t="shared" si="18"/>
+      <c r="U54" s="33">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V54" s="1"/>
@@ -4222,71 +4244,71 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="59" t="s">
+      <c r="A55" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="56"/>
-      <c r="C55" s="52">
+      <c r="B55" s="57"/>
+      <c r="C55" s="53">
         <v>2.5</v>
       </c>
       <c r="D55" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.25</v>
       </c>
-      <c r="E55" s="57">
+      <c r="E55" s="58">
         <v>3.151</v>
       </c>
-      <c r="F55" s="31">
-        <f t="shared" si="29"/>
+      <c r="F55" s="32">
+        <f t="shared" si="30"/>
         <v>2.5208</v>
       </c>
-      <c r="G55" s="26">
-        <f t="shared" si="30"/>
-        <v>0.9002857143</v>
-      </c>
-      <c r="H55" s="32">
+      <c r="G55" s="27">
         <f t="shared" si="31"/>
-        <v>0.7202285714</v>
-      </c>
-      <c r="I55" s="60">
+        <v>1.566497143</v>
+      </c>
+      <c r="H55" s="33">
+        <f t="shared" si="32"/>
+        <v>1.253197714</v>
+      </c>
+      <c r="I55" s="61">
         <v>1.6</v>
       </c>
       <c r="J55" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.28</v>
       </c>
       <c r="K55" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.4571428571</v>
       </c>
-      <c r="L55" s="32">
-        <f t="shared" si="34"/>
+      <c r="L55" s="33">
+        <f t="shared" si="35"/>
         <v>0.3657142857</v>
       </c>
-      <c r="M55" s="34">
-        <f t="shared" si="35"/>
-        <v>1.357428571</v>
-      </c>
-      <c r="N55" s="32">
+      <c r="M55" s="35">
         <f t="shared" si="36"/>
-        <v>1.085942857</v>
+        <v>2.02364</v>
+      </c>
+      <c r="N55" s="33">
+        <f t="shared" si="37"/>
+        <v>1.618912</v>
       </c>
       <c r="O55" s="1"/>
-      <c r="P55" s="54" t="s">
+      <c r="P55" s="55" t="s">
         <v>13</v>
       </c>
       <c r="Q55" s="1"/>
-      <c r="R55" s="57"/>
-      <c r="S55" s="31" t="str">
-        <f t="shared" si="37"/>
+      <c r="R55" s="58"/>
+      <c r="S55" s="32" t="str">
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T55" s="26">
-        <f t="shared" si="38"/>
+      <c r="T55" s="27">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="U55" s="32">
-        <f t="shared" si="18"/>
+      <c r="U55" s="33">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V55" s="1"/>
@@ -4296,71 +4318,71 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="59" t="s">
+      <c r="A56" s="60" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="56"/>
-      <c r="C56" s="52">
+      <c r="B56" s="57"/>
+      <c r="C56" s="53">
         <v>4.7</v>
       </c>
       <c r="D56" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>2.35</v>
       </c>
-      <c r="E56" s="57">
+      <c r="E56" s="58">
         <v>9.328</v>
       </c>
-      <c r="F56" s="31">
-        <f t="shared" si="29"/>
+      <c r="F56" s="32">
+        <f t="shared" si="30"/>
         <v>3.969361702</v>
       </c>
-      <c r="G56" s="26">
-        <f t="shared" si="30"/>
-        <v>2.665142857</v>
-      </c>
-      <c r="H56" s="32">
+      <c r="G56" s="27">
         <f t="shared" si="31"/>
-        <v>1.134103343</v>
-      </c>
-      <c r="I56" s="52">
+        <v>4.637348571</v>
+      </c>
+      <c r="H56" s="33">
+        <f t="shared" si="32"/>
+        <v>1.973339818</v>
+      </c>
+      <c r="I56" s="53">
         <v>5.6</v>
       </c>
       <c r="J56" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.382978723</v>
       </c>
       <c r="K56" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.6</v>
       </c>
-      <c r="L56" s="32">
-        <f t="shared" si="34"/>
+      <c r="L56" s="33">
+        <f t="shared" si="35"/>
         <v>0.6808510638</v>
       </c>
-      <c r="M56" s="34">
-        <f t="shared" si="35"/>
-        <v>4.265142857</v>
-      </c>
-      <c r="N56" s="32">
+      <c r="M56" s="35">
         <f t="shared" si="36"/>
-        <v>1.814954407</v>
+        <v>6.237348571</v>
+      </c>
+      <c r="N56" s="33">
+        <f t="shared" si="37"/>
+        <v>2.654190881</v>
       </c>
       <c r="O56" s="1"/>
-      <c r="P56" s="54" t="s">
+      <c r="P56" s="55" t="s">
         <v>13</v>
       </c>
       <c r="Q56" s="1"/>
-      <c r="R56" s="57"/>
-      <c r="S56" s="31" t="str">
-        <f t="shared" si="37"/>
+      <c r="R56" s="58"/>
+      <c r="S56" s="32" t="str">
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T56" s="26">
-        <f t="shared" si="38"/>
+      <c r="T56" s="27">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="U56" s="32">
-        <f t="shared" si="18"/>
+      <c r="U56" s="33">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V56" s="1"/>
@@ -4370,71 +4392,71 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="55" t="s">
+      <c r="A57" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="56"/>
-      <c r="C57" s="52">
+      <c r="B57" s="57"/>
+      <c r="C57" s="53">
         <v>2.7</v>
       </c>
       <c r="D57" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.35</v>
       </c>
-      <c r="E57" s="57">
+      <c r="E57" s="58">
         <v>5.168</v>
       </c>
-      <c r="F57" s="31">
-        <f t="shared" si="29"/>
+      <c r="F57" s="32">
+        <f t="shared" si="30"/>
         <v>3.828148148</v>
       </c>
-      <c r="G57" s="26">
-        <f t="shared" si="30"/>
-        <v>1.476571429</v>
-      </c>
-      <c r="H57" s="32">
+      <c r="G57" s="27">
         <f t="shared" si="31"/>
-        <v>1.093756614</v>
-      </c>
-      <c r="I57" s="52">
+        <v>2.569234286</v>
+      </c>
+      <c r="H57" s="33">
+        <f t="shared" si="32"/>
+        <v>1.903136508</v>
+      </c>
+      <c r="I57" s="53">
         <v>2.9</v>
       </c>
       <c r="J57" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>2.148148148</v>
       </c>
       <c r="K57" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.8285714286</v>
       </c>
-      <c r="L57" s="32">
-        <f t="shared" si="34"/>
+      <c r="L57" s="33">
+        <f t="shared" si="35"/>
         <v>0.6137566138</v>
       </c>
-      <c r="M57" s="34">
-        <f t="shared" si="35"/>
-        <v>2.305142857</v>
-      </c>
-      <c r="N57" s="32">
+      <c r="M57" s="35">
         <f t="shared" si="36"/>
-        <v>1.707513228</v>
+        <v>3.397805714</v>
+      </c>
+      <c r="N57" s="33">
+        <f t="shared" si="37"/>
+        <v>2.516893122</v>
       </c>
       <c r="O57" s="1"/>
-      <c r="P57" s="54" t="s">
+      <c r="P57" s="55" t="s">
         <v>13</v>
       </c>
       <c r="Q57" s="1"/>
-      <c r="R57" s="57"/>
-      <c r="S57" s="31" t="str">
-        <f t="shared" si="37"/>
+      <c r="R57" s="58"/>
+      <c r="S57" s="32" t="str">
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T57" s="26">
-        <f t="shared" si="38"/>
+      <c r="T57" s="27">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="U57" s="32">
-        <f t="shared" si="18"/>
+      <c r="U57" s="33">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V57" s="1"/>
@@ -4444,71 +4466,71 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="55" t="s">
+      <c r="A58" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="56"/>
-      <c r="C58" s="52">
+      <c r="B58" s="57"/>
+      <c r="C58" s="53">
         <v>0.7</v>
       </c>
       <c r="D58" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.35</v>
       </c>
-      <c r="E58" s="57">
+      <c r="E58" s="58">
         <v>1.616</v>
       </c>
-      <c r="F58" s="31">
-        <f t="shared" si="29"/>
+      <c r="F58" s="32">
+        <f t="shared" si="30"/>
         <v>4.617142857</v>
       </c>
-      <c r="G58" s="26">
-        <f t="shared" si="30"/>
-        <v>0.4617142857</v>
-      </c>
-      <c r="H58" s="32">
+      <c r="G58" s="27">
         <f t="shared" si="31"/>
-        <v>1.319183673</v>
-      </c>
-      <c r="I58" s="52">
+        <v>0.8033828571</v>
+      </c>
+      <c r="H58" s="33">
+        <f t="shared" si="32"/>
+        <v>2.295379592</v>
+      </c>
+      <c r="I58" s="53">
         <v>2.1</v>
       </c>
       <c r="J58" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>6</v>
       </c>
       <c r="K58" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0.6</v>
       </c>
-      <c r="L58" s="32">
-        <f t="shared" si="34"/>
+      <c r="L58" s="33">
+        <f t="shared" si="35"/>
         <v>1.714285714</v>
       </c>
-      <c r="M58" s="34">
-        <f t="shared" si="35"/>
-        <v>1.061714286</v>
-      </c>
-      <c r="N58" s="32">
+      <c r="M58" s="35">
         <f t="shared" si="36"/>
-        <v>3.033469388</v>
+        <v>1.403382857</v>
+      </c>
+      <c r="N58" s="33">
+        <f t="shared" si="37"/>
+        <v>4.009665306</v>
       </c>
       <c r="O58" s="1"/>
-      <c r="P58" s="54" t="s">
+      <c r="P58" s="55" t="s">
         <v>13</v>
       </c>
       <c r="Q58" s="1"/>
-      <c r="R58" s="57"/>
-      <c r="S58" s="31" t="str">
-        <f t="shared" si="37"/>
+      <c r="R58" s="58"/>
+      <c r="S58" s="32" t="str">
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T58" s="26">
-        <f t="shared" si="38"/>
+      <c r="T58" s="27">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="U58" s="32">
-        <f t="shared" si="18"/>
+      <c r="U58" s="33">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V58" s="1"/>
@@ -4518,71 +4540,71 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="55" t="s">
+      <c r="A59" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="56"/>
-      <c r="C59" s="52">
+      <c r="B59" s="57"/>
+      <c r="C59" s="53">
         <v>3.2</v>
       </c>
       <c r="D59" s="15">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.6</v>
       </c>
-      <c r="E59" s="57">
+      <c r="E59" s="58">
         <v>6.111</v>
       </c>
-      <c r="F59" s="31">
-        <f t="shared" si="29"/>
+      <c r="F59" s="32">
+        <f t="shared" si="30"/>
         <v>3.819375</v>
       </c>
-      <c r="G59" s="26">
-        <f t="shared" si="30"/>
-        <v>1.746</v>
-      </c>
-      <c r="H59" s="32">
+      <c r="G59" s="27">
         <f t="shared" si="31"/>
-        <v>1.09125</v>
-      </c>
-      <c r="I59" s="52">
+        <v>3.03804</v>
+      </c>
+      <c r="H59" s="33">
+        <f t="shared" si="32"/>
+        <v>1.898775</v>
+      </c>
+      <c r="I59" s="53">
         <v>5.5</v>
       </c>
       <c r="J59" s="23">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.4375</v>
       </c>
       <c r="K59" s="15">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>1.571428571</v>
       </c>
-      <c r="L59" s="32">
-        <f t="shared" si="34"/>
+      <c r="L59" s="33">
+        <f t="shared" si="35"/>
         <v>0.9821428571</v>
       </c>
-      <c r="M59" s="34">
-        <f t="shared" si="35"/>
-        <v>3.317428571</v>
-      </c>
-      <c r="N59" s="32">
+      <c r="M59" s="35">
         <f t="shared" si="36"/>
-        <v>2.073392857</v>
+        <v>4.609468571</v>
+      </c>
+      <c r="N59" s="33">
+        <f t="shared" si="37"/>
+        <v>2.880917857</v>
       </c>
       <c r="O59" s="1"/>
-      <c r="P59" s="54" t="s">
+      <c r="P59" s="55" t="s">
         <v>13</v>
       </c>
       <c r="Q59" s="1"/>
-      <c r="R59" s="57"/>
-      <c r="S59" s="31" t="str">
-        <f t="shared" si="37"/>
+      <c r="R59" s="58"/>
+      <c r="S59" s="32" t="str">
+        <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T59" s="26">
-        <f t="shared" si="38"/>
+      <c r="T59" s="27">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="U59" s="32">
-        <f t="shared" si="18"/>
+      <c r="U59" s="33">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V59" s="1"/>
@@ -4592,452 +4614,456 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" ht="15.0" customHeight="1">
-      <c r="A60" s="61"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="61"/>
-      <c r="F60" s="61"/>
-      <c r="G60" s="61"/>
-      <c r="H60" s="61"/>
-      <c r="I60" s="61"/>
-      <c r="J60" s="61"/>
-      <c r="K60" s="61"/>
-      <c r="L60" s="61"/>
-      <c r="M60" s="61"/>
-      <c r="N60" s="61"/>
-      <c r="O60" s="61"/>
-      <c r="P60" s="61"/>
-      <c r="Q60" s="61"/>
-      <c r="R60" s="61"/>
-      <c r="S60" s="61"/>
-      <c r="T60" s="61"/>
-      <c r="U60" s="61"/>
-      <c r="V60" s="61"/>
-      <c r="W60" s="61"/>
-      <c r="X60" s="61"/>
-      <c r="Y60" s="61"/>
-      <c r="Z60" s="61"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="62"/>
+      <c r="G60" s="62"/>
+      <c r="H60" s="62"/>
+      <c r="I60" s="62"/>
+      <c r="J60" s="62"/>
+      <c r="K60" s="62"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="62"/>
+      <c r="N60" s="62"/>
+      <c r="O60" s="62"/>
+      <c r="P60" s="62"/>
+      <c r="Q60" s="62"/>
+      <c r="R60" s="62"/>
+      <c r="S60" s="62"/>
+      <c r="T60" s="62"/>
+      <c r="U60" s="62"/>
+      <c r="V60" s="62"/>
+      <c r="W60" s="62"/>
+      <c r="X60" s="62"/>
+      <c r="Y60" s="62"/>
+      <c r="Z60" s="62"/>
     </row>
     <row r="61" ht="15.0" customHeight="1">
-      <c r="A61" s="61"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
-      <c r="E61" s="61"/>
-      <c r="F61" s="61"/>
-      <c r="G61" s="61"/>
-      <c r="H61" s="61"/>
-      <c r="I61" s="61"/>
-      <c r="J61" s="61"/>
-      <c r="K61" s="61"/>
-      <c r="L61" s="61"/>
-      <c r="M61" s="61"/>
-      <c r="N61" s="61"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="61"/>
-      <c r="Q61" s="61"/>
-      <c r="R61" s="61"/>
-      <c r="S61" s="61"/>
-      <c r="T61" s="61"/>
-      <c r="U61" s="61"/>
-      <c r="V61" s="61"/>
-      <c r="W61" s="61"/>
-      <c r="X61" s="61"/>
-      <c r="Y61" s="61"/>
-      <c r="Z61" s="61"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="62"/>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="62"/>
+      <c r="G61" s="62"/>
+      <c r="H61" s="62"/>
+      <c r="I61" s="62"/>
+      <c r="J61" s="62"/>
+      <c r="K61" s="62"/>
+      <c r="L61" s="62"/>
+      <c r="M61" s="62"/>
+      <c r="N61" s="62"/>
+      <c r="O61" s="62"/>
+      <c r="P61" s="62"/>
+      <c r="Q61" s="62"/>
+      <c r="R61" s="62"/>
+      <c r="S61" s="62"/>
+      <c r="T61" s="62"/>
+      <c r="U61" s="62"/>
+      <c r="V61" s="62"/>
+      <c r="W61" s="62"/>
+      <c r="X61" s="62"/>
+      <c r="Y61" s="62"/>
+      <c r="Z61" s="62"/>
     </row>
     <row r="62" ht="15.0" customHeight="1">
-      <c r="A62" s="61"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="61"/>
-      <c r="F62" s="61"/>
-      <c r="G62" s="61"/>
-      <c r="H62" s="61"/>
-      <c r="I62" s="61"/>
-      <c r="J62" s="61"/>
-      <c r="K62" s="61"/>
-      <c r="L62" s="61"/>
-      <c r="M62" s="61"/>
-      <c r="N62" s="61"/>
-      <c r="O62" s="61"/>
-      <c r="P62" s="61"/>
-      <c r="Q62" s="61"/>
-      <c r="R62" s="61"/>
-      <c r="S62" s="61"/>
-      <c r="T62" s="61"/>
-      <c r="U62" s="61"/>
-      <c r="V62" s="61"/>
-      <c r="W62" s="61"/>
-      <c r="X62" s="61"/>
-      <c r="Y62" s="61"/>
-      <c r="Z62" s="61"/>
+      <c r="A62" s="62"/>
+      <c r="B62" s="62"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="62"/>
+      <c r="G62" s="62"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="62"/>
+      <c r="J62" s="62"/>
+      <c r="K62" s="62"/>
+      <c r="L62" s="62"/>
+      <c r="M62" s="62"/>
+      <c r="N62" s="62"/>
+      <c r="O62" s="62"/>
+      <c r="P62" s="62"/>
+      <c r="Q62" s="62"/>
+      <c r="R62" s="62"/>
+      <c r="S62" s="62"/>
+      <c r="T62" s="62"/>
+      <c r="U62" s="62"/>
+      <c r="V62" s="62"/>
+      <c r="W62" s="62"/>
+      <c r="X62" s="62"/>
+      <c r="Y62" s="62"/>
+      <c r="Z62" s="62"/>
     </row>
     <row r="63" ht="15.0" customHeight="1">
-      <c r="A63" s="61"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="61"/>
-      <c r="G63" s="61"/>
-      <c r="H63" s="61"/>
-      <c r="I63" s="61"/>
-      <c r="J63" s="61"/>
-      <c r="K63" s="61"/>
-      <c r="L63" s="61"/>
-      <c r="M63" s="61"/>
-      <c r="N63" s="61"/>
-      <c r="O63" s="61"/>
-      <c r="P63" s="61"/>
-      <c r="Q63" s="61"/>
-      <c r="R63" s="61"/>
-      <c r="S63" s="61"/>
-      <c r="T63" s="61"/>
-      <c r="U63" s="61"/>
-      <c r="V63" s="61"/>
-      <c r="W63" s="61"/>
-      <c r="X63" s="61"/>
-      <c r="Y63" s="61"/>
-      <c r="Z63" s="61"/>
+      <c r="A63" s="62"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="62"/>
+      <c r="D63" s="62"/>
+      <c r="E63" s="62"/>
+      <c r="F63" s="62"/>
+      <c r="G63" s="62"/>
+      <c r="H63" s="62"/>
+      <c r="I63" s="62"/>
+      <c r="J63" s="62"/>
+      <c r="K63" s="62"/>
+      <c r="L63" s="62"/>
+      <c r="M63" s="62"/>
+      <c r="N63" s="62"/>
+      <c r="O63" s="62"/>
+      <c r="P63" s="62"/>
+      <c r="Q63" s="62"/>
+      <c r="R63" s="62"/>
+      <c r="S63" s="62"/>
+      <c r="T63" s="62"/>
+      <c r="U63" s="62"/>
+      <c r="V63" s="62"/>
+      <c r="W63" s="62"/>
+      <c r="X63" s="62"/>
+      <c r="Y63" s="62"/>
+      <c r="Z63" s="62"/>
     </row>
     <row r="64" ht="15.0" customHeight="1">
-      <c r="A64" s="61"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="61"/>
-      <c r="F64" s="61"/>
-      <c r="G64" s="61"/>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
-      <c r="J64" s="61"/>
-      <c r="K64" s="61"/>
-      <c r="L64" s="61"/>
-      <c r="M64" s="61"/>
-      <c r="N64" s="61"/>
-      <c r="O64" s="61"/>
-      <c r="P64" s="61"/>
-      <c r="Q64" s="61"/>
-      <c r="R64" s="61"/>
-      <c r="S64" s="61"/>
-      <c r="T64" s="61"/>
-      <c r="U64" s="61"/>
-      <c r="V64" s="61"/>
-      <c r="W64" s="61"/>
-      <c r="X64" s="61"/>
-      <c r="Y64" s="61"/>
-      <c r="Z64" s="61"/>
+      <c r="A64" s="62"/>
+      <c r="B64" s="62"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="62"/>
+      <c r="E64" s="62"/>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="62"/>
+      <c r="J64" s="62"/>
+      <c r="K64" s="62"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="62"/>
+      <c r="O64" s="62"/>
+      <c r="P64" s="62"/>
+      <c r="Q64" s="62"/>
+      <c r="R64" s="62"/>
+      <c r="S64" s="62"/>
+      <c r="T64" s="62"/>
+      <c r="U64" s="62"/>
+      <c r="V64" s="62"/>
+      <c r="W64" s="62"/>
+      <c r="X64" s="62"/>
+      <c r="Y64" s="62"/>
+      <c r="Z64" s="62"/>
     </row>
     <row r="65" ht="15.0" customHeight="1">
-      <c r="A65" s="61"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="61"/>
-      <c r="G65" s="61"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
-      <c r="J65" s="61"/>
-      <c r="K65" s="61"/>
-      <c r="L65" s="61"/>
-      <c r="M65" s="61"/>
-      <c r="N65" s="61"/>
-      <c r="O65" s="61"/>
-      <c r="P65" s="61"/>
-      <c r="Q65" s="61"/>
-      <c r="R65" s="61"/>
-      <c r="S65" s="61"/>
-      <c r="T65" s="61"/>
-      <c r="U65" s="61"/>
-      <c r="V65" s="61"/>
-      <c r="W65" s="61"/>
-      <c r="X65" s="61"/>
-      <c r="Y65" s="61"/>
-      <c r="Z65" s="61"/>
+      <c r="A65" s="62"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="62"/>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="62"/>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="62"/>
+      <c r="L65" s="62"/>
+      <c r="M65" s="62"/>
+      <c r="N65" s="62"/>
+      <c r="O65" s="62"/>
+      <c r="P65" s="62"/>
+      <c r="Q65" s="62"/>
+      <c r="R65" s="62"/>
+      <c r="S65" s="62"/>
+      <c r="T65" s="62"/>
+      <c r="U65" s="62"/>
+      <c r="V65" s="62"/>
+      <c r="W65" s="62"/>
+      <c r="X65" s="62"/>
+      <c r="Y65" s="62"/>
+      <c r="Z65" s="62"/>
     </row>
     <row r="66" ht="15.0" customHeight="1">
-      <c r="A66" s="61"/>
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="61"/>
-      <c r="F66" s="61"/>
-      <c r="G66" s="61"/>
-      <c r="H66" s="61"/>
-      <c r="I66" s="61"/>
-      <c r="J66" s="61"/>
-      <c r="K66" s="61"/>
-      <c r="L66" s="61"/>
-      <c r="M66" s="61"/>
-      <c r="N66" s="61"/>
-      <c r="O66" s="61"/>
-      <c r="P66" s="61"/>
-      <c r="Q66" s="61"/>
-      <c r="R66" s="61"/>
-      <c r="S66" s="61"/>
-      <c r="T66" s="61"/>
-      <c r="U66" s="61"/>
-      <c r="V66" s="61"/>
-      <c r="W66" s="61"/>
-      <c r="X66" s="61"/>
-      <c r="Y66" s="61"/>
-      <c r="Z66" s="61"/>
+      <c r="A66" s="62"/>
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
+      <c r="K66" s="62"/>
+      <c r="L66" s="62"/>
+      <c r="M66" s="62"/>
+      <c r="N66" s="62"/>
+      <c r="O66" s="62"/>
+      <c r="P66" s="62"/>
+      <c r="Q66" s="62"/>
+      <c r="R66" s="62"/>
+      <c r="S66" s="62"/>
+      <c r="T66" s="62"/>
+      <c r="U66" s="62"/>
+      <c r="V66" s="62"/>
+      <c r="W66" s="62"/>
+      <c r="X66" s="62"/>
+      <c r="Y66" s="62"/>
+      <c r="Z66" s="62"/>
     </row>
     <row r="67" ht="15.0" customHeight="1">
-      <c r="A67" s="61"/>
-      <c r="B67" s="61"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="61"/>
-      <c r="F67" s="61"/>
-      <c r="G67" s="61"/>
-      <c r="H67" s="61"/>
-      <c r="I67" s="61"/>
-      <c r="J67" s="61"/>
-      <c r="K67" s="61"/>
-      <c r="L67" s="61"/>
-      <c r="M67" s="61"/>
-      <c r="N67" s="61"/>
-      <c r="O67" s="61"/>
-      <c r="P67" s="61"/>
-      <c r="Q67" s="61"/>
-      <c r="R67" s="61"/>
-      <c r="S67" s="61"/>
-      <c r="T67" s="61"/>
-      <c r="U67" s="61"/>
-      <c r="V67" s="61"/>
-      <c r="W67" s="61"/>
-      <c r="X67" s="61"/>
-      <c r="Y67" s="61"/>
-      <c r="Z67" s="61"/>
+      <c r="A67" s="62"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="62"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="62"/>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="62"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="62"/>
+      <c r="N67" s="62"/>
+      <c r="O67" s="62"/>
+      <c r="P67" s="62"/>
+      <c r="Q67" s="62"/>
+      <c r="R67" s="62"/>
+      <c r="S67" s="62"/>
+      <c r="T67" s="62"/>
+      <c r="U67" s="62"/>
+      <c r="V67" s="62"/>
+      <c r="W67" s="62"/>
+      <c r="X67" s="62"/>
+      <c r="Y67" s="62"/>
+      <c r="Z67" s="62"/>
     </row>
     <row r="68" ht="15.0" customHeight="1">
-      <c r="A68" s="61"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="61"/>
-      <c r="D68" s="61"/>
-      <c r="E68" s="61"/>
-      <c r="F68" s="61"/>
-      <c r="G68" s="61"/>
-      <c r="H68" s="61"/>
-      <c r="I68" s="61"/>
-      <c r="J68" s="61"/>
-      <c r="K68" s="61"/>
-      <c r="L68" s="61"/>
-      <c r="M68" s="61"/>
-      <c r="N68" s="61"/>
-      <c r="O68" s="61"/>
-      <c r="P68" s="61"/>
-      <c r="Q68" s="61"/>
-      <c r="R68" s="61"/>
-      <c r="S68" s="61"/>
-      <c r="T68" s="61"/>
-      <c r="U68" s="61"/>
-      <c r="V68" s="61"/>
-      <c r="W68" s="61"/>
-      <c r="X68" s="61"/>
-      <c r="Y68" s="61"/>
-      <c r="Z68" s="61"/>
+      <c r="A68" s="62"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="62"/>
+      <c r="G68" s="62"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="62"/>
+      <c r="K68" s="62"/>
+      <c r="L68" s="62"/>
+      <c r="M68" s="62"/>
+      <c r="N68" s="62"/>
+      <c r="O68" s="62"/>
+      <c r="P68" s="62"/>
+      <c r="Q68" s="62"/>
+      <c r="R68" s="62"/>
+      <c r="S68" s="62"/>
+      <c r="T68" s="62"/>
+      <c r="U68" s="62"/>
+      <c r="V68" s="62"/>
+      <c r="W68" s="62"/>
+      <c r="X68" s="62"/>
+      <c r="Y68" s="62"/>
+      <c r="Z68" s="62"/>
     </row>
     <row r="69" ht="15.0" customHeight="1">
-      <c r="A69" s="61"/>
-      <c r="B69" s="61"/>
-      <c r="C69" s="61"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="61"/>
-      <c r="F69" s="61"/>
-      <c r="G69" s="61"/>
-      <c r="H69" s="61"/>
-      <c r="I69" s="61"/>
-      <c r="J69" s="61"/>
-      <c r="K69" s="61"/>
-      <c r="L69" s="61"/>
-      <c r="M69" s="61"/>
-      <c r="N69" s="61"/>
-      <c r="O69" s="61"/>
-      <c r="P69" s="61"/>
-      <c r="Q69" s="61"/>
-      <c r="R69" s="61"/>
-      <c r="S69" s="61"/>
-      <c r="T69" s="61"/>
-      <c r="U69" s="61"/>
-      <c r="V69" s="61"/>
-      <c r="W69" s="61"/>
-      <c r="X69" s="61"/>
-      <c r="Y69" s="61"/>
-      <c r="Z69" s="61"/>
+      <c r="A69" s="62"/>
+      <c r="B69" s="62"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="62"/>
+      <c r="E69" s="62"/>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="62"/>
+      <c r="L69" s="62"/>
+      <c r="M69" s="62"/>
+      <c r="N69" s="62"/>
+      <c r="O69" s="62"/>
+      <c r="P69" s="62"/>
+      <c r="Q69" s="62"/>
+      <c r="R69" s="62"/>
+      <c r="S69" s="62"/>
+      <c r="T69" s="62"/>
+      <c r="U69" s="62"/>
+      <c r="V69" s="62"/>
+      <c r="W69" s="62"/>
+      <c r="X69" s="62"/>
+      <c r="Y69" s="62"/>
+      <c r="Z69" s="62"/>
     </row>
     <row r="70" ht="15.0" customHeight="1">
-      <c r="A70" s="61"/>
-      <c r="B70" s="61"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="61"/>
-      <c r="E70" s="61"/>
-      <c r="F70" s="61"/>
-      <c r="G70" s="61"/>
-      <c r="H70" s="61"/>
-      <c r="I70" s="61"/>
-      <c r="J70" s="61"/>
-      <c r="K70" s="61"/>
-      <c r="L70" s="61"/>
-      <c r="M70" s="61"/>
-      <c r="N70" s="61"/>
-      <c r="O70" s="61"/>
-      <c r="P70" s="61"/>
-      <c r="Q70" s="61"/>
-      <c r="R70" s="61"/>
-      <c r="S70" s="61"/>
-      <c r="T70" s="61"/>
-      <c r="U70" s="61"/>
-      <c r="V70" s="61"/>
-      <c r="W70" s="61"/>
-      <c r="X70" s="61"/>
-      <c r="Y70" s="61"/>
-      <c r="Z70" s="61"/>
+      <c r="A70" s="62"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="62"/>
+      <c r="E70" s="62"/>
+      <c r="F70" s="62"/>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="62"/>
+      <c r="J70" s="62"/>
+      <c r="K70" s="62"/>
+      <c r="L70" s="62"/>
+      <c r="M70" s="62"/>
+      <c r="N70" s="62"/>
+      <c r="O70" s="62"/>
+      <c r="P70" s="62"/>
+      <c r="Q70" s="62"/>
+      <c r="R70" s="62"/>
+      <c r="S70" s="62"/>
+      <c r="T70" s="62"/>
+      <c r="U70" s="62"/>
+      <c r="V70" s="62"/>
+      <c r="W70" s="62"/>
+      <c r="X70" s="62"/>
+      <c r="Y70" s="62"/>
+      <c r="Z70" s="62"/>
     </row>
     <row r="71" ht="15.0" customHeight="1">
-      <c r="A71" s="61"/>
-      <c r="B71" s="61"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="61"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="61"/>
-      <c r="P71" s="61"/>
-      <c r="Q71" s="61"/>
-      <c r="R71" s="61"/>
-      <c r="S71" s="61"/>
-      <c r="T71" s="61"/>
-      <c r="U71" s="61"/>
-      <c r="V71" s="61"/>
-      <c r="W71" s="61"/>
-      <c r="X71" s="61"/>
-      <c r="Y71" s="61"/>
-      <c r="Z71" s="61"/>
+      <c r="A71" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C71" s="62"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="62"/>
+      <c r="F71" s="62"/>
+      <c r="G71" s="62"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="62"/>
+      <c r="L71" s="62"/>
+      <c r="M71" s="62"/>
+      <c r="N71" s="62"/>
+      <c r="O71" s="62"/>
+      <c r="P71" s="62"/>
+      <c r="Q71" s="62"/>
+      <c r="R71" s="62"/>
+      <c r="S71" s="62"/>
+      <c r="T71" s="62"/>
+      <c r="U71" s="62"/>
+      <c r="V71" s="62"/>
+      <c r="W71" s="62"/>
+      <c r="X71" s="62"/>
+      <c r="Y71" s="62"/>
+      <c r="Z71" s="62"/>
     </row>
     <row r="72" ht="15.0" customHeight="1">
-      <c r="A72" s="61"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="61"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="61"/>
-      <c r="N72" s="61"/>
-      <c r="O72" s="61"/>
-      <c r="P72" s="61"/>
-      <c r="Q72" s="61"/>
-      <c r="R72" s="61"/>
-      <c r="S72" s="61"/>
-      <c r="T72" s="61"/>
-      <c r="U72" s="61"/>
-      <c r="V72" s="61"/>
-      <c r="W72" s="61"/>
-      <c r="X72" s="61"/>
-      <c r="Y72" s="61"/>
-      <c r="Z72" s="61"/>
+      <c r="A72" s="62"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="62"/>
+      <c r="E72" s="62"/>
+      <c r="F72" s="62"/>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="62"/>
+      <c r="L72" s="62"/>
+      <c r="M72" s="62"/>
+      <c r="N72" s="62"/>
+      <c r="O72" s="62"/>
+      <c r="P72" s="62"/>
+      <c r="Q72" s="62"/>
+      <c r="R72" s="62"/>
+      <c r="S72" s="62"/>
+      <c r="T72" s="62"/>
+      <c r="U72" s="62"/>
+      <c r="V72" s="62"/>
+      <c r="W72" s="62"/>
+      <c r="X72" s="62"/>
+      <c r="Y72" s="62"/>
+      <c r="Z72" s="62"/>
     </row>
     <row r="73" ht="15.0" customHeight="1">
-      <c r="A73" s="61"/>
-      <c r="B73" s="61"/>
-      <c r="C73" s="61"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="61"/>
-      <c r="F73" s="61"/>
-      <c r="G73" s="61"/>
-      <c r="H73" s="61"/>
-      <c r="I73" s="61"/>
-      <c r="J73" s="61"/>
-      <c r="K73" s="61"/>
-      <c r="L73" s="61"/>
-      <c r="M73" s="61"/>
-      <c r="N73" s="61"/>
-      <c r="O73" s="61"/>
-      <c r="P73" s="61"/>
-      <c r="Q73" s="61"/>
-      <c r="R73" s="61"/>
-      <c r="S73" s="61"/>
-      <c r="T73" s="61"/>
-      <c r="U73" s="61"/>
-      <c r="V73" s="61"/>
-      <c r="W73" s="61"/>
-      <c r="X73" s="61"/>
-      <c r="Y73" s="61"/>
-      <c r="Z73" s="61"/>
+      <c r="A73" s="62"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="62"/>
+      <c r="K73" s="62"/>
+      <c r="L73" s="62"/>
+      <c r="M73" s="62"/>
+      <c r="N73" s="62"/>
+      <c r="O73" s="62"/>
+      <c r="P73" s="62"/>
+      <c r="Q73" s="62"/>
+      <c r="R73" s="62"/>
+      <c r="S73" s="62"/>
+      <c r="T73" s="62"/>
+      <c r="U73" s="62"/>
+      <c r="V73" s="62"/>
+      <c r="W73" s="62"/>
+      <c r="X73" s="62"/>
+      <c r="Y73" s="62"/>
+      <c r="Z73" s="62"/>
     </row>
     <row r="74" ht="15.0" customHeight="1">
-      <c r="A74" s="61"/>
-      <c r="B74" s="61"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
-      <c r="E74" s="61"/>
-      <c r="F74" s="61"/>
-      <c r="G74" s="61"/>
-      <c r="H74" s="61"/>
-      <c r="I74" s="61"/>
-      <c r="J74" s="61"/>
-      <c r="K74" s="61"/>
-      <c r="L74" s="61"/>
-      <c r="M74" s="61"/>
-      <c r="N74" s="61"/>
-      <c r="O74" s="61"/>
-      <c r="P74" s="61"/>
-      <c r="Q74" s="61"/>
-      <c r="R74" s="61"/>
-      <c r="S74" s="61"/>
-      <c r="T74" s="61"/>
-      <c r="U74" s="61"/>
-      <c r="V74" s="61"/>
-      <c r="W74" s="61"/>
-      <c r="X74" s="61"/>
-      <c r="Y74" s="61"/>
-      <c r="Z74" s="61"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="62"/>
+      <c r="K74" s="62"/>
+      <c r="L74" s="62"/>
+      <c r="M74" s="62"/>
+      <c r="N74" s="62"/>
+      <c r="O74" s="62"/>
+      <c r="P74" s="62"/>
+      <c r="Q74" s="62"/>
+      <c r="R74" s="62"/>
+      <c r="S74" s="62"/>
+      <c r="T74" s="62"/>
+      <c r="U74" s="62"/>
+      <c r="V74" s="62"/>
+      <c r="W74" s="62"/>
+      <c r="X74" s="62"/>
+      <c r="Y74" s="62"/>
+      <c r="Z74" s="62"/>
     </row>
     <row r="75" ht="15.0" customHeight="1">
-      <c r="A75" s="61"/>
-      <c r="B75" s="61"/>
-      <c r="C75" s="61"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="61"/>
-      <c r="F75" s="61"/>
-      <c r="G75" s="61"/>
-      <c r="H75" s="61"/>
-      <c r="I75" s="61"/>
-      <c r="J75" s="61"/>
-      <c r="K75" s="61"/>
-      <c r="L75" s="61"/>
-      <c r="M75" s="61"/>
-      <c r="N75" s="61"/>
-      <c r="O75" s="61"/>
-      <c r="P75" s="61"/>
-      <c r="Q75" s="61"/>
-      <c r="R75" s="61"/>
-      <c r="S75" s="61"/>
-      <c r="T75" s="61"/>
-      <c r="U75" s="61"/>
-      <c r="V75" s="61"/>
-      <c r="W75" s="61"/>
-      <c r="X75" s="61"/>
-      <c r="Y75" s="61"/>
-      <c r="Z75" s="61"/>
+      <c r="A75" s="62"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="62"/>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="62"/>
+      <c r="L75" s="62"/>
+      <c r="M75" s="62"/>
+      <c r="N75" s="62"/>
+      <c r="O75" s="62"/>
+      <c r="P75" s="62"/>
+      <c r="Q75" s="62"/>
+      <c r="R75" s="62"/>
+      <c r="S75" s="62"/>
+      <c r="T75" s="62"/>
+      <c r="U75" s="62"/>
+      <c r="V75" s="62"/>
+      <c r="W75" s="62"/>
+      <c r="X75" s="62"/>
+      <c r="Y75" s="62"/>
+      <c r="Z75" s="62"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
@@ -5913,7 +5939,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="62"/>
+      <c r="F107" s="65"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -5926,7 +5952,7 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
-      <c r="S107" s="62"/>
+      <c r="S107" s="65"/>
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
       <c r="V107" s="1"/>
@@ -6332,8 +6358,8 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="63"/>
-      <c r="F122" s="63"/>
+      <c r="E122" s="66"/>
+      <c r="F122" s="66"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -6345,8 +6371,8 @@
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
-      <c r="R122" s="63"/>
-      <c r="S122" s="63"/>
+      <c r="R122" s="66"/>
+      <c r="S122" s="66"/>
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
       <c r="V122" s="1"/>
@@ -6361,10 +6387,10 @@
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="F123" s="62" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="F123" s="65" t="s">
+        <v>85</v>
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
@@ -6378,10 +6404,10 @@
       <c r="P123" s="1"/>
       <c r="Q123" s="1"/>
       <c r="R123" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="S123" s="62" t="s">
         <v>84</v>
+      </c>
+      <c r="S123" s="65" t="s">
+        <v>86</v>
       </c>
       <c r="T123" s="1"/>
       <c r="U123" s="1"/>
@@ -6399,12 +6425,12 @@
       <c r="E124" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F124" s="64" t="s">
-        <v>85</v>
+      <c r="F124" s="67" t="s">
+        <v>87</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
-      <c r="I124" s="65">
+      <c r="I124" s="68">
         <v>0.12</v>
       </c>
       <c r="J124" s="1"/>
@@ -6418,8 +6444,8 @@
       <c r="R124" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S124" s="64" t="s">
-        <v>85</v>
+      <c r="S124" s="67" t="s">
+        <v>87</v>
       </c>
       <c r="T124" s="1"/>
       <c r="U124" s="1"/>
@@ -6437,12 +6463,12 @@
       <c r="E125" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F125" s="64" t="s">
-        <v>86</v>
+      <c r="F125" s="67" t="s">
+        <v>88</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
-      <c r="I125" s="65">
+      <c r="I125" s="68">
         <v>2.19</v>
       </c>
       <c r="J125" s="1"/>
@@ -6456,8 +6482,8 @@
       <c r="R125" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S125" s="64" t="s">
-        <v>86</v>
+      <c r="S125" s="67" t="s">
+        <v>88</v>
       </c>
       <c r="T125" s="1"/>
       <c r="U125" s="1"/>
@@ -6475,12 +6501,12 @@
       <c r="E126" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F126" s="64" t="s">
-        <v>87</v>
+      <c r="F126" s="67" t="s">
+        <v>89</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
-      <c r="I126" s="65">
+      <c r="I126" s="68">
         <v>0.55</v>
       </c>
       <c r="J126" s="1"/>
@@ -6494,8 +6520,8 @@
       <c r="R126" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S126" s="64" t="s">
-        <v>87</v>
+      <c r="S126" s="67" t="s">
+        <v>89</v>
       </c>
       <c r="T126" s="1"/>
       <c r="U126" s="1"/>
@@ -6513,12 +6539,12 @@
       <c r="E127" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F127" s="64" t="s">
-        <v>88</v>
+      <c r="F127" s="67" t="s">
+        <v>90</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
-      <c r="I127" s="65">
+      <c r="I127" s="68">
         <v>0.9</v>
       </c>
       <c r="J127" s="1"/>
@@ -6532,8 +6558,8 @@
       <c r="R127" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S127" s="64" t="s">
-        <v>88</v>
+      <c r="S127" s="67" t="s">
+        <v>90</v>
       </c>
       <c r="T127" s="1"/>
       <c r="U127" s="1"/>
@@ -6551,12 +6577,12 @@
       <c r="E128" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F128" s="64" t="s">
-        <v>89</v>
+      <c r="F128" s="67" t="s">
+        <v>91</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
-      <c r="I128" s="65">
+      <c r="I128" s="68">
         <v>0.17</v>
       </c>
       <c r="J128" s="1"/>
@@ -6570,8 +6596,8 @@
       <c r="R128" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S128" s="64" t="s">
-        <v>89</v>
+      <c r="S128" s="67" t="s">
+        <v>91</v>
       </c>
       <c r="T128" s="1"/>
       <c r="U128" s="1"/>
@@ -6589,12 +6615,12 @@
       <c r="E129" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F129" s="64" t="s">
-        <v>90</v>
+      <c r="F129" s="67" t="s">
+        <v>92</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
-      <c r="I129" s="65">
+      <c r="I129" s="68">
         <v>0.29</v>
       </c>
       <c r="J129" s="1"/>
@@ -6608,8 +6634,8 @@
       <c r="R129" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S129" s="64" t="s">
-        <v>90</v>
+      <c r="S129" s="67" t="s">
+        <v>92</v>
       </c>
       <c r="T129" s="1"/>
       <c r="U129" s="1"/>
@@ -6627,12 +6653,12 @@
       <c r="E130" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F130" s="64" t="s">
-        <v>91</v>
+      <c r="F130" s="67" t="s">
+        <v>93</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
-      <c r="I130" s="65">
+      <c r="I130" s="68">
         <v>0.7</v>
       </c>
       <c r="J130" s="1"/>
@@ -6646,8 +6672,8 @@
       <c r="R130" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S130" s="64" t="s">
-        <v>91</v>
+      <c r="S130" s="67" t="s">
+        <v>93</v>
       </c>
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
@@ -6665,12 +6691,12 @@
       <c r="E131" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F131" s="64" t="s">
-        <v>92</v>
+      <c r="F131" s="67" t="s">
+        <v>94</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
-      <c r="I131" s="65">
+      <c r="I131" s="68">
         <v>0.21</v>
       </c>
       <c r="J131" s="1"/>
@@ -6684,8 +6710,8 @@
       <c r="R131" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S131" s="64" t="s">
-        <v>92</v>
+      <c r="S131" s="67" t="s">
+        <v>94</v>
       </c>
       <c r="T131" s="1"/>
       <c r="U131" s="1"/>
@@ -6700,8 +6726,8 @@
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="63"/>
-      <c r="F132" s="63"/>
+      <c r="E132" s="66"/>
+      <c r="F132" s="66"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -6713,8 +6739,8 @@
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
-      <c r="R132" s="63"/>
-      <c r="S132" s="63"/>
+      <c r="R132" s="66"/>
+      <c r="S132" s="66"/>
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
       <c r="V132" s="1"/>
@@ -6728,11 +6754,11 @@
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
-      <c r="E133" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="F133" s="62" t="s">
-        <v>94</v>
+      <c r="E133" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="F133" s="65" t="s">
+        <v>96</v>
       </c>
       <c r="G133" s="1"/>
       <c r="H133" s="1"/>
@@ -6745,11 +6771,11 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
-      <c r="R133" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="S133" s="62" t="s">
-        <v>94</v>
+      <c r="R133" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="S133" s="65" t="s">
+        <v>96</v>
       </c>
       <c r="T133" s="1"/>
       <c r="U133" s="1"/>
@@ -6764,11 +6790,11 @@
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
-      <c r="E134" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="F134" s="64" t="s">
-        <v>96</v>
+      <c r="E134" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="F134" s="67" t="s">
+        <v>98</v>
       </c>
       <c r="G134" s="1"/>
       <c r="H134" s="1"/>
@@ -6781,11 +6807,11 @@
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
-      <c r="R134" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="S134" s="64" t="s">
-        <v>96</v>
+      <c r="R134" s="70" t="s">
+        <v>97</v>
+      </c>
+      <c r="S134" s="67" t="s">
+        <v>98</v>
       </c>
       <c r="T134" s="1"/>
       <c r="U134" s="1"/>
@@ -29468,10 +29494,13 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink r:id="rId2" ref="B71"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/Bio/nutrition spiruline chlorella.xlsx
+++ b/Bio/nutrition spiruline chlorella.xlsx
@@ -35,7 +35,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mh/DK9nfd5RPhnRn7QGHwDuN9IC4w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mg47lpEqLdktaAorQZ66LIuhRBHQg=="/>
     </ext>
   </extLst>
 </comments>
@@ -625,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -684,13 +684,19 @@
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="2" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -1218,7 +1224,7 @@
       </c>
       <c r="F3" s="20"/>
       <c r="G3" s="21">
-        <v>87.0</v>
+        <v>40.0</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>12</v>
@@ -1227,8 +1233,8 @@
         <v>100.0</v>
       </c>
       <c r="J3" s="23"/>
-      <c r="K3" s="15">
-        <v>50.0</v>
+      <c r="K3" s="24">
+        <v>20.0</v>
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="1"/>
@@ -1240,8 +1246,8 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="19"/>
       <c r="S3" s="20"/>
-      <c r="T3" s="13">
-        <v>50.0</v>
+      <c r="T3" s="25">
+        <v>20.0</v>
       </c>
       <c r="U3" s="14"/>
       <c r="V3" s="1"/>
@@ -1255,31 +1261,31 @@
         <v>14</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="24">
+      <c r="C4" s="26">
         <v>2000.0</v>
       </c>
       <c r="D4" s="16"/>
-      <c r="E4" s="25">
+      <c r="E4" s="27">
         <f>81/28*E3</f>
         <v>289.2857143</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13">
         <f>81/28*G3</f>
-        <v>251.6785714</v>
-      </c>
-      <c r="H4" s="26">
+        <v>115.7142857</v>
+      </c>
+      <c r="H4" s="28">
         <f t="shared" ref="H4:H5" si="1">G4/C4</f>
-        <v>0.1258392857</v>
-      </c>
-      <c r="I4" s="24">
+        <v>0.05785714286</v>
+      </c>
+      <c r="I4" s="26">
         <f>115/28*I3</f>
         <v>410.7142857</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15">
         <f>115/28*K3</f>
-        <v>205.3571429</v>
+        <v>82.14285714</v>
       </c>
       <c r="L4" s="16"/>
       <c r="M4" s="1"/>
@@ -1289,7 +1295,7 @@
         <v>15</v>
       </c>
       <c r="Q4" s="1"/>
-      <c r="R4" s="25">
+      <c r="R4" s="27">
         <v>28.0</v>
       </c>
       <c r="S4" s="13"/>
@@ -1308,31 +1314,31 @@
         <v>16</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="24">
+      <c r="C5" s="26">
         <v>50.0</v>
       </c>
       <c r="D5" s="16"/>
-      <c r="E5" s="25">
+      <c r="E5" s="27">
         <f>16/28*E3</f>
         <v>57.14285714</v>
       </c>
       <c r="F5" s="13"/>
-      <c r="G5" s="27">
+      <c r="G5" s="29">
         <f>16/28*G3</f>
-        <v>49.71428571</v>
-      </c>
-      <c r="H5" s="26">
+        <v>22.85714286</v>
+      </c>
+      <c r="H5" s="28">
         <f t="shared" si="1"/>
-        <v>0.9942857143</v>
-      </c>
-      <c r="I5" s="24">
+        <v>0.4571428571</v>
+      </c>
+      <c r="I5" s="26">
         <f>16/28*I3</f>
         <v>57.14285714</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15">
         <f>16/28*K3</f>
-        <v>28.57142857</v>
+        <v>11.42857143</v>
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="1"/>
@@ -1340,13 +1346,13 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-      <c r="R5" s="25">
+      <c r="R5" s="27">
         <v>5.74</v>
       </c>
       <c r="S5" s="13"/>
-      <c r="T5" s="27">
+      <c r="T5" s="29">
         <f>16/28*T3</f>
-        <v>28.57142857</v>
+        <v>11.42857143</v>
       </c>
       <c r="U5" s="14"/>
       <c r="V5" s="1"/>
@@ -1360,15 +1366,15 @@
         <v>17</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="24">
+      <c r="C6" s="26">
         <v>260.0</v>
       </c>
       <c r="D6" s="16"/>
-      <c r="E6" s="25"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="27"/>
+      <c r="G6" s="29"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="24"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="16"/>
@@ -1377,11 +1383,11 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="25">
+      <c r="R6" s="27">
         <v>2.39</v>
       </c>
       <c r="S6" s="13"/>
-      <c r="T6" s="27"/>
+      <c r="T6" s="29"/>
       <c r="U6" s="14"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
@@ -1394,17 +1400,17 @@
         <v>18</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="24">
+      <c r="C7" s="26">
         <v>60.0</v>
       </c>
       <c r="D7" s="16">
         <v>70.0</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="27"/>
+      <c r="G7" s="29"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="24"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="16"/>
@@ -1415,11 +1421,11 @@
         <v>13</v>
       </c>
       <c r="Q7" s="1"/>
-      <c r="R7" s="25">
+      <c r="R7" s="27">
         <v>0.772</v>
       </c>
       <c r="S7" s="13"/>
-      <c r="T7" s="27"/>
+      <c r="T7" s="29"/>
       <c r="U7" s="14"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
@@ -1430,18 +1436,18 @@
     <row r="8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="24"/>
+      <c r="C8" s="26"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="25"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="27">
+      <c r="G8" s="29">
         <f>G3/(1-0.8)</f>
-        <v>435</v>
+        <v>200</v>
       </c>
       <c r="H8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="16"/>
@@ -1450,9 +1456,9 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="25"/>
+      <c r="R8" s="27"/>
       <c r="S8" s="13"/>
-      <c r="T8" s="27"/>
+      <c r="T8" s="29"/>
       <c r="U8" s="14"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
@@ -1463,18 +1469,18 @@
     <row r="9">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="24"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="25"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="13"/>
-      <c r="G9" s="27">
+      <c r="G9" s="29">
         <f>G8-G3</f>
-        <v>348</v>
+        <v>160</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="24"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="16"/>
@@ -1483,9 +1489,9 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-      <c r="R9" s="25"/>
+      <c r="R9" s="27"/>
       <c r="S9" s="13"/>
-      <c r="T9" s="27"/>
+      <c r="T9" s="29"/>
       <c r="U9" s="14"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
@@ -1496,13 +1502,13 @@
     <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="24"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="25"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="13"/>
-      <c r="G10" s="28"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="14"/>
-      <c r="I10" s="24"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="16"/>
@@ -1511,9 +1517,9 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="25"/>
+      <c r="R10" s="27"/>
       <c r="S10" s="13"/>
-      <c r="T10" s="27"/>
+      <c r="T10" s="29"/>
       <c r="U10" s="14"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
@@ -1524,13 +1530,13 @@
     <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="24"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="16"/>
-      <c r="E11" s="25"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="27"/>
+      <c r="G11" s="29"/>
       <c r="H11" s="14"/>
-      <c r="I11" s="24"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="16"/>
@@ -1539,9 +1545,9 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-      <c r="R11" s="25"/>
+      <c r="R11" s="27"/>
       <c r="S11" s="13"/>
-      <c r="T11" s="27"/>
+      <c r="T11" s="29"/>
       <c r="U11" s="14"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
@@ -1552,13 +1558,13 @@
     <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
-      <c r="C12" s="24"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="25"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="27"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="14"/>
-      <c r="I12" s="24"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="16"/>
@@ -1567,9 +1573,9 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-      <c r="R12" s="25"/>
+      <c r="R12" s="27"/>
       <c r="S12" s="13"/>
-      <c r="T12" s="27"/>
+      <c r="T12" s="29"/>
       <c r="U12" s="14"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
@@ -1580,13 +1586,13 @@
     <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="24"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="16"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="27"/>
+      <c r="G13" s="29"/>
       <c r="H13" s="14"/>
-      <c r="I13" s="24"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="16"/>
@@ -1595,9 +1601,9 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="25"/>
+      <c r="R13" s="27"/>
       <c r="S13" s="13"/>
-      <c r="T13" s="27"/>
+      <c r="T13" s="29"/>
       <c r="U13" s="14"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
@@ -1608,13 +1614,13 @@
     <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="24"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="25"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="13"/>
-      <c r="G14" s="27"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="14"/>
-      <c r="I14" s="24"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="16"/>
@@ -1623,9 +1629,9 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="25"/>
+      <c r="R14" s="27"/>
       <c r="S14" s="13"/>
-      <c r="T14" s="27"/>
+      <c r="T14" s="29"/>
       <c r="U14" s="14"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
@@ -1636,13 +1642,13 @@
     <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="24"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="16"/>
-      <c r="E15" s="25"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="27"/>
+      <c r="G15" s="29"/>
       <c r="H15" s="14"/>
-      <c r="I15" s="24"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="16"/>
@@ -1651,9 +1657,9 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="25"/>
+      <c r="R15" s="27"/>
       <c r="S15" s="13"/>
-      <c r="T15" s="27"/>
+      <c r="T15" s="29"/>
       <c r="U15" s="14"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -1664,13 +1670,13 @@
     <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="24"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="16"/>
-      <c r="E16" s="25"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="27"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="24"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="16"/>
@@ -1679,9 +1685,9 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-      <c r="R16" s="25"/>
+      <c r="R16" s="27"/>
       <c r="S16" s="13"/>
-      <c r="T16" s="27"/>
+      <c r="T16" s="29"/>
       <c r="U16" s="14"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
@@ -1692,13 +1698,13 @@
     <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="24"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="25"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="27"/>
+      <c r="G17" s="29"/>
       <c r="H17" s="14"/>
-      <c r="I17" s="24"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="16"/>
@@ -1707,9 +1713,9 @@
       <c r="O17" s="1"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="1"/>
-      <c r="R17" s="25"/>
+      <c r="R17" s="27"/>
       <c r="S17" s="13"/>
-      <c r="T17" s="27"/>
+      <c r="T17" s="29"/>
       <c r="U17" s="14"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
@@ -1720,13 +1726,13 @@
     <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="24"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="16"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="27"/>
+      <c r="G18" s="29"/>
       <c r="H18" s="14"/>
-      <c r="I18" s="24"/>
+      <c r="I18" s="26"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="16"/>
@@ -1735,9 +1741,9 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="25"/>
+      <c r="R18" s="27"/>
       <c r="S18" s="13"/>
-      <c r="T18" s="27"/>
+      <c r="T18" s="29"/>
       <c r="U18" s="14"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
@@ -1749,31 +1755,31 @@
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="31" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="17">
         <v>900.0</v>
       </c>
-      <c r="D19" s="30">
+      <c r="D19" s="32">
         <v>3000.0</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="33">
         <v>342.0</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="34">
         <f t="shared" ref="F19:F20" si="2">E19/C19</f>
         <v>0.38</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="29">
         <f t="shared" ref="G19:G20" si="3">$G$3/$E$3*E19</f>
-        <v>297.54</v>
-      </c>
-      <c r="H19" s="33">
+        <v>136.8</v>
+      </c>
+      <c r="H19" s="35">
         <f t="shared" ref="H19:H20" si="4">G19/C19</f>
-        <v>0.3306</v>
-      </c>
-      <c r="I19" s="34">
+        <v>0.152</v>
+      </c>
+      <c r="I19" s="36">
         <f>58331/0.6</f>
         <v>97218.33333</v>
       </c>
@@ -1783,37 +1789,37 @@
       </c>
       <c r="K19" s="15">
         <f t="shared" ref="K19:K20" si="6">$K$3/$I$3*I19</f>
-        <v>48609.16667</v>
-      </c>
-      <c r="L19" s="33">
+        <v>19443.66667</v>
+      </c>
+      <c r="L19" s="35">
         <f t="shared" ref="L19:L20" si="7">K19/C19</f>
-        <v>54.01018519</v>
-      </c>
-      <c r="M19" s="35">
+        <v>21.60407407</v>
+      </c>
+      <c r="M19" s="37">
         <f t="shared" ref="M19:M33" si="8">G19+K19</f>
-        <v>48906.70667</v>
-      </c>
-      <c r="N19" s="33">
+        <v>19580.46667</v>
+      </c>
+      <c r="N19" s="35">
         <f t="shared" ref="N19:N33" si="9">M19/C19</f>
-        <v>54.34078519</v>
+        <v>21.75607407</v>
       </c>
       <c r="O19" s="1"/>
-      <c r="P19" s="29" t="s">
+      <c r="P19" s="31" t="s">
         <v>23</v>
       </c>
       <c r="Q19" s="1"/>
-      <c r="R19" s="31">
+      <c r="R19" s="33">
         <v>5.7</v>
       </c>
-      <c r="S19" s="32">
+      <c r="S19" s="34">
         <f t="shared" ref="S19:S20" si="10">R19/D19</f>
         <v>0.0019</v>
       </c>
-      <c r="T19" s="27">
+      <c r="T19" s="29">
         <f t="shared" ref="T19:T49" si="11">T$4/R$4*R19</f>
         <v>61.07142857</v>
       </c>
-      <c r="U19" s="33">
+      <c r="U19" s="35">
         <f>T19/C19</f>
         <v>0.06785714286</v>
       </c>
@@ -1824,21 +1830,21 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" ht="25.5" customHeight="1">
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="31" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="18"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="32" t="str">
+      <c r="E20" s="38"/>
+      <c r="F20" s="34" t="str">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="29">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H20" s="33" t="str">
+      <c r="H20" s="35" t="str">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
@@ -1851,31 +1857,31 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="L20" s="33" t="str">
+      <c r="L20" s="35" t="str">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="35">
+      <c r="M20" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N20" s="33" t="str">
+      <c r="N20" s="35" t="str">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O20" s="1"/>
-      <c r="P20" s="29"/>
+      <c r="P20" s="31"/>
       <c r="Q20" s="1"/>
-      <c r="R20" s="36"/>
-      <c r="S20" s="32" t="str">
+      <c r="R20" s="38"/>
+      <c r="S20" s="34" t="str">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T20" s="27">
+      <c r="T20" s="29">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U20" s="33" t="str">
+      <c r="U20" s="35" t="str">
         <f>T20/P20</f>
         <v>#DIV/0!</v>
       </c>
@@ -1889,32 +1895,32 @@
       <c r="B21" s="1"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="33"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="35"/>
       <c r="I21" s="17"/>
       <c r="J21" s="23"/>
       <c r="K21" s="15"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="35">
+      <c r="L21" s="35"/>
+      <c r="M21" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N21" s="33" t="str">
+      <c r="N21" s="35" t="str">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="1"/>
-      <c r="P21" s="37"/>
+      <c r="P21" s="39"/>
       <c r="Q21" s="1"/>
-      <c r="R21" s="36"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="27">
+      <c r="R21" s="38"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="29">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U21" s="33"/>
+      <c r="U21" s="35"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -1932,20 +1938,20 @@
         <v>1.2</v>
       </c>
       <c r="D22" s="18"/>
-      <c r="E22" s="36">
+      <c r="E22" s="38">
         <v>2.38</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="34">
         <f t="shared" ref="F22:F33" si="12">E22/C22</f>
         <v>1.983333333</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="29">
         <f t="shared" ref="G22:G33" si="13">$G$3/$E$3*E22</f>
-        <v>2.0706</v>
-      </c>
-      <c r="H22" s="33">
+        <v>0.952</v>
+      </c>
+      <c r="H22" s="35">
         <f t="shared" ref="H22:H33" si="14">G22/C22</f>
-        <v>1.7255</v>
+        <v>0.7933333333</v>
       </c>
       <c r="I22" s="17">
         <v>2.0</v>
@@ -1956,37 +1962,37 @@
       </c>
       <c r="K22" s="15">
         <f t="shared" ref="K22:K33" si="16">$K$3/$I$3*I22</f>
-        <v>1</v>
-      </c>
-      <c r="L22" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="L22" s="35">
         <f t="shared" ref="L22:L33" si="17">K22/C22</f>
-        <v>0.8333333333</v>
-      </c>
-      <c r="M22" s="35">
+        <v>0.3333333333</v>
+      </c>
+      <c r="M22" s="37">
         <f t="shared" si="8"/>
-        <v>3.0706</v>
-      </c>
-      <c r="N22" s="33">
+        <v>1.352</v>
+      </c>
+      <c r="N22" s="35">
         <f t="shared" si="9"/>
-        <v>2.558833333</v>
+        <v>1.126666667</v>
       </c>
       <c r="O22" s="1"/>
-      <c r="P22" s="29" t="s">
+      <c r="P22" s="31" t="s">
         <v>27</v>
       </c>
       <c r="Q22" s="1"/>
-      <c r="R22" s="36">
+      <c r="R22" s="38">
         <v>0.238</v>
       </c>
-      <c r="S22" s="32">
+      <c r="S22" s="34">
         <f t="shared" ref="S22:S33" si="18">R22/C22</f>
         <v>0.1983333333</v>
       </c>
-      <c r="T22" s="27">
+      <c r="T22" s="29">
         <f t="shared" si="11"/>
         <v>2.55</v>
       </c>
-      <c r="U22" s="33">
+      <c r="U22" s="35">
         <f t="shared" ref="U22:U59" si="19">T22/C22</f>
         <v>2.125</v>
       </c>
@@ -2007,22 +2013,22 @@
         <v>1.3</v>
       </c>
       <c r="D23" s="18"/>
-      <c r="E23" s="36">
+      <c r="E23" s="38">
         <v>3.67</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="34">
         <f t="shared" si="12"/>
         <v>2.823076923</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="29">
         <f t="shared" si="13"/>
-        <v>3.1929</v>
-      </c>
-      <c r="H23" s="33">
+        <v>1.468</v>
+      </c>
+      <c r="H23" s="35">
         <f t="shared" si="14"/>
-        <v>2.456076923</v>
-      </c>
-      <c r="I23" s="38">
+        <v>1.129230769</v>
+      </c>
+      <c r="I23" s="40">
         <v>4.533</v>
       </c>
       <c r="J23" s="23">
@@ -2031,43 +2037,43 @@
       </c>
       <c r="K23" s="15">
         <f t="shared" si="16"/>
-        <v>2.2665</v>
-      </c>
-      <c r="L23" s="33">
+        <v>0.9066</v>
+      </c>
+      <c r="L23" s="35">
         <f t="shared" si="17"/>
-        <v>1.743461538</v>
-      </c>
-      <c r="M23" s="35">
+        <v>0.6973846154</v>
+      </c>
+      <c r="M23" s="37">
         <f t="shared" si="8"/>
-        <v>5.4594</v>
-      </c>
-      <c r="N23" s="33">
+        <v>2.3746</v>
+      </c>
+      <c r="N23" s="35">
         <f t="shared" si="9"/>
-        <v>4.199538462</v>
+        <v>1.826615385</v>
       </c>
       <c r="O23" s="1"/>
-      <c r="P23" s="29" t="s">
+      <c r="P23" s="31" t="s">
         <v>27</v>
       </c>
       <c r="Q23" s="1"/>
-      <c r="R23" s="36">
+      <c r="R23" s="38">
         <v>0.367</v>
       </c>
-      <c r="S23" s="32">
+      <c r="S23" s="34">
         <f t="shared" si="18"/>
         <v>0.2823076923</v>
       </c>
-      <c r="T23" s="27">
+      <c r="T23" s="29">
         <f t="shared" si="11"/>
         <v>3.932142857</v>
       </c>
-      <c r="U23" s="33">
+      <c r="U23" s="35">
         <f t="shared" si="19"/>
         <v>3.024725275</v>
       </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="39" t="s">
+      <c r="X23" s="41" t="s">
         <v>30</v>
       </c>
       <c r="Y23" s="1"/>
@@ -2077,29 +2083,29 @@
       <c r="A24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="17">
         <v>16.0</v>
       </c>
       <c r="D24" s="18"/>
-      <c r="E24" s="36">
+      <c r="E24" s="38">
         <v>12.82</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="34">
         <f t="shared" si="12"/>
         <v>0.80125</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="29">
         <f t="shared" si="13"/>
-        <v>11.1534</v>
-      </c>
-      <c r="H24" s="33">
+        <v>5.128</v>
+      </c>
+      <c r="H24" s="35">
         <f t="shared" si="14"/>
-        <v>0.6970875</v>
-      </c>
-      <c r="I24" s="38">
+        <v>0.3205</v>
+      </c>
+      <c r="I24" s="40">
         <v>26.667</v>
       </c>
       <c r="J24" s="23">
@@ -2108,37 +2114,37 @@
       </c>
       <c r="K24" s="15">
         <f t="shared" si="16"/>
-        <v>13.3335</v>
-      </c>
-      <c r="L24" s="33">
+        <v>5.3334</v>
+      </c>
+      <c r="L24" s="35">
         <f t="shared" si="17"/>
-        <v>0.83334375</v>
-      </c>
-      <c r="M24" s="35">
+        <v>0.3333375</v>
+      </c>
+      <c r="M24" s="37">
         <f t="shared" si="8"/>
-        <v>24.4869</v>
-      </c>
-      <c r="N24" s="33">
+        <v>10.4614</v>
+      </c>
+      <c r="N24" s="35">
         <f t="shared" si="9"/>
-        <v>1.53043125</v>
+        <v>0.6538375</v>
       </c>
       <c r="O24" s="1"/>
-      <c r="P24" s="29" t="s">
+      <c r="P24" s="31" t="s">
         <v>27</v>
       </c>
       <c r="Q24" s="1"/>
-      <c r="R24" s="36">
+      <c r="R24" s="38">
         <v>1.28</v>
       </c>
-      <c r="S24" s="32">
+      <c r="S24" s="34">
         <f t="shared" si="18"/>
         <v>0.08</v>
       </c>
-      <c r="T24" s="27">
+      <c r="T24" s="29">
         <f t="shared" si="11"/>
         <v>13.71428571</v>
       </c>
-      <c r="U24" s="33">
+      <c r="U24" s="35">
         <f t="shared" si="19"/>
         <v>0.8571428571</v>
       </c>
@@ -2159,20 +2165,20 @@
         <v>5.0</v>
       </c>
       <c r="D25" s="18"/>
-      <c r="E25" s="36">
+      <c r="E25" s="38">
         <v>3.48</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="34">
         <f t="shared" si="12"/>
         <v>0.696</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="29">
         <f t="shared" si="13"/>
-        <v>3.0276</v>
-      </c>
-      <c r="H25" s="33">
+        <v>1.392</v>
+      </c>
+      <c r="H25" s="35">
         <f t="shared" si="14"/>
-        <v>0.60552</v>
+        <v>0.2784</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="23">
@@ -2183,33 +2189,33 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L25" s="33">
+      <c r="L25" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M25" s="35">
+      <c r="M25" s="37">
         <f t="shared" si="8"/>
-        <v>3.0276</v>
-      </c>
-      <c r="N25" s="33">
+        <v>1.392</v>
+      </c>
+      <c r="N25" s="35">
         <f t="shared" si="9"/>
-        <v>0.60552</v>
+        <v>0.2784</v>
       </c>
       <c r="O25" s="1"/>
-      <c r="P25" s="29" t="s">
+      <c r="P25" s="31" t="s">
         <v>27</v>
       </c>
       <c r="Q25" s="1"/>
-      <c r="R25" s="36"/>
-      <c r="S25" s="32">
+      <c r="R25" s="38"/>
+      <c r="S25" s="34">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T25" s="27">
+      <c r="T25" s="29">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U25" s="33">
+      <c r="U25" s="35">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -2223,27 +2229,27 @@
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="31" t="s">
         <v>36</v>
       </c>
       <c r="C26" s="17">
         <v>1.3</v>
       </c>
       <c r="D26" s="18"/>
-      <c r="E26" s="36">
+      <c r="E26" s="38">
         <v>0.364</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="34">
         <f t="shared" si="12"/>
         <v>0.28</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="29">
         <f t="shared" si="13"/>
-        <v>0.31668</v>
-      </c>
-      <c r="H26" s="33">
+        <v>0.1456</v>
+      </c>
+      <c r="H26" s="35">
         <f t="shared" si="14"/>
-        <v>0.2436</v>
+        <v>0.112</v>
       </c>
       <c r="I26" s="17"/>
       <c r="J26" s="23">
@@ -2254,35 +2260,35 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L26" s="33">
+      <c r="L26" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M26" s="35">
+      <c r="M26" s="37">
         <f t="shared" si="8"/>
-        <v>0.31668</v>
-      </c>
-      <c r="N26" s="33">
+        <v>0.1456</v>
+      </c>
+      <c r="N26" s="35">
         <f t="shared" si="9"/>
-        <v>0.2436</v>
+        <v>0.112</v>
       </c>
       <c r="O26" s="1"/>
-      <c r="P26" s="29" t="s">
+      <c r="P26" s="31" t="s">
         <v>27</v>
       </c>
       <c r="Q26" s="1"/>
-      <c r="R26" s="36">
+      <c r="R26" s="38">
         <v>0.0364</v>
       </c>
-      <c r="S26" s="32">
+      <c r="S26" s="34">
         <f t="shared" si="18"/>
         <v>0.028</v>
       </c>
-      <c r="T26" s="27">
+      <c r="T26" s="29">
         <f t="shared" si="11"/>
         <v>0.39</v>
       </c>
-      <c r="U26" s="33">
+      <c r="U26" s="35">
         <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
@@ -2303,20 +2309,20 @@
         <v>30.0</v>
       </c>
       <c r="D27" s="18"/>
-      <c r="E27" s="36">
+      <c r="E27" s="38">
         <v>94.0</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="34">
         <f t="shared" si="12"/>
         <v>3.133333333</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="29">
         <f t="shared" si="13"/>
-        <v>81.78</v>
-      </c>
-      <c r="H27" s="33">
+        <v>37.6</v>
+      </c>
+      <c r="H27" s="35">
         <f t="shared" si="14"/>
-        <v>2.726</v>
+        <v>1.253333333</v>
       </c>
       <c r="I27" s="17"/>
       <c r="J27" s="23">
@@ -2327,33 +2333,33 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M27" s="35">
+      <c r="M27" s="37">
         <f t="shared" si="8"/>
-        <v>81.78</v>
-      </c>
-      <c r="N27" s="33">
+        <v>37.6</v>
+      </c>
+      <c r="N27" s="35">
         <f t="shared" si="9"/>
-        <v>2.726</v>
+        <v>1.253333333</v>
       </c>
       <c r="O27" s="1"/>
-      <c r="P27" s="29" t="s">
+      <c r="P27" s="31" t="s">
         <v>23</v>
       </c>
       <c r="Q27" s="1"/>
-      <c r="R27" s="36"/>
-      <c r="S27" s="32">
+      <c r="R27" s="38"/>
+      <c r="S27" s="34">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T27" s="27">
+      <c r="T27" s="29">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U27" s="33">
+      <c r="U27" s="35">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -2367,7 +2373,7 @@
       <c r="A28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="31" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="17">
@@ -2376,22 +2382,22 @@
       <c r="D28" s="18">
         <v>1000.0</v>
       </c>
-      <c r="E28" s="36">
+      <c r="E28" s="38">
         <v>0.0</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="29">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H28" s="33">
+      <c r="H28" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="I28" s="40"/>
+      <c r="I28" s="42"/>
       <c r="J28" s="23">
         <f t="shared" si="15"/>
         <v>0</v>
@@ -2400,35 +2406,35 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L28" s="33">
+      <c r="L28" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M28" s="35">
+      <c r="M28" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N28" s="33">
+      <c r="N28" s="35">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O28" s="1"/>
-      <c r="P28" s="29" t="s">
+      <c r="P28" s="31" t="s">
         <v>23</v>
       </c>
       <c r="Q28" s="1"/>
-      <c r="R28" s="36">
+      <c r="R28" s="38">
         <v>9.4</v>
       </c>
-      <c r="S28" s="32">
+      <c r="S28" s="34">
         <f t="shared" si="18"/>
         <v>0.0235</v>
       </c>
-      <c r="T28" s="27">
+      <c r="T28" s="29">
         <f t="shared" si="11"/>
         <v>100.7142857</v>
       </c>
-      <c r="U28" s="33">
+      <c r="U28" s="35">
         <f t="shared" si="19"/>
         <v>0.2517857143</v>
       </c>
@@ -2442,27 +2448,27 @@
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="31" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="17">
         <v>2.4</v>
       </c>
       <c r="D29" s="18"/>
-      <c r="E29" s="36">
+      <c r="E29" s="38">
         <v>66.0</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="34">
         <f t="shared" si="12"/>
         <v>27.5</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="29">
         <f t="shared" si="13"/>
-        <v>57.42</v>
-      </c>
-      <c r="H29" s="33">
+        <v>26.4</v>
+      </c>
+      <c r="H29" s="35">
         <f t="shared" si="14"/>
-        <v>23.925</v>
+        <v>11</v>
       </c>
       <c r="I29" s="17">
         <v>300.0</v>
@@ -2473,37 +2479,37 @@
       </c>
       <c r="K29" s="15">
         <f t="shared" si="16"/>
-        <v>150</v>
-      </c>
-      <c r="L29" s="33">
+        <v>60</v>
+      </c>
+      <c r="L29" s="35">
         <f t="shared" si="17"/>
-        <v>62.5</v>
-      </c>
-      <c r="M29" s="35">
+        <v>25</v>
+      </c>
+      <c r="M29" s="37">
         <f t="shared" si="8"/>
-        <v>207.42</v>
-      </c>
-      <c r="N29" s="33">
+        <v>86.4</v>
+      </c>
+      <c r="N29" s="35">
         <f t="shared" si="9"/>
-        <v>86.425</v>
+        <v>36</v>
       </c>
       <c r="O29" s="1"/>
-      <c r="P29" s="41" t="s">
+      <c r="P29" s="43" t="s">
         <v>23</v>
       </c>
       <c r="Q29" s="1"/>
-      <c r="R29" s="36">
+      <c r="R29" s="38">
         <v>0.0</v>
       </c>
-      <c r="S29" s="32">
+      <c r="S29" s="34">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T29" s="27">
+      <c r="T29" s="29">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U29" s="33">
+      <c r="U29" s="35">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -2524,20 +2530,20 @@
         <v>90.0</v>
       </c>
       <c r="D30" s="18"/>
-      <c r="E30" s="36">
+      <c r="E30" s="38">
         <v>10.1</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="34">
         <f t="shared" si="12"/>
         <v>0.1122222222</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="29">
         <f t="shared" si="13"/>
-        <v>8.787</v>
-      </c>
-      <c r="H30" s="33">
+        <v>4.04</v>
+      </c>
+      <c r="H30" s="35">
         <f t="shared" si="14"/>
-        <v>0.09763333333</v>
+        <v>0.04488888889</v>
       </c>
       <c r="I30" s="17">
         <v>20.0</v>
@@ -2548,37 +2554,37 @@
       </c>
       <c r="K30" s="15">
         <f t="shared" si="16"/>
-        <v>10</v>
-      </c>
-      <c r="L30" s="33">
+        <v>4</v>
+      </c>
+      <c r="L30" s="35">
         <f t="shared" si="17"/>
-        <v>0.1111111111</v>
-      </c>
-      <c r="M30" s="35">
+        <v>0.04444444444</v>
+      </c>
+      <c r="M30" s="37">
         <f t="shared" si="8"/>
-        <v>18.787</v>
-      </c>
-      <c r="N30" s="33">
+        <v>8.04</v>
+      </c>
+      <c r="N30" s="35">
         <f t="shared" si="9"/>
-        <v>0.2087444444</v>
+        <v>0.08933333333</v>
       </c>
       <c r="O30" s="1"/>
-      <c r="P30" s="41" t="s">
+      <c r="P30" s="43" t="s">
         <v>27</v>
       </c>
       <c r="Q30" s="1"/>
-      <c r="R30" s="36">
+      <c r="R30" s="38">
         <v>1.01</v>
       </c>
-      <c r="S30" s="32">
+      <c r="S30" s="34">
         <f t="shared" si="18"/>
         <v>0.01122222222</v>
       </c>
-      <c r="T30" s="27">
+      <c r="T30" s="29">
         <f t="shared" si="11"/>
         <v>10.82142857</v>
       </c>
-      <c r="U30" s="33">
+      <c r="U30" s="35">
         <f t="shared" si="19"/>
         <v>0.1202380952</v>
       </c>
@@ -2592,7 +2598,7 @@
       <c r="A31" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="31" t="s">
         <v>46</v>
       </c>
       <c r="C31" s="17">
@@ -2601,18 +2607,18 @@
       <c r="D31" s="18">
         <v>50.0</v>
       </c>
-      <c r="E31" s="36">
+      <c r="E31" s="38">
         <v>0.0</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="34">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="29">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H31" s="33">
+      <c r="H31" s="35">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
@@ -2625,35 +2631,35 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L31" s="33">
+      <c r="L31" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M31" s="35">
+      <c r="M31" s="37">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N31" s="33">
+      <c r="N31" s="35">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O31" s="1"/>
-      <c r="P31" s="29" t="s">
+      <c r="P31" s="31" t="s">
         <v>23</v>
       </c>
       <c r="Q31" s="1"/>
-      <c r="R31" s="36">
+      <c r="R31" s="38">
         <v>0.0</v>
       </c>
-      <c r="S31" s="32">
+      <c r="S31" s="34">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T31" s="27">
+      <c r="T31" s="29">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U31" s="33">
+      <c r="U31" s="35">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -2667,27 +2673,27 @@
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="31" t="s">
         <v>48</v>
       </c>
       <c r="C32" s="17">
         <v>15.0</v>
       </c>
       <c r="D32" s="18"/>
-      <c r="E32" s="36">
+      <c r="E32" s="38">
         <v>5.0</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="34">
         <f t="shared" si="12"/>
         <v>0.3333333333</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="29">
         <f t="shared" si="13"/>
-        <v>4.35</v>
-      </c>
-      <c r="H32" s="33">
+        <v>2</v>
+      </c>
+      <c r="H32" s="35">
         <f t="shared" si="14"/>
-        <v>0.29</v>
+        <v>0.1333333333</v>
       </c>
       <c r="I32" s="17"/>
       <c r="J32" s="23">
@@ -2698,35 +2704,35 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L32" s="33">
+      <c r="L32" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M32" s="35">
+      <c r="M32" s="37">
         <f t="shared" si="8"/>
-        <v>4.35</v>
-      </c>
-      <c r="N32" s="33">
+        <v>2</v>
+      </c>
+      <c r="N32" s="35">
         <f t="shared" si="9"/>
-        <v>0.29</v>
+        <v>0.1333333333</v>
       </c>
       <c r="O32" s="1"/>
-      <c r="P32" s="29" t="s">
+      <c r="P32" s="31" t="s">
         <v>27</v>
       </c>
       <c r="Q32" s="1"/>
-      <c r="R32" s="36">
+      <c r="R32" s="38">
         <v>0.675</v>
       </c>
-      <c r="S32" s="32">
+      <c r="S32" s="34">
         <f t="shared" si="18"/>
         <v>0.045</v>
       </c>
-      <c r="T32" s="27">
+      <c r="T32" s="29">
         <f t="shared" si="11"/>
         <v>7.232142857</v>
       </c>
-      <c r="U32" s="33">
+      <c r="U32" s="35">
         <f t="shared" si="19"/>
         <v>0.4821428571</v>
       </c>
@@ -2740,27 +2746,27 @@
       <c r="A33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="31" t="s">
         <v>50</v>
       </c>
       <c r="C33" s="17">
         <v>120.0</v>
       </c>
       <c r="D33" s="18"/>
-      <c r="E33" s="36">
+      <c r="E33" s="38">
         <v>25.5</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="34">
         <f t="shared" si="12"/>
         <v>0.2125</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="29">
         <f t="shared" si="13"/>
-        <v>22.185</v>
-      </c>
-      <c r="H33" s="33">
+        <v>10.2</v>
+      </c>
+      <c r="H33" s="35">
         <f t="shared" si="14"/>
-        <v>0.184875</v>
+        <v>0.085</v>
       </c>
       <c r="I33" s="17"/>
       <c r="J33" s="23">
@@ -2771,33 +2777,33 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="L33" s="33">
+      <c r="L33" s="35">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M33" s="35">
+      <c r="M33" s="37">
         <f t="shared" si="8"/>
-        <v>22.185</v>
-      </c>
-      <c r="N33" s="33">
+        <v>10.2</v>
+      </c>
+      <c r="N33" s="35">
         <f t="shared" si="9"/>
-        <v>0.184875</v>
+        <v>0.085</v>
       </c>
       <c r="O33" s="1"/>
-      <c r="P33" s="29" t="s">
+      <c r="P33" s="31" t="s">
         <v>23</v>
       </c>
       <c r="Q33" s="1"/>
-      <c r="R33" s="36"/>
-      <c r="S33" s="32">
+      <c r="R33" s="38"/>
+      <c r="S33" s="34">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="T33" s="27">
+      <c r="T33" s="29">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U33" s="33">
+      <c r="U33" s="35">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -2813,25 +2819,25 @@
       <c r="C34" s="17"/>
       <c r="D34" s="18"/>
       <c r="E34" s="19"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="35"/>
       <c r="I34" s="17"/>
       <c r="J34" s="23"/>
       <c r="K34" s="15"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="33"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="37"/>
+      <c r="N34" s="35"/>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="19"/>
-      <c r="S34" s="32"/>
-      <c r="T34" s="27">
+      <c r="S34" s="34"/>
+      <c r="T34" s="29">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U34" s="33" t="str">
+      <c r="U34" s="35" t="str">
         <f t="shared" si="19"/>
         <v>#DIV/0!</v>
       </c>
@@ -2845,21 +2851,21 @@
       <c r="A35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="42"/>
+      <c r="B35" s="44"/>
       <c r="C35" s="17">
         <v>4.7</v>
       </c>
       <c r="D35" s="18"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="32">
+      <c r="E35" s="33"/>
+      <c r="F35" s="34">
         <f t="shared" ref="F35:F49" si="20">E35/C35</f>
         <v>0</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="29">
         <f t="shared" ref="G35:G49" si="21">$G$3/$E$3*E35</f>
         <v>0</v>
       </c>
-      <c r="H35" s="33">
+      <c r="H35" s="35">
         <f t="shared" ref="H35:H49" si="22">G35/C35</f>
         <v>0</v>
       </c>
@@ -2872,15 +2878,15 @@
         <f t="shared" ref="K35:K49" si="24">$K$3/$I$3*I35</f>
         <v>0</v>
       </c>
-      <c r="L35" s="33">
+      <c r="L35" s="35">
         <f t="shared" ref="L35:L49" si="25">K35/C35</f>
         <v>0</v>
       </c>
-      <c r="M35" s="35">
+      <c r="M35" s="37">
         <f t="shared" ref="M35:M49" si="26">G35+K35</f>
         <v>0</v>
       </c>
-      <c r="N35" s="33">
+      <c r="N35" s="35">
         <f t="shared" ref="N35:N49" si="27">M35/C35</f>
         <v>0</v>
       </c>
@@ -2889,18 +2895,18 @@
         <v>13</v>
       </c>
       <c r="Q35" s="1"/>
-      <c r="R35" s="31">
+      <c r="R35" s="33">
         <v>0.136</v>
       </c>
-      <c r="S35" s="32" t="str">
+      <c r="S35" s="34" t="str">
         <f t="shared" ref="S35:S49" si="28">R35/P35</f>
         <v>#VALUE!</v>
       </c>
-      <c r="T35" s="27">
+      <c r="T35" s="29">
         <f t="shared" si="11"/>
         <v>1.457142857</v>
       </c>
-      <c r="U35" s="33">
+      <c r="U35" s="35">
         <f t="shared" si="19"/>
         <v>0.3100303951</v>
       </c>
@@ -2914,21 +2920,21 @@
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="42"/>
+      <c r="B36" s="44"/>
       <c r="C36" s="17">
         <v>2.3</v>
       </c>
       <c r="D36" s="18"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32">
+      <c r="E36" s="33"/>
+      <c r="F36" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36" s="29">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H36" s="33">
+      <c r="H36" s="35">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -2941,15 +2947,15 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L36" s="33">
+      <c r="L36" s="35">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M36" s="35">
+      <c r="M36" s="37">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N36" s="33">
+      <c r="N36" s="35">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -2958,16 +2964,16 @@
         <v>13</v>
       </c>
       <c r="Q36" s="1"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="32" t="str">
+      <c r="R36" s="33"/>
+      <c r="S36" s="34" t="str">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T36" s="27">
+      <c r="T36" s="29">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U36" s="33">
+      <c r="U36" s="35">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -2981,27 +2987,27 @@
       <c r="A37" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="42"/>
+      <c r="B37" s="44"/>
       <c r="C37" s="17">
         <v>2300.0</v>
       </c>
       <c r="D37" s="18">
         <v>6000.0</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="32">
+      <c r="E37" s="33"/>
+      <c r="F37" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G37" s="27">
+      <c r="G37" s="29">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H37" s="33">
+      <c r="H37" s="35">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I37" s="38">
+      <c r="I37" s="40">
         <v>0.0</v>
       </c>
       <c r="J37" s="23">
@@ -3012,15 +3018,15 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L37" s="33">
+      <c r="L37" s="35">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M37" s="35">
+      <c r="M37" s="37">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N37" s="33">
+      <c r="N37" s="35">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -3029,18 +3035,18 @@
         <v>27</v>
       </c>
       <c r="Q37" s="1"/>
-      <c r="R37" s="31">
+      <c r="R37" s="33">
         <v>105.0</v>
       </c>
-      <c r="S37" s="32" t="str">
+      <c r="S37" s="34" t="str">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T37" s="27">
+      <c r="T37" s="29">
         <f t="shared" si="11"/>
         <v>1125</v>
       </c>
-      <c r="U37" s="33">
+      <c r="U37" s="35">
         <f t="shared" si="19"/>
         <v>0.4891304348</v>
       </c>
@@ -3054,27 +3060,27 @@
       <c r="A38" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B38" s="42"/>
+      <c r="B38" s="44"/>
       <c r="C38" s="17">
         <v>1000.0</v>
       </c>
       <c r="D38" s="18">
         <v>2500.0</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="32">
+      <c r="E38" s="33"/>
+      <c r="F38" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="29">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H38" s="33">
+      <c r="H38" s="35">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I38" s="38">
+      <c r="I38" s="40">
         <v>333.0</v>
       </c>
       <c r="J38" s="23">
@@ -3083,37 +3089,37 @@
       </c>
       <c r="K38" s="15">
         <f t="shared" si="24"/>
-        <v>166.5</v>
-      </c>
-      <c r="L38" s="33">
+        <v>66.6</v>
+      </c>
+      <c r="L38" s="35">
         <f t="shared" si="25"/>
-        <v>0.1665</v>
-      </c>
-      <c r="M38" s="35">
+        <v>0.0666</v>
+      </c>
+      <c r="M38" s="37">
         <f t="shared" si="26"/>
-        <v>166.5</v>
-      </c>
-      <c r="N38" s="33">
+        <v>66.6</v>
+      </c>
+      <c r="N38" s="35">
         <f t="shared" si="27"/>
-        <v>0.1665</v>
+        <v>0.0666</v>
       </c>
       <c r="O38" s="1"/>
-      <c r="P38" s="41" t="s">
+      <c r="P38" s="43" t="s">
         <v>27</v>
       </c>
       <c r="Q38" s="1"/>
-      <c r="R38" s="31">
+      <c r="R38" s="33">
         <v>12.0</v>
       </c>
-      <c r="S38" s="32" t="str">
+      <c r="S38" s="34" t="str">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T38" s="27">
+      <c r="T38" s="29">
         <f t="shared" si="11"/>
         <v>128.5714286</v>
       </c>
-      <c r="U38" s="33">
+      <c r="U38" s="35">
         <f t="shared" si="19"/>
         <v>0.1285714286</v>
       </c>
@@ -3127,27 +3133,27 @@
       <c r="A39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="42"/>
+      <c r="B39" s="44"/>
       <c r="C39" s="17">
         <v>700.0</v>
       </c>
       <c r="D39" s="18">
         <v>4000.0</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="32">
+      <c r="E39" s="33"/>
+      <c r="F39" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G39" s="27">
+      <c r="G39" s="29">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H39" s="33">
+      <c r="H39" s="35">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I39" s="38"/>
+      <c r="I39" s="40"/>
       <c r="J39" s="23">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -3156,15 +3162,15 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L39" s="33">
+      <c r="L39" s="35">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M39" s="35">
+      <c r="M39" s="37">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N39" s="33">
+      <c r="N39" s="35">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -3173,18 +3179,18 @@
         <v>27</v>
       </c>
       <c r="Q39" s="1"/>
-      <c r="R39" s="31">
+      <c r="R39" s="33">
         <v>11.8</v>
       </c>
-      <c r="S39" s="32" t="str">
+      <c r="S39" s="34" t="str">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T39" s="27">
+      <c r="T39" s="29">
         <f t="shared" si="11"/>
         <v>126.4285714</v>
       </c>
-      <c r="U39" s="33">
+      <c r="U39" s="35">
         <f t="shared" si="19"/>
         <v>0.1806122449</v>
       </c>
@@ -3198,25 +3204,25 @@
       <c r="A40" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="43"/>
+      <c r="B40" s="45"/>
       <c r="C40" s="17">
         <v>420.0</v>
       </c>
       <c r="D40" s="18"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="32">
+      <c r="E40" s="33"/>
+      <c r="F40" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G40" s="29">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H40" s="33">
+      <c r="H40" s="35">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I40" s="38"/>
+      <c r="I40" s="40"/>
       <c r="J40" s="23">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -3225,15 +3231,15 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L40" s="33">
+      <c r="L40" s="35">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M40" s="35">
+      <c r="M40" s="37">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N40" s="33">
+      <c r="N40" s="35">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -3242,18 +3248,18 @@
         <v>27</v>
       </c>
       <c r="Q40" s="1"/>
-      <c r="R40" s="31">
+      <c r="R40" s="33">
         <v>19.5</v>
       </c>
-      <c r="S40" s="32" t="str">
+      <c r="S40" s="34" t="str">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T40" s="27">
+      <c r="T40" s="29">
         <f t="shared" si="11"/>
         <v>208.9285714</v>
       </c>
-      <c r="U40" s="33">
+      <c r="U40" s="35">
         <f t="shared" si="19"/>
         <v>0.4974489796</v>
       </c>
@@ -3267,27 +3273,27 @@
       <c r="A41" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="43"/>
+      <c r="B41" s="45"/>
       <c r="C41" s="17">
         <v>4.0</v>
       </c>
       <c r="D41" s="18">
         <v>10.0</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="32">
+      <c r="E41" s="33"/>
+      <c r="F41" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G41" s="27">
+      <c r="G41" s="29">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H41" s="33">
+      <c r="H41" s="35">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I41" s="38">
+      <c r="I41" s="40">
         <v>267.0</v>
       </c>
       <c r="J41" s="23">
@@ -3296,35 +3302,35 @@
       </c>
       <c r="K41" s="15">
         <f t="shared" si="24"/>
-        <v>133.5</v>
-      </c>
-      <c r="L41" s="33">
+        <v>53.4</v>
+      </c>
+      <c r="L41" s="35">
         <f t="shared" si="25"/>
-        <v>33.375</v>
-      </c>
-      <c r="M41" s="35">
+        <v>13.35</v>
+      </c>
+      <c r="M41" s="37">
         <f t="shared" si="26"/>
-        <v>133.5</v>
-      </c>
-      <c r="N41" s="33">
+        <v>53.4</v>
+      </c>
+      <c r="N41" s="35">
         <f t="shared" si="27"/>
-        <v>33.375</v>
+        <v>13.35</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1" t="s">
         <v>27</v>
       </c>
       <c r="Q41" s="1"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="32" t="str">
+      <c r="R41" s="33"/>
+      <c r="S41" s="34" t="str">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T41" s="27">
+      <c r="T41" s="29">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U41" s="33">
+      <c r="U41" s="35">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -3338,23 +3344,23 @@
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="42"/>
+      <c r="B42" s="44"/>
       <c r="C42" s="17">
         <v>8.0</v>
       </c>
       <c r="D42" s="18">
         <v>45.0</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="32">
+      <c r="E42" s="33"/>
+      <c r="F42" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="29">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H42" s="33">
+      <c r="H42" s="35">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3367,37 +3373,37 @@
       </c>
       <c r="K42" s="15">
         <f t="shared" si="24"/>
-        <v>120</v>
-      </c>
-      <c r="L42" s="33">
+        <v>48</v>
+      </c>
+      <c r="L42" s="35">
         <f t="shared" si="25"/>
-        <v>15</v>
-      </c>
-      <c r="M42" s="35">
+        <v>6</v>
+      </c>
+      <c r="M42" s="37">
         <f t="shared" si="26"/>
-        <v>120</v>
-      </c>
-      <c r="N42" s="33">
+        <v>48</v>
+      </c>
+      <c r="N42" s="35">
         <f t="shared" si="27"/>
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="O42" s="1"/>
-      <c r="P42" s="41" t="s">
+      <c r="P42" s="43" t="s">
         <v>27</v>
       </c>
       <c r="Q42" s="1"/>
-      <c r="R42" s="31">
+      <c r="R42" s="33">
         <v>2.85</v>
       </c>
-      <c r="S42" s="32" t="str">
+      <c r="S42" s="34" t="str">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T42" s="27">
+      <c r="T42" s="29">
         <f t="shared" si="11"/>
         <v>30.53571429</v>
       </c>
-      <c r="U42" s="33">
+      <c r="U42" s="35">
         <f t="shared" si="19"/>
         <v>3.816964286</v>
       </c>
@@ -3411,23 +3417,23 @@
       <c r="A43" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B43" s="42"/>
+      <c r="B43" s="44"/>
       <c r="C43" s="17">
         <v>22.0</v>
       </c>
       <c r="D43" s="18">
         <v>40.0</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="32">
+      <c r="E43" s="33"/>
+      <c r="F43" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G43" s="27">
+      <c r="G43" s="29">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H43" s="33">
+      <c r="H43" s="35">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3440,37 +3446,37 @@
       </c>
       <c r="K43" s="15">
         <f t="shared" si="24"/>
-        <v>35</v>
-      </c>
-      <c r="L43" s="33">
+        <v>14</v>
+      </c>
+      <c r="L43" s="35">
         <f t="shared" si="25"/>
-        <v>1.590909091</v>
-      </c>
-      <c r="M43" s="35">
+        <v>0.6363636364</v>
+      </c>
+      <c r="M43" s="37">
         <f t="shared" si="26"/>
-        <v>35</v>
-      </c>
-      <c r="N43" s="33">
+        <v>14</v>
+      </c>
+      <c r="N43" s="35">
         <f t="shared" si="27"/>
-        <v>1.590909091</v>
+        <v>0.6363636364</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1" t="s">
         <v>27</v>
       </c>
       <c r="Q43" s="1"/>
-      <c r="R43" s="31">
+      <c r="R43" s="33">
         <v>0.3</v>
       </c>
-      <c r="S43" s="32" t="str">
+      <c r="S43" s="34" t="str">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T43" s="27">
+      <c r="T43" s="29">
         <f t="shared" si="11"/>
         <v>3.214285714</v>
       </c>
-      <c r="U43" s="33">
+      <c r="U43" s="35">
         <f t="shared" si="19"/>
         <v>0.1461038961</v>
       </c>
@@ -3484,23 +3490,23 @@
       <c r="A44" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B44" s="42"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="17">
         <v>2.3</v>
       </c>
       <c r="D44" s="18">
         <v>11.0</v>
       </c>
-      <c r="E44" s="31"/>
-      <c r="F44" s="32">
+      <c r="E44" s="33"/>
+      <c r="F44" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G44" s="27">
+      <c r="G44" s="29">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H44" s="33">
+      <c r="H44" s="35">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3513,15 +3519,15 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L44" s="33">
+      <c r="L44" s="35">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M44" s="35">
+      <c r="M44" s="37">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N44" s="33">
+      <c r="N44" s="35">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -3530,18 +3536,18 @@
         <v>27</v>
       </c>
       <c r="Q44" s="1"/>
-      <c r="R44" s="31">
+      <c r="R44" s="33">
         <v>0.19</v>
       </c>
-      <c r="S44" s="32" t="str">
+      <c r="S44" s="34" t="str">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T44" s="27">
+      <c r="T44" s="29">
         <f t="shared" si="11"/>
         <v>2.035714286</v>
       </c>
-      <c r="U44" s="33">
+      <c r="U44" s="35">
         <f t="shared" si="19"/>
         <v>0.8850931677</v>
       </c>
@@ -3555,23 +3561,23 @@
       <c r="A45" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="42"/>
-      <c r="C45" s="38">
+      <c r="B45" s="44"/>
+      <c r="C45" s="40">
         <v>900.0</v>
       </c>
       <c r="D45" s="18">
         <v>10000.0</v>
       </c>
       <c r="E45" s="19"/>
-      <c r="F45" s="32">
+      <c r="F45" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="29">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H45" s="33">
+      <c r="H45" s="35">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3584,15 +3590,15 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L45" s="33">
+      <c r="L45" s="35">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M45" s="35">
+      <c r="M45" s="37">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N45" s="33">
+      <c r="N45" s="35">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -3604,15 +3610,15 @@
       <c r="R45" s="19">
         <v>0.61</v>
       </c>
-      <c r="S45" s="32" t="str">
+      <c r="S45" s="34" t="str">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T45" s="27">
+      <c r="T45" s="29">
         <f t="shared" si="11"/>
         <v>6.535714286</v>
       </c>
-      <c r="U45" s="33">
+      <c r="U45" s="35">
         <f t="shared" si="19"/>
         <v>0.007261904762</v>
       </c>
@@ -3626,27 +3632,27 @@
       <c r="A46" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="38">
+      <c r="B46" s="44"/>
+      <c r="C46" s="40">
         <v>150.0</v>
       </c>
       <c r="D46" s="18">
         <v>1100.0</v>
       </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="32">
+      <c r="E46" s="33"/>
+      <c r="F46" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G46" s="27">
+      <c r="G46" s="29">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H46" s="33">
+      <c r="H46" s="35">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="I46" s="38"/>
+      <c r="I46" s="40"/>
       <c r="J46" s="23">
         <f t="shared" si="23"/>
         <v>0</v>
@@ -3655,15 +3661,15 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L46" s="33">
+      <c r="L46" s="35">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M46" s="35">
+      <c r="M46" s="37">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N46" s="33">
+      <c r="N46" s="35">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -3672,16 +3678,16 @@
         <v>23</v>
       </c>
       <c r="Q46" s="1"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="32" t="str">
+      <c r="R46" s="33"/>
+      <c r="S46" s="34" t="str">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T46" s="27">
+      <c r="T46" s="29">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U46" s="33">
+      <c r="U46" s="35">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -3695,21 +3701,21 @@
       <c r="A47" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="38">
+      <c r="B47" s="44"/>
+      <c r="C47" s="40">
         <v>35.0</v>
       </c>
-      <c r="D47" s="44"/>
+      <c r="D47" s="46"/>
       <c r="E47" s="19"/>
-      <c r="F47" s="32">
+      <c r="F47" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G47" s="27">
+      <c r="G47" s="29">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H47" s="33">
+      <c r="H47" s="35">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3722,15 +3728,15 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L47" s="33">
+      <c r="L47" s="35">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M47" s="35">
+      <c r="M47" s="37">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N47" s="33">
+      <c r="N47" s="35">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -3740,15 +3746,15 @@
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="19"/>
-      <c r="S47" s="32" t="str">
+      <c r="S47" s="34" t="str">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T47" s="27">
+      <c r="T47" s="29">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U47" s="33">
+      <c r="U47" s="35">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -3762,23 +3768,23 @@
       <c r="A48" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B48" s="42"/>
-      <c r="C48" s="38">
+      <c r="B48" s="44"/>
+      <c r="C48" s="40">
         <v>45.0</v>
       </c>
-      <c r="D48" s="44">
+      <c r="D48" s="46">
         <v>2000.0</v>
       </c>
       <c r="E48" s="19"/>
-      <c r="F48" s="32">
+      <c r="F48" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G48" s="29">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H48" s="33">
+      <c r="H48" s="35">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3791,15 +3797,15 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L48" s="33">
+      <c r="L48" s="35">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M48" s="35">
+      <c r="M48" s="37">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N48" s="33">
+      <c r="N48" s="35">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -3809,15 +3815,15 @@
       </c>
       <c r="Q48" s="1"/>
       <c r="R48" s="19"/>
-      <c r="S48" s="32" t="str">
+      <c r="S48" s="34" t="str">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T48" s="27">
+      <c r="T48" s="29">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U48" s="33">
+      <c r="U48" s="35">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -3831,23 +3837,23 @@
       <c r="A49" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="42"/>
-      <c r="C49" s="38">
+      <c r="B49" s="44"/>
+      <c r="C49" s="40">
         <v>55.0</v>
       </c>
-      <c r="D49" s="44">
+      <c r="D49" s="46">
         <v>400.0</v>
       </c>
       <c r="E49" s="19"/>
-      <c r="F49" s="32">
+      <c r="F49" s="34">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="G49" s="27">
+      <c r="G49" s="29">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="H49" s="33">
+      <c r="H49" s="35">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
@@ -3860,15 +3866,15 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="L49" s="33">
+      <c r="L49" s="35">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M49" s="35">
+      <c r="M49" s="37">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N49" s="33">
+      <c r="N49" s="35">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
@@ -3880,15 +3886,15 @@
       <c r="R49" s="19">
         <v>0.72</v>
       </c>
-      <c r="S49" s="32" t="str">
+      <c r="S49" s="34" t="str">
         <f t="shared" si="28"/>
         <v>#VALUE!</v>
       </c>
-      <c r="T49" s="27">
+      <c r="T49" s="29">
         <f t="shared" si="11"/>
         <v>7.714285714</v>
       </c>
-      <c r="U49" s="33">
+      <c r="U49" s="35">
         <f t="shared" si="19"/>
         <v>0.1402597403</v>
       </c>
@@ -3899,45 +3905,45 @@
       <c r="Z49" s="1"/>
     </row>
     <row r="50" ht="41.25" customHeight="1">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="B50" s="46"/>
-      <c r="C50" s="47" t="s">
+      <c r="B50" s="48"/>
+      <c r="C50" s="49" t="s">
         <v>67</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="48" t="s">
+      <c r="E50" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="F50" s="32"/>
-      <c r="G50" s="27" t="s">
+      <c r="F50" s="34"/>
+      <c r="G50" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="H50" s="33"/>
-      <c r="I50" s="49" t="s">
+      <c r="H50" s="35"/>
+      <c r="I50" s="51" t="s">
         <v>71</v>
       </c>
       <c r="J50" s="23"/>
       <c r="K50" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="L50" s="33"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="33"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="37"/>
+      <c r="N50" s="35"/>
       <c r="O50" s="1"/>
-      <c r="P50" s="50"/>
+      <c r="P50" s="52"/>
       <c r="Q50" s="1"/>
-      <c r="R50" s="48" t="s">
+      <c r="R50" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="S50" s="32"/>
-      <c r="T50" s="27" t="s">
+      <c r="S50" s="34"/>
+      <c r="T50" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="U50" s="33" t="str">
+      <c r="U50" s="35" t="str">
         <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
@@ -3948,33 +3954,33 @@
       <c r="Z50" s="1"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="51" t="s">
+      <c r="A51" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="52"/>
-      <c r="C51" s="53">
+      <c r="B51" s="54"/>
+      <c r="C51" s="55">
         <v>1.8</v>
       </c>
       <c r="D51" s="15">
         <f t="shared" ref="D51:D59" si="29">C51/2</f>
         <v>0.9</v>
       </c>
-      <c r="E51" s="54">
+      <c r="E51" s="56">
         <v>1.888</v>
       </c>
-      <c r="F51" s="32">
+      <c r="F51" s="34">
         <f t="shared" ref="F51:F59" si="30">E51/D51</f>
         <v>2.097777778</v>
       </c>
-      <c r="G51" s="27">
+      <c r="G51" s="29">
         <f t="shared" ref="G51:G59" si="31">E51*$G$5/100</f>
-        <v>0.9386057143</v>
-      </c>
-      <c r="H51" s="33">
+        <v>0.4315428571</v>
+      </c>
+      <c r="H51" s="35">
         <f t="shared" ref="H51:H59" si="32">G51/D51</f>
-        <v>1.042895238</v>
-      </c>
-      <c r="I51" s="53">
+        <v>0.4794920635</v>
+      </c>
+      <c r="I51" s="55">
         <v>3.3</v>
       </c>
       <c r="J51" s="23">
@@ -3983,35 +3989,35 @@
       </c>
       <c r="K51" s="15">
         <f t="shared" ref="K51:K59" si="34">I51*$K$5/100</f>
-        <v>0.9428571429</v>
-      </c>
-      <c r="L51" s="33">
+        <v>0.3771428571</v>
+      </c>
+      <c r="L51" s="35">
         <f t="shared" ref="L51:L59" si="35">K51/D51</f>
-        <v>1.047619048</v>
-      </c>
-      <c r="M51" s="35">
+        <v>0.419047619</v>
+      </c>
+      <c r="M51" s="37">
         <f t="shared" ref="M51:M59" si="36">G51+K51</f>
-        <v>1.881462857</v>
-      </c>
-      <c r="N51" s="33">
+        <v>0.8086857143</v>
+      </c>
+      <c r="N51" s="35">
         <f t="shared" ref="N51:N59" si="37">M51/D51</f>
-        <v>2.090514286</v>
+        <v>0.8985396825</v>
       </c>
       <c r="O51" s="1"/>
-      <c r="P51" s="55" t="s">
+      <c r="P51" s="57" t="s">
         <v>13</v>
       </c>
       <c r="Q51" s="1"/>
-      <c r="R51" s="54"/>
-      <c r="S51" s="32" t="str">
+      <c r="R51" s="56"/>
+      <c r="S51" s="34" t="str">
         <f t="shared" ref="S51:S59" si="38">R51/Q51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T51" s="27">
+      <c r="T51" s="29">
         <f t="shared" ref="T51:T59" si="39">R51*$G$5/100</f>
         <v>0</v>
       </c>
-      <c r="U51" s="33">
+      <c r="U51" s="35">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4022,33 +4028,33 @@
       <c r="Z51" s="1"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="56" t="s">
+      <c r="A52" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="57"/>
-      <c r="C52" s="53">
+      <c r="B52" s="59"/>
+      <c r="C52" s="55">
         <v>2.5</v>
       </c>
       <c r="D52" s="15">
         <f t="shared" si="29"/>
         <v>1.25</v>
       </c>
-      <c r="E52" s="58">
+      <c r="E52" s="60">
         <v>5.584</v>
       </c>
-      <c r="F52" s="32">
+      <c r="F52" s="34">
         <f t="shared" si="30"/>
         <v>4.4672</v>
       </c>
-      <c r="G52" s="27">
+      <c r="G52" s="29">
         <f t="shared" si="31"/>
-        <v>2.776045714</v>
-      </c>
-      <c r="H52" s="33">
+        <v>1.276342857</v>
+      </c>
+      <c r="H52" s="35">
         <f t="shared" si="32"/>
-        <v>2.220836571</v>
-      </c>
-      <c r="I52" s="53">
+        <v>1.021074286</v>
+      </c>
+      <c r="I52" s="55">
         <v>3.5</v>
       </c>
       <c r="J52" s="23">
@@ -4057,35 +4063,35 @@
       </c>
       <c r="K52" s="15">
         <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="L52" s="33">
+        <v>0.4</v>
+      </c>
+      <c r="L52" s="35">
         <f t="shared" si="35"/>
-        <v>0.8</v>
-      </c>
-      <c r="M52" s="35">
+        <v>0.32</v>
+      </c>
+      <c r="M52" s="37">
         <f t="shared" si="36"/>
-        <v>3.776045714</v>
-      </c>
-      <c r="N52" s="33">
+        <v>1.676342857</v>
+      </c>
+      <c r="N52" s="35">
         <f t="shared" si="37"/>
-        <v>3.020836571</v>
+        <v>1.341074286</v>
       </c>
       <c r="O52" s="1"/>
-      <c r="P52" s="55" t="s">
+      <c r="P52" s="57" t="s">
         <v>13</v>
       </c>
       <c r="Q52" s="1"/>
-      <c r="R52" s="58"/>
-      <c r="S52" s="32" t="str">
+      <c r="R52" s="60"/>
+      <c r="S52" s="34" t="str">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T52" s="27">
+      <c r="T52" s="29">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="U52" s="33">
+      <c r="U52" s="35">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4096,33 +4102,33 @@
       <c r="Z52" s="1"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="B53" s="57"/>
-      <c r="C53" s="53">
+      <c r="B53" s="59"/>
+      <c r="C53" s="55">
         <v>5.5</v>
       </c>
       <c r="D53" s="15">
         <f t="shared" si="29"/>
         <v>2.75</v>
       </c>
-      <c r="E53" s="58">
+      <c r="E53" s="60">
         <v>8.608</v>
       </c>
-      <c r="F53" s="32">
+      <c r="F53" s="34">
         <f t="shared" si="30"/>
         <v>3.130181818</v>
       </c>
-      <c r="G53" s="27">
+      <c r="G53" s="29">
         <f t="shared" si="31"/>
-        <v>4.279405714</v>
-      </c>
-      <c r="H53" s="33">
+        <v>1.967542857</v>
+      </c>
+      <c r="H53" s="35">
         <f t="shared" si="32"/>
-        <v>1.556147532</v>
-      </c>
-      <c r="I53" s="59">
+        <v>0.7154701299</v>
+      </c>
+      <c r="I53" s="61">
         <v>6.1</v>
       </c>
       <c r="J53" s="23">
@@ -4131,35 +4137,35 @@
       </c>
       <c r="K53" s="15">
         <f t="shared" si="34"/>
-        <v>1.742857143</v>
-      </c>
-      <c r="L53" s="33">
+        <v>0.6971428571</v>
+      </c>
+      <c r="L53" s="35">
         <f t="shared" si="35"/>
-        <v>0.6337662338</v>
-      </c>
-      <c r="M53" s="35">
+        <v>0.2535064935</v>
+      </c>
+      <c r="M53" s="37">
         <f t="shared" si="36"/>
-        <v>6.022262857</v>
-      </c>
-      <c r="N53" s="33">
+        <v>2.664685714</v>
+      </c>
+      <c r="N53" s="35">
         <f t="shared" si="37"/>
-        <v>2.189913766</v>
+        <v>0.9689766234</v>
       </c>
       <c r="O53" s="1"/>
-      <c r="P53" s="55" t="s">
+      <c r="P53" s="57" t="s">
         <v>13</v>
       </c>
       <c r="Q53" s="1"/>
-      <c r="R53" s="58"/>
-      <c r="S53" s="32" t="str">
+      <c r="R53" s="60"/>
+      <c r="S53" s="34" t="str">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T53" s="27">
+      <c r="T53" s="29">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="U53" s="33">
+      <c r="U53" s="35">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4170,33 +4176,33 @@
       <c r="Z53" s="1"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="56" t="s">
+      <c r="A54" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="B54" s="57"/>
-      <c r="C54" s="53">
+      <c r="B54" s="59"/>
+      <c r="C54" s="55">
         <v>5.1</v>
       </c>
       <c r="D54" s="15">
         <f t="shared" si="29"/>
         <v>2.55</v>
       </c>
-      <c r="E54" s="54">
+      <c r="E54" s="56">
         <v>5.264</v>
       </c>
-      <c r="F54" s="32">
+      <c r="F54" s="34">
         <f t="shared" si="30"/>
         <v>2.064313725</v>
       </c>
-      <c r="G54" s="27">
+      <c r="G54" s="29">
         <f t="shared" si="31"/>
-        <v>2.61696</v>
-      </c>
-      <c r="H54" s="33">
+        <v>1.2032</v>
+      </c>
+      <c r="H54" s="35">
         <f t="shared" si="32"/>
-        <v>1.026258824</v>
-      </c>
-      <c r="I54" s="53">
+        <v>0.4718431373</v>
+      </c>
+      <c r="I54" s="55">
         <v>10.2</v>
       </c>
       <c r="J54" s="23">
@@ -4205,35 +4211,35 @@
       </c>
       <c r="K54" s="15">
         <f t="shared" si="34"/>
-        <v>2.914285714</v>
-      </c>
-      <c r="L54" s="33">
+        <v>1.165714286</v>
+      </c>
+      <c r="L54" s="35">
         <f t="shared" si="35"/>
-        <v>1.142857143</v>
-      </c>
-      <c r="M54" s="35">
+        <v>0.4571428571</v>
+      </c>
+      <c r="M54" s="37">
         <f t="shared" si="36"/>
-        <v>5.531245714</v>
-      </c>
-      <c r="N54" s="33">
+        <v>2.368914286</v>
+      </c>
+      <c r="N54" s="35">
         <f t="shared" si="37"/>
-        <v>2.169115966</v>
+        <v>0.9289859944</v>
       </c>
       <c r="O54" s="1"/>
-      <c r="P54" s="55" t="s">
+      <c r="P54" s="57" t="s">
         <v>13</v>
       </c>
       <c r="Q54" s="1"/>
-      <c r="R54" s="54"/>
-      <c r="S54" s="32" t="str">
+      <c r="R54" s="56"/>
+      <c r="S54" s="34" t="str">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T54" s="27">
+      <c r="T54" s="29">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="U54" s="33">
+      <c r="U54" s="35">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4244,33 +4250,33 @@
       <c r="Z54" s="1"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="B55" s="57"/>
-      <c r="C55" s="53">
+      <c r="B55" s="59"/>
+      <c r="C55" s="55">
         <v>2.5</v>
       </c>
       <c r="D55" s="15">
         <f t="shared" si="29"/>
         <v>1.25</v>
       </c>
-      <c r="E55" s="58">
+      <c r="E55" s="60">
         <v>3.151</v>
       </c>
-      <c r="F55" s="32">
+      <c r="F55" s="34">
         <f t="shared" si="30"/>
         <v>2.5208</v>
       </c>
-      <c r="G55" s="27">
+      <c r="G55" s="29">
         <f t="shared" si="31"/>
-        <v>1.566497143</v>
-      </c>
-      <c r="H55" s="33">
+        <v>0.7202285714</v>
+      </c>
+      <c r="H55" s="35">
         <f t="shared" si="32"/>
-        <v>1.253197714</v>
-      </c>
-      <c r="I55" s="61">
+        <v>0.5761828571</v>
+      </c>
+      <c r="I55" s="63">
         <v>1.6</v>
       </c>
       <c r="J55" s="23">
@@ -4279,35 +4285,35 @@
       </c>
       <c r="K55" s="15">
         <f t="shared" si="34"/>
-        <v>0.4571428571</v>
-      </c>
-      <c r="L55" s="33">
+        <v>0.1828571429</v>
+      </c>
+      <c r="L55" s="35">
         <f t="shared" si="35"/>
-        <v>0.3657142857</v>
-      </c>
-      <c r="M55" s="35">
+        <v>0.1462857143</v>
+      </c>
+      <c r="M55" s="37">
         <f t="shared" si="36"/>
-        <v>2.02364</v>
-      </c>
-      <c r="N55" s="33">
+        <v>0.9030857143</v>
+      </c>
+      <c r="N55" s="35">
         <f t="shared" si="37"/>
-        <v>1.618912</v>
+        <v>0.7224685714</v>
       </c>
       <c r="O55" s="1"/>
-      <c r="P55" s="55" t="s">
+      <c r="P55" s="57" t="s">
         <v>13</v>
       </c>
       <c r="Q55" s="1"/>
-      <c r="R55" s="58"/>
-      <c r="S55" s="32" t="str">
+      <c r="R55" s="60"/>
+      <c r="S55" s="34" t="str">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T55" s="27">
+      <c r="T55" s="29">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="U55" s="33">
+      <c r="U55" s="35">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4318,33 +4324,33 @@
       <c r="Z55" s="1"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="B56" s="57"/>
-      <c r="C56" s="53">
+      <c r="B56" s="59"/>
+      <c r="C56" s="55">
         <v>4.7</v>
       </c>
       <c r="D56" s="15">
         <f t="shared" si="29"/>
         <v>2.35</v>
       </c>
-      <c r="E56" s="58">
+      <c r="E56" s="60">
         <v>9.328</v>
       </c>
-      <c r="F56" s="32">
+      <c r="F56" s="34">
         <f t="shared" si="30"/>
         <v>3.969361702</v>
       </c>
-      <c r="G56" s="27">
+      <c r="G56" s="29">
         <f t="shared" si="31"/>
-        <v>4.637348571</v>
-      </c>
-      <c r="H56" s="33">
+        <v>2.132114286</v>
+      </c>
+      <c r="H56" s="35">
         <f t="shared" si="32"/>
-        <v>1.973339818</v>
-      </c>
-      <c r="I56" s="53">
+        <v>0.9072826748</v>
+      </c>
+      <c r="I56" s="55">
         <v>5.6</v>
       </c>
       <c r="J56" s="23">
@@ -4353,35 +4359,35 @@
       </c>
       <c r="K56" s="15">
         <f t="shared" si="34"/>
-        <v>1.6</v>
-      </c>
-      <c r="L56" s="33">
+        <v>0.64</v>
+      </c>
+      <c r="L56" s="35">
         <f t="shared" si="35"/>
-        <v>0.6808510638</v>
-      </c>
-      <c r="M56" s="35">
+        <v>0.2723404255</v>
+      </c>
+      <c r="M56" s="37">
         <f t="shared" si="36"/>
-        <v>6.237348571</v>
-      </c>
-      <c r="N56" s="33">
+        <v>2.772114286</v>
+      </c>
+      <c r="N56" s="35">
         <f t="shared" si="37"/>
-        <v>2.654190881</v>
+        <v>1.1796231</v>
       </c>
       <c r="O56" s="1"/>
-      <c r="P56" s="55" t="s">
+      <c r="P56" s="57" t="s">
         <v>13</v>
       </c>
       <c r="Q56" s="1"/>
-      <c r="R56" s="58"/>
-      <c r="S56" s="32" t="str">
+      <c r="R56" s="60"/>
+      <c r="S56" s="34" t="str">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T56" s="27">
+      <c r="T56" s="29">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="U56" s="33">
+      <c r="U56" s="35">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4392,33 +4398,33 @@
       <c r="Z56" s="1"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="56" t="s">
+      <c r="A57" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="B57" s="57"/>
-      <c r="C57" s="53">
+      <c r="B57" s="59"/>
+      <c r="C57" s="55">
         <v>2.7</v>
       </c>
       <c r="D57" s="15">
         <f t="shared" si="29"/>
         <v>1.35</v>
       </c>
-      <c r="E57" s="58">
+      <c r="E57" s="60">
         <v>5.168</v>
       </c>
-      <c r="F57" s="32">
+      <c r="F57" s="34">
         <f t="shared" si="30"/>
         <v>3.828148148</v>
       </c>
-      <c r="G57" s="27">
+      <c r="G57" s="29">
         <f t="shared" si="31"/>
-        <v>2.569234286</v>
-      </c>
-      <c r="H57" s="33">
+        <v>1.181257143</v>
+      </c>
+      <c r="H57" s="35">
         <f t="shared" si="32"/>
-        <v>1.903136508</v>
-      </c>
-      <c r="I57" s="53">
+        <v>0.875005291</v>
+      </c>
+      <c r="I57" s="55">
         <v>2.9</v>
       </c>
       <c r="J57" s="23">
@@ -4427,35 +4433,35 @@
       </c>
       <c r="K57" s="15">
         <f t="shared" si="34"/>
-        <v>0.8285714286</v>
-      </c>
-      <c r="L57" s="33">
+        <v>0.3314285714</v>
+      </c>
+      <c r="L57" s="35">
         <f t="shared" si="35"/>
-        <v>0.6137566138</v>
-      </c>
-      <c r="M57" s="35">
+        <v>0.2455026455</v>
+      </c>
+      <c r="M57" s="37">
         <f t="shared" si="36"/>
-        <v>3.397805714</v>
-      </c>
-      <c r="N57" s="33">
+        <v>1.512685714</v>
+      </c>
+      <c r="N57" s="35">
         <f t="shared" si="37"/>
-        <v>2.516893122</v>
+        <v>1.120507937</v>
       </c>
       <c r="O57" s="1"/>
-      <c r="P57" s="55" t="s">
+      <c r="P57" s="57" t="s">
         <v>13</v>
       </c>
       <c r="Q57" s="1"/>
-      <c r="R57" s="58"/>
-      <c r="S57" s="32" t="str">
+      <c r="R57" s="60"/>
+      <c r="S57" s="34" t="str">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T57" s="27">
+      <c r="T57" s="29">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="U57" s="33">
+      <c r="U57" s="35">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4466,33 +4472,33 @@
       <c r="Z57" s="1"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="56" t="s">
+      <c r="A58" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="B58" s="57"/>
-      <c r="C58" s="53">
+      <c r="B58" s="59"/>
+      <c r="C58" s="55">
         <v>0.7</v>
       </c>
       <c r="D58" s="15">
         <f t="shared" si="29"/>
         <v>0.35</v>
       </c>
-      <c r="E58" s="58">
+      <c r="E58" s="60">
         <v>1.616</v>
       </c>
-      <c r="F58" s="32">
+      <c r="F58" s="34">
         <f t="shared" si="30"/>
         <v>4.617142857</v>
       </c>
-      <c r="G58" s="27">
+      <c r="G58" s="29">
         <f t="shared" si="31"/>
-        <v>0.8033828571</v>
-      </c>
-      <c r="H58" s="33">
+        <v>0.3693714286</v>
+      </c>
+      <c r="H58" s="35">
         <f t="shared" si="32"/>
-        <v>2.295379592</v>
-      </c>
-      <c r="I58" s="53">
+        <v>1.055346939</v>
+      </c>
+      <c r="I58" s="55">
         <v>2.1</v>
       </c>
       <c r="J58" s="23">
@@ -4501,35 +4507,35 @@
       </c>
       <c r="K58" s="15">
         <f t="shared" si="34"/>
-        <v>0.6</v>
-      </c>
-      <c r="L58" s="33">
+        <v>0.24</v>
+      </c>
+      <c r="L58" s="35">
         <f t="shared" si="35"/>
-        <v>1.714285714</v>
-      </c>
-      <c r="M58" s="35">
+        <v>0.6857142857</v>
+      </c>
+      <c r="M58" s="37">
         <f t="shared" si="36"/>
-        <v>1.403382857</v>
-      </c>
-      <c r="N58" s="33">
+        <v>0.6093714286</v>
+      </c>
+      <c r="N58" s="35">
         <f t="shared" si="37"/>
-        <v>4.009665306</v>
+        <v>1.741061224</v>
       </c>
       <c r="O58" s="1"/>
-      <c r="P58" s="55" t="s">
+      <c r="P58" s="57" t="s">
         <v>13</v>
       </c>
       <c r="Q58" s="1"/>
-      <c r="R58" s="58"/>
-      <c r="S58" s="32" t="str">
+      <c r="R58" s="60"/>
+      <c r="S58" s="34" t="str">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T58" s="27">
+      <c r="T58" s="29">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="U58" s="33">
+      <c r="U58" s="35">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4540,33 +4546,33 @@
       <c r="Z58" s="1"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="B59" s="57"/>
-      <c r="C59" s="53">
+      <c r="B59" s="59"/>
+      <c r="C59" s="55">
         <v>3.2</v>
       </c>
       <c r="D59" s="15">
         <f t="shared" si="29"/>
         <v>1.6</v>
       </c>
-      <c r="E59" s="58">
+      <c r="E59" s="60">
         <v>6.111</v>
       </c>
-      <c r="F59" s="32">
+      <c r="F59" s="34">
         <f t="shared" si="30"/>
         <v>3.819375</v>
       </c>
-      <c r="G59" s="27">
+      <c r="G59" s="29">
         <f t="shared" si="31"/>
-        <v>3.03804</v>
-      </c>
-      <c r="H59" s="33">
+        <v>1.3968</v>
+      </c>
+      <c r="H59" s="35">
         <f t="shared" si="32"/>
-        <v>1.898775</v>
-      </c>
-      <c r="I59" s="53">
+        <v>0.873</v>
+      </c>
+      <c r="I59" s="55">
         <v>5.5</v>
       </c>
       <c r="J59" s="23">
@@ -4575,35 +4581,35 @@
       </c>
       <c r="K59" s="15">
         <f t="shared" si="34"/>
-        <v>1.571428571</v>
-      </c>
-      <c r="L59" s="33">
+        <v>0.6285714286</v>
+      </c>
+      <c r="L59" s="35">
         <f t="shared" si="35"/>
-        <v>0.9821428571</v>
-      </c>
-      <c r="M59" s="35">
+        <v>0.3928571429</v>
+      </c>
+      <c r="M59" s="37">
         <f t="shared" si="36"/>
-        <v>4.609468571</v>
-      </c>
-      <c r="N59" s="33">
+        <v>2.025371429</v>
+      </c>
+      <c r="N59" s="35">
         <f t="shared" si="37"/>
-        <v>2.880917857</v>
+        <v>1.265857143</v>
       </c>
       <c r="O59" s="1"/>
-      <c r="P59" s="55" t="s">
+      <c r="P59" s="57" t="s">
         <v>13</v>
       </c>
       <c r="Q59" s="1"/>
-      <c r="R59" s="58"/>
-      <c r="S59" s="32" t="str">
+      <c r="R59" s="60"/>
+      <c r="S59" s="34" t="str">
         <f t="shared" si="38"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T59" s="27">
+      <c r="T59" s="29">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="U59" s="33">
+      <c r="U59" s="35">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
@@ -4614,456 +4620,456 @@
       <c r="Z59" s="1"/>
     </row>
     <row r="60" ht="15.0" customHeight="1">
-      <c r="A60" s="62"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="62"/>
-      <c r="K60" s="62"/>
-      <c r="L60" s="62"/>
-      <c r="M60" s="62"/>
-      <c r="N60" s="62"/>
-      <c r="O60" s="62"/>
-      <c r="P60" s="62"/>
-      <c r="Q60" s="62"/>
-      <c r="R60" s="62"/>
-      <c r="S60" s="62"/>
-      <c r="T60" s="62"/>
-      <c r="U60" s="62"/>
-      <c r="V60" s="62"/>
-      <c r="W60" s="62"/>
-      <c r="X60" s="62"/>
-      <c r="Y60" s="62"/>
-      <c r="Z60" s="62"/>
+      <c r="A60" s="64"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
+      <c r="I60" s="64"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="64"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
+      <c r="N60" s="64"/>
+      <c r="O60" s="64"/>
+      <c r="P60" s="64"/>
+      <c r="Q60" s="64"/>
+      <c r="R60" s="64"/>
+      <c r="S60" s="64"/>
+      <c r="T60" s="64"/>
+      <c r="U60" s="64"/>
+      <c r="V60" s="64"/>
+      <c r="W60" s="64"/>
+      <c r="X60" s="64"/>
+      <c r="Y60" s="64"/>
+      <c r="Z60" s="64"/>
     </row>
     <row r="61" ht="15.0" customHeight="1">
-      <c r="A61" s="62"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="62"/>
-      <c r="L61" s="62"/>
-      <c r="M61" s="62"/>
-      <c r="N61" s="62"/>
-      <c r="O61" s="62"/>
-      <c r="P61" s="62"/>
-      <c r="Q61" s="62"/>
-      <c r="R61" s="62"/>
-      <c r="S61" s="62"/>
-      <c r="T61" s="62"/>
-      <c r="U61" s="62"/>
-      <c r="V61" s="62"/>
-      <c r="W61" s="62"/>
-      <c r="X61" s="62"/>
-      <c r="Y61" s="62"/>
-      <c r="Z61" s="62"/>
+      <c r="A61" s="64"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="64"/>
+      <c r="E61" s="64"/>
+      <c r="F61" s="64"/>
+      <c r="G61" s="64"/>
+      <c r="H61" s="64"/>
+      <c r="I61" s="64"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="64"/>
+      <c r="L61" s="64"/>
+      <c r="M61" s="64"/>
+      <c r="N61" s="64"/>
+      <c r="O61" s="64"/>
+      <c r="P61" s="64"/>
+      <c r="Q61" s="64"/>
+      <c r="R61" s="64"/>
+      <c r="S61" s="64"/>
+      <c r="T61" s="64"/>
+      <c r="U61" s="64"/>
+      <c r="V61" s="64"/>
+      <c r="W61" s="64"/>
+      <c r="X61" s="64"/>
+      <c r="Y61" s="64"/>
+      <c r="Z61" s="64"/>
     </row>
     <row r="62" ht="15.0" customHeight="1">
-      <c r="A62" s="62"/>
-      <c r="B62" s="62"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="62"/>
-      <c r="H62" s="62"/>
-      <c r="I62" s="62"/>
-      <c r="J62" s="62"/>
-      <c r="K62" s="62"/>
-      <c r="L62" s="62"/>
-      <c r="M62" s="62"/>
-      <c r="N62" s="62"/>
-      <c r="O62" s="62"/>
-      <c r="P62" s="62"/>
-      <c r="Q62" s="62"/>
-      <c r="R62" s="62"/>
-      <c r="S62" s="62"/>
-      <c r="T62" s="62"/>
-      <c r="U62" s="62"/>
-      <c r="V62" s="62"/>
-      <c r="W62" s="62"/>
-      <c r="X62" s="62"/>
-      <c r="Y62" s="62"/>
-      <c r="Z62" s="62"/>
+      <c r="A62" s="64"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
+      <c r="I62" s="64"/>
+      <c r="J62" s="64"/>
+      <c r="K62" s="64"/>
+      <c r="L62" s="64"/>
+      <c r="M62" s="64"/>
+      <c r="N62" s="64"/>
+      <c r="O62" s="64"/>
+      <c r="P62" s="64"/>
+      <c r="Q62" s="64"/>
+      <c r="R62" s="64"/>
+      <c r="S62" s="64"/>
+      <c r="T62" s="64"/>
+      <c r="U62" s="64"/>
+      <c r="V62" s="64"/>
+      <c r="W62" s="64"/>
+      <c r="X62" s="64"/>
+      <c r="Y62" s="64"/>
+      <c r="Z62" s="64"/>
     </row>
     <row r="63" ht="15.0" customHeight="1">
-      <c r="A63" s="62"/>
-      <c r="B63" s="62"/>
-      <c r="C63" s="62"/>
-      <c r="D63" s="62"/>
-      <c r="E63" s="62"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="62"/>
-      <c r="N63" s="62"/>
-      <c r="O63" s="62"/>
-      <c r="P63" s="62"/>
-      <c r="Q63" s="62"/>
-      <c r="R63" s="62"/>
-      <c r="S63" s="62"/>
-      <c r="T63" s="62"/>
-      <c r="U63" s="62"/>
-      <c r="V63" s="62"/>
-      <c r="W63" s="62"/>
-      <c r="X63" s="62"/>
-      <c r="Y63" s="62"/>
-      <c r="Z63" s="62"/>
+      <c r="A63" s="64"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="64"/>
+      <c r="E63" s="64"/>
+      <c r="F63" s="64"/>
+      <c r="G63" s="64"/>
+      <c r="H63" s="64"/>
+      <c r="I63" s="64"/>
+      <c r="J63" s="64"/>
+      <c r="K63" s="64"/>
+      <c r="L63" s="64"/>
+      <c r="M63" s="64"/>
+      <c r="N63" s="64"/>
+      <c r="O63" s="64"/>
+      <c r="P63" s="64"/>
+      <c r="Q63" s="64"/>
+      <c r="R63" s="64"/>
+      <c r="S63" s="64"/>
+      <c r="T63" s="64"/>
+      <c r="U63" s="64"/>
+      <c r="V63" s="64"/>
+      <c r="W63" s="64"/>
+      <c r="X63" s="64"/>
+      <c r="Y63" s="64"/>
+      <c r="Z63" s="64"/>
     </row>
     <row r="64" ht="15.0" customHeight="1">
-      <c r="A64" s="62"/>
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="62"/>
-      <c r="I64" s="62"/>
-      <c r="J64" s="62"/>
-      <c r="K64" s="62"/>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="62"/>
-      <c r="Q64" s="62"/>
-      <c r="R64" s="62"/>
-      <c r="S64" s="62"/>
-      <c r="T64" s="62"/>
-      <c r="U64" s="62"/>
-      <c r="V64" s="62"/>
-      <c r="W64" s="62"/>
-      <c r="X64" s="62"/>
-      <c r="Y64" s="62"/>
-      <c r="Z64" s="62"/>
+      <c r="A64" s="64"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
+      <c r="I64" s="64"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="64"/>
+      <c r="L64" s="64"/>
+      <c r="M64" s="64"/>
+      <c r="N64" s="64"/>
+      <c r="O64" s="64"/>
+      <c r="P64" s="64"/>
+      <c r="Q64" s="64"/>
+      <c r="R64" s="64"/>
+      <c r="S64" s="64"/>
+      <c r="T64" s="64"/>
+      <c r="U64" s="64"/>
+      <c r="V64" s="64"/>
+      <c r="W64" s="64"/>
+      <c r="X64" s="64"/>
+      <c r="Y64" s="64"/>
+      <c r="Z64" s="64"/>
     </row>
     <row r="65" ht="15.0" customHeight="1">
-      <c r="A65" s="62"/>
-      <c r="B65" s="62"/>
-      <c r="C65" s="62"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="62"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="62"/>
-      <c r="K65" s="62"/>
-      <c r="L65" s="62"/>
-      <c r="M65" s="62"/>
-      <c r="N65" s="62"/>
-      <c r="O65" s="62"/>
-      <c r="P65" s="62"/>
-      <c r="Q65" s="62"/>
-      <c r="R65" s="62"/>
-      <c r="S65" s="62"/>
-      <c r="T65" s="62"/>
-      <c r="U65" s="62"/>
-      <c r="V65" s="62"/>
-      <c r="W65" s="62"/>
-      <c r="X65" s="62"/>
-      <c r="Y65" s="62"/>
-      <c r="Z65" s="62"/>
+      <c r="A65" s="64"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="64"/>
+      <c r="E65" s="64"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="64"/>
+      <c r="I65" s="64"/>
+      <c r="J65" s="64"/>
+      <c r="K65" s="64"/>
+      <c r="L65" s="64"/>
+      <c r="M65" s="64"/>
+      <c r="N65" s="64"/>
+      <c r="O65" s="64"/>
+      <c r="P65" s="64"/>
+      <c r="Q65" s="64"/>
+      <c r="R65" s="64"/>
+      <c r="S65" s="64"/>
+      <c r="T65" s="64"/>
+      <c r="U65" s="64"/>
+      <c r="V65" s="64"/>
+      <c r="W65" s="64"/>
+      <c r="X65" s="64"/>
+      <c r="Y65" s="64"/>
+      <c r="Z65" s="64"/>
     </row>
     <row r="66" ht="15.0" customHeight="1">
-      <c r="A66" s="62"/>
-      <c r="B66" s="62"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="62"/>
-      <c r="H66" s="62"/>
-      <c r="I66" s="62"/>
-      <c r="J66" s="62"/>
-      <c r="K66" s="62"/>
-      <c r="L66" s="62"/>
-      <c r="M66" s="62"/>
-      <c r="N66" s="62"/>
-      <c r="O66" s="62"/>
-      <c r="P66" s="62"/>
-      <c r="Q66" s="62"/>
-      <c r="R66" s="62"/>
-      <c r="S66" s="62"/>
-      <c r="T66" s="62"/>
-      <c r="U66" s="62"/>
-      <c r="V66" s="62"/>
-      <c r="W66" s="62"/>
-      <c r="X66" s="62"/>
-      <c r="Y66" s="62"/>
-      <c r="Z66" s="62"/>
+      <c r="A66" s="64"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
+      <c r="I66" s="64"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="64"/>
+      <c r="L66" s="64"/>
+      <c r="M66" s="64"/>
+      <c r="N66" s="64"/>
+      <c r="O66" s="64"/>
+      <c r="P66" s="64"/>
+      <c r="Q66" s="64"/>
+      <c r="R66" s="64"/>
+      <c r="S66" s="64"/>
+      <c r="T66" s="64"/>
+      <c r="U66" s="64"/>
+      <c r="V66" s="64"/>
+      <c r="W66" s="64"/>
+      <c r="X66" s="64"/>
+      <c r="Y66" s="64"/>
+      <c r="Z66" s="64"/>
     </row>
     <row r="67" ht="15.0" customHeight="1">
-      <c r="A67" s="62"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="62"/>
-      <c r="L67" s="62"/>
-      <c r="M67" s="62"/>
-      <c r="N67" s="62"/>
-      <c r="O67" s="62"/>
-      <c r="P67" s="62"/>
-      <c r="Q67" s="62"/>
-      <c r="R67" s="62"/>
-      <c r="S67" s="62"/>
-      <c r="T67" s="62"/>
-      <c r="U67" s="62"/>
-      <c r="V67" s="62"/>
-      <c r="W67" s="62"/>
-      <c r="X67" s="62"/>
-      <c r="Y67" s="62"/>
-      <c r="Z67" s="62"/>
+      <c r="A67" s="64"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="64"/>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="64"/>
+      <c r="I67" s="64"/>
+      <c r="J67" s="64"/>
+      <c r="K67" s="64"/>
+      <c r="L67" s="64"/>
+      <c r="M67" s="64"/>
+      <c r="N67" s="64"/>
+      <c r="O67" s="64"/>
+      <c r="P67" s="64"/>
+      <c r="Q67" s="64"/>
+      <c r="R67" s="64"/>
+      <c r="S67" s="64"/>
+      <c r="T67" s="64"/>
+      <c r="U67" s="64"/>
+      <c r="V67" s="64"/>
+      <c r="W67" s="64"/>
+      <c r="X67" s="64"/>
+      <c r="Y67" s="64"/>
+      <c r="Z67" s="64"/>
     </row>
     <row r="68" ht="15.0" customHeight="1">
-      <c r="A68" s="62"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="62"/>
-      <c r="H68" s="62"/>
-      <c r="I68" s="62"/>
-      <c r="J68" s="62"/>
-      <c r="K68" s="62"/>
-      <c r="L68" s="62"/>
-      <c r="M68" s="62"/>
-      <c r="N68" s="62"/>
-      <c r="O68" s="62"/>
-      <c r="P68" s="62"/>
-      <c r="Q68" s="62"/>
-      <c r="R68" s="62"/>
-      <c r="S68" s="62"/>
-      <c r="T68" s="62"/>
-      <c r="U68" s="62"/>
-      <c r="V68" s="62"/>
-      <c r="W68" s="62"/>
-      <c r="X68" s="62"/>
-      <c r="Y68" s="62"/>
-      <c r="Z68" s="62"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
+      <c r="I68" s="64"/>
+      <c r="J68" s="64"/>
+      <c r="K68" s="64"/>
+      <c r="L68" s="64"/>
+      <c r="M68" s="64"/>
+      <c r="N68" s="64"/>
+      <c r="O68" s="64"/>
+      <c r="P68" s="64"/>
+      <c r="Q68" s="64"/>
+      <c r="R68" s="64"/>
+      <c r="S68" s="64"/>
+      <c r="T68" s="64"/>
+      <c r="U68" s="64"/>
+      <c r="V68" s="64"/>
+      <c r="W68" s="64"/>
+      <c r="X68" s="64"/>
+      <c r="Y68" s="64"/>
+      <c r="Z68" s="64"/>
     </row>
     <row r="69" ht="15.0" customHeight="1">
-      <c r="A69" s="62"/>
-      <c r="B69" s="62"/>
-      <c r="C69" s="62"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="62"/>
-      <c r="F69" s="62"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
-      <c r="K69" s="62"/>
-      <c r="L69" s="62"/>
-      <c r="M69" s="62"/>
-      <c r="N69" s="62"/>
-      <c r="O69" s="62"/>
-      <c r="P69" s="62"/>
-      <c r="Q69" s="62"/>
-      <c r="R69" s="62"/>
-      <c r="S69" s="62"/>
-      <c r="T69" s="62"/>
-      <c r="U69" s="62"/>
-      <c r="V69" s="62"/>
-      <c r="W69" s="62"/>
-      <c r="X69" s="62"/>
-      <c r="Y69" s="62"/>
-      <c r="Z69" s="62"/>
+      <c r="A69" s="64"/>
+      <c r="B69" s="64"/>
+      <c r="C69" s="64"/>
+      <c r="D69" s="64"/>
+      <c r="E69" s="64"/>
+      <c r="F69" s="64"/>
+      <c r="G69" s="64"/>
+      <c r="H69" s="64"/>
+      <c r="I69" s="64"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="64"/>
+      <c r="L69" s="64"/>
+      <c r="M69" s="64"/>
+      <c r="N69" s="64"/>
+      <c r="O69" s="64"/>
+      <c r="P69" s="64"/>
+      <c r="Q69" s="64"/>
+      <c r="R69" s="64"/>
+      <c r="S69" s="64"/>
+      <c r="T69" s="64"/>
+      <c r="U69" s="64"/>
+      <c r="V69" s="64"/>
+      <c r="W69" s="64"/>
+      <c r="X69" s="64"/>
+      <c r="Y69" s="64"/>
+      <c r="Z69" s="64"/>
     </row>
     <row r="70" ht="15.0" customHeight="1">
-      <c r="A70" s="62"/>
-      <c r="B70" s="62"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="62"/>
-      <c r="I70" s="62"/>
-      <c r="J70" s="62"/>
-      <c r="K70" s="62"/>
-      <c r="L70" s="62"/>
-      <c r="M70" s="62"/>
-      <c r="N70" s="62"/>
-      <c r="O70" s="62"/>
-      <c r="P70" s="62"/>
-      <c r="Q70" s="62"/>
-      <c r="R70" s="62"/>
-      <c r="S70" s="62"/>
-      <c r="T70" s="62"/>
-      <c r="U70" s="62"/>
-      <c r="V70" s="62"/>
-      <c r="W70" s="62"/>
-      <c r="X70" s="62"/>
-      <c r="Y70" s="62"/>
-      <c r="Z70" s="62"/>
+      <c r="A70" s="64"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64"/>
+      <c r="I70" s="64"/>
+      <c r="J70" s="64"/>
+      <c r="K70" s="64"/>
+      <c r="L70" s="64"/>
+      <c r="M70" s="64"/>
+      <c r="N70" s="64"/>
+      <c r="O70" s="64"/>
+      <c r="P70" s="64"/>
+      <c r="Q70" s="64"/>
+      <c r="R70" s="64"/>
+      <c r="S70" s="64"/>
+      <c r="T70" s="64"/>
+      <c r="U70" s="64"/>
+      <c r="V70" s="64"/>
+      <c r="W70" s="64"/>
+      <c r="X70" s="64"/>
+      <c r="Y70" s="64"/>
+      <c r="Z70" s="64"/>
     </row>
     <row r="71" ht="15.0" customHeight="1">
-      <c r="A71" s="63" t="s">
+      <c r="A71" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="64" t="s">
+      <c r="B71" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="C71" s="62"/>
-      <c r="D71" s="62"/>
-      <c r="E71" s="62"/>
-      <c r="F71" s="62"/>
-      <c r="G71" s="62"/>
-      <c r="H71" s="62"/>
-      <c r="I71" s="62"/>
-      <c r="J71" s="62"/>
-      <c r="K71" s="62"/>
-      <c r="L71" s="62"/>
-      <c r="M71" s="62"/>
-      <c r="N71" s="62"/>
-      <c r="O71" s="62"/>
-      <c r="P71" s="62"/>
-      <c r="Q71" s="62"/>
-      <c r="R71" s="62"/>
-      <c r="S71" s="62"/>
-      <c r="T71" s="62"/>
-      <c r="U71" s="62"/>
-      <c r="V71" s="62"/>
-      <c r="W71" s="62"/>
-      <c r="X71" s="62"/>
-      <c r="Y71" s="62"/>
-      <c r="Z71" s="62"/>
+      <c r="C71" s="64"/>
+      <c r="D71" s="64"/>
+      <c r="E71" s="64"/>
+      <c r="F71" s="64"/>
+      <c r="G71" s="64"/>
+      <c r="H71" s="64"/>
+      <c r="I71" s="64"/>
+      <c r="J71" s="64"/>
+      <c r="K71" s="64"/>
+      <c r="L71" s="64"/>
+      <c r="M71" s="64"/>
+      <c r="N71" s="64"/>
+      <c r="O71" s="64"/>
+      <c r="P71" s="64"/>
+      <c r="Q71" s="64"/>
+      <c r="R71" s="64"/>
+      <c r="S71" s="64"/>
+      <c r="T71" s="64"/>
+      <c r="U71" s="64"/>
+      <c r="V71" s="64"/>
+      <c r="W71" s="64"/>
+      <c r="X71" s="64"/>
+      <c r="Y71" s="64"/>
+      <c r="Z71" s="64"/>
     </row>
     <row r="72" ht="15.0" customHeight="1">
-      <c r="A72" s="62"/>
-      <c r="B72" s="62"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="62"/>
-      <c r="I72" s="62"/>
-      <c r="J72" s="62"/>
-      <c r="K72" s="62"/>
-      <c r="L72" s="62"/>
-      <c r="M72" s="62"/>
-      <c r="N72" s="62"/>
-      <c r="O72" s="62"/>
-      <c r="P72" s="62"/>
-      <c r="Q72" s="62"/>
-      <c r="R72" s="62"/>
-      <c r="S72" s="62"/>
-      <c r="T72" s="62"/>
-      <c r="U72" s="62"/>
-      <c r="V72" s="62"/>
-      <c r="W72" s="62"/>
-      <c r="X72" s="62"/>
-      <c r="Y72" s="62"/>
-      <c r="Z72" s="62"/>
+      <c r="A72" s="64"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
+      <c r="I72" s="64"/>
+      <c r="J72" s="64"/>
+      <c r="K72" s="64"/>
+      <c r="L72" s="64"/>
+      <c r="M72" s="64"/>
+      <c r="N72" s="64"/>
+      <c r="O72" s="64"/>
+      <c r="P72" s="64"/>
+      <c r="Q72" s="64"/>
+      <c r="R72" s="64"/>
+      <c r="S72" s="64"/>
+      <c r="T72" s="64"/>
+      <c r="U72" s="64"/>
+      <c r="V72" s="64"/>
+      <c r="W72" s="64"/>
+      <c r="X72" s="64"/>
+      <c r="Y72" s="64"/>
+      <c r="Z72" s="64"/>
     </row>
     <row r="73" ht="15.0" customHeight="1">
-      <c r="A73" s="62"/>
-      <c r="B73" s="62"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
-      <c r="E73" s="62"/>
-      <c r="F73" s="62"/>
-      <c r="G73" s="62"/>
-      <c r="H73" s="62"/>
-      <c r="I73" s="62"/>
-      <c r="J73" s="62"/>
-      <c r="K73" s="62"/>
-      <c r="L73" s="62"/>
-      <c r="M73" s="62"/>
-      <c r="N73" s="62"/>
-      <c r="O73" s="62"/>
-      <c r="P73" s="62"/>
-      <c r="Q73" s="62"/>
-      <c r="R73" s="62"/>
-      <c r="S73" s="62"/>
-      <c r="T73" s="62"/>
-      <c r="U73" s="62"/>
-      <c r="V73" s="62"/>
-      <c r="W73" s="62"/>
-      <c r="X73" s="62"/>
-      <c r="Y73" s="62"/>
-      <c r="Z73" s="62"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="64"/>
+      <c r="C73" s="64"/>
+      <c r="D73" s="64"/>
+      <c r="E73" s="64"/>
+      <c r="F73" s="64"/>
+      <c r="G73" s="64"/>
+      <c r="H73" s="64"/>
+      <c r="I73" s="64"/>
+      <c r="J73" s="64"/>
+      <c r="K73" s="64"/>
+      <c r="L73" s="64"/>
+      <c r="M73" s="64"/>
+      <c r="N73" s="64"/>
+      <c r="O73" s="64"/>
+      <c r="P73" s="64"/>
+      <c r="Q73" s="64"/>
+      <c r="R73" s="64"/>
+      <c r="S73" s="64"/>
+      <c r="T73" s="64"/>
+      <c r="U73" s="64"/>
+      <c r="V73" s="64"/>
+      <c r="W73" s="64"/>
+      <c r="X73" s="64"/>
+      <c r="Y73" s="64"/>
+      <c r="Z73" s="64"/>
     </row>
     <row r="74" ht="15.0" customHeight="1">
-      <c r="A74" s="62"/>
-      <c r="B74" s="62"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="62"/>
-      <c r="K74" s="62"/>
-      <c r="L74" s="62"/>
-      <c r="M74" s="62"/>
-      <c r="N74" s="62"/>
-      <c r="O74" s="62"/>
-      <c r="P74" s="62"/>
-      <c r="Q74" s="62"/>
-      <c r="R74" s="62"/>
-      <c r="S74" s="62"/>
-      <c r="T74" s="62"/>
-      <c r="U74" s="62"/>
-      <c r="V74" s="62"/>
-      <c r="W74" s="62"/>
-      <c r="X74" s="62"/>
-      <c r="Y74" s="62"/>
-      <c r="Z74" s="62"/>
+      <c r="A74" s="64"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
+      <c r="I74" s="64"/>
+      <c r="J74" s="64"/>
+      <c r="K74" s="64"/>
+      <c r="L74" s="64"/>
+      <c r="M74" s="64"/>
+      <c r="N74" s="64"/>
+      <c r="O74" s="64"/>
+      <c r="P74" s="64"/>
+      <c r="Q74" s="64"/>
+      <c r="R74" s="64"/>
+      <c r="S74" s="64"/>
+      <c r="T74" s="64"/>
+      <c r="U74" s="64"/>
+      <c r="V74" s="64"/>
+      <c r="W74" s="64"/>
+      <c r="X74" s="64"/>
+      <c r="Y74" s="64"/>
+      <c r="Z74" s="64"/>
     </row>
     <row r="75" ht="15.0" customHeight="1">
-      <c r="A75" s="62"/>
-      <c r="B75" s="62"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="62"/>
-      <c r="L75" s="62"/>
-      <c r="M75" s="62"/>
-      <c r="N75" s="62"/>
-      <c r="O75" s="62"/>
-      <c r="P75" s="62"/>
-      <c r="Q75" s="62"/>
-      <c r="R75" s="62"/>
-      <c r="S75" s="62"/>
-      <c r="T75" s="62"/>
-      <c r="U75" s="62"/>
-      <c r="V75" s="62"/>
-      <c r="W75" s="62"/>
-      <c r="X75" s="62"/>
-      <c r="Y75" s="62"/>
-      <c r="Z75" s="62"/>
+      <c r="A75" s="64"/>
+      <c r="B75" s="64"/>
+      <c r="C75" s="64"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="64"/>
+      <c r="G75" s="64"/>
+      <c r="H75" s="64"/>
+      <c r="I75" s="64"/>
+      <c r="J75" s="64"/>
+      <c r="K75" s="64"/>
+      <c r="L75" s="64"/>
+      <c r="M75" s="64"/>
+      <c r="N75" s="64"/>
+      <c r="O75" s="64"/>
+      <c r="P75" s="64"/>
+      <c r="Q75" s="64"/>
+      <c r="R75" s="64"/>
+      <c r="S75" s="64"/>
+      <c r="T75" s="64"/>
+      <c r="U75" s="64"/>
+      <c r="V75" s="64"/>
+      <c r="W75" s="64"/>
+      <c r="X75" s="64"/>
+      <c r="Y75" s="64"/>
+      <c r="Z75" s="64"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1"/>
@@ -5939,7 +5945,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="65"/>
+      <c r="F107" s="67"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
@@ -5952,7 +5958,7 @@
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
-      <c r="S107" s="65"/>
+      <c r="S107" s="67"/>
       <c r="T107" s="1"/>
       <c r="U107" s="1"/>
       <c r="V107" s="1"/>
@@ -6358,8 +6364,8 @@
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="66"/>
-      <c r="F122" s="66"/>
+      <c r="E122" s="68"/>
+      <c r="F122" s="68"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
@@ -6371,8 +6377,8 @@
       <c r="O122" s="1"/>
       <c r="P122" s="1"/>
       <c r="Q122" s="1"/>
-      <c r="R122" s="66"/>
-      <c r="S122" s="66"/>
+      <c r="R122" s="68"/>
+      <c r="S122" s="68"/>
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
       <c r="V122" s="1"/>
@@ -6389,7 +6395,7 @@
       <c r="E123" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F123" s="65" t="s">
+      <c r="F123" s="67" t="s">
         <v>85</v>
       </c>
       <c r="G123" s="1"/>
@@ -6406,7 +6412,7 @@
       <c r="R123" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="S123" s="65" t="s">
+      <c r="S123" s="67" t="s">
         <v>86</v>
       </c>
       <c r="T123" s="1"/>
@@ -6425,12 +6431,12 @@
       <c r="E124" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F124" s="67" t="s">
+      <c r="F124" s="69" t="s">
         <v>87</v>
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
-      <c r="I124" s="68">
+      <c r="I124" s="70">
         <v>0.12</v>
       </c>
       <c r="J124" s="1"/>
@@ -6444,7 +6450,7 @@
       <c r="R124" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S124" s="67" t="s">
+      <c r="S124" s="69" t="s">
         <v>87</v>
       </c>
       <c r="T124" s="1"/>
@@ -6463,12 +6469,12 @@
       <c r="E125" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F125" s="67" t="s">
+      <c r="F125" s="69" t="s">
         <v>88</v>
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="1"/>
-      <c r="I125" s="68">
+      <c r="I125" s="70">
         <v>2.19</v>
       </c>
       <c r="J125" s="1"/>
@@ -6482,7 +6488,7 @@
       <c r="R125" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S125" s="67" t="s">
+      <c r="S125" s="69" t="s">
         <v>88</v>
       </c>
       <c r="T125" s="1"/>
@@ -6501,12 +6507,12 @@
       <c r="E126" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F126" s="67" t="s">
+      <c r="F126" s="69" t="s">
         <v>89</v>
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
-      <c r="I126" s="68">
+      <c r="I126" s="70">
         <v>0.55</v>
       </c>
       <c r="J126" s="1"/>
@@ -6520,7 +6526,7 @@
       <c r="R126" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="S126" s="67" t="s">
+      <c r="S126" s="69" t="s">
         <v>89</v>
       </c>
       <c r="T126" s="1"/>
@@ -6539,12 +6545,12 @@
       <c r="E127" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F127" s="67" t="s">
+      <c r="F127" s="69" t="s">
         <v>90</v>
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="1"/>
-      <c r="I127" s="68">
+      <c r="I127" s="70">
         <v>0.9</v>
       </c>
       <c r="J127" s="1"/>
@@ -6558,7 +6564,7 @@
       <c r="R127" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S127" s="67" t="s">
+      <c r="S127" s="69" t="s">
         <v>90</v>
       </c>
       <c r="T127" s="1"/>
@@ -6577,12 +6583,12 @@
       <c r="E128" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F128" s="67" t="s">
+      <c r="F128" s="69" t="s">
         <v>91</v>
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="1"/>
-      <c r="I128" s="68">
+      <c r="I128" s="70">
         <v>0.17</v>
       </c>
       <c r="J128" s="1"/>
@@ -6596,7 +6602,7 @@
       <c r="R128" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S128" s="67" t="s">
+      <c r="S128" s="69" t="s">
         <v>91</v>
       </c>
       <c r="T128" s="1"/>
@@ -6615,12 +6621,12 @@
       <c r="E129" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F129" s="67" t="s">
+      <c r="F129" s="69" t="s">
         <v>92</v>
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="1"/>
-      <c r="I129" s="68">
+      <c r="I129" s="70">
         <v>0.29</v>
       </c>
       <c r="J129" s="1"/>
@@ -6634,7 +6640,7 @@
       <c r="R129" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="S129" s="67" t="s">
+      <c r="S129" s="69" t="s">
         <v>92</v>
       </c>
       <c r="T129" s="1"/>
@@ -6653,12 +6659,12 @@
       <c r="E130" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F130" s="67" t="s">
+      <c r="F130" s="69" t="s">
         <v>93</v>
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="1"/>
-      <c r="I130" s="68">
+      <c r="I130" s="70">
         <v>0.7</v>
       </c>
       <c r="J130" s="1"/>
@@ -6672,7 +6678,7 @@
       <c r="R130" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="S130" s="67" t="s">
+      <c r="S130" s="69" t="s">
         <v>93</v>
       </c>
       <c r="T130" s="1"/>
@@ -6691,12 +6697,12 @@
       <c r="E131" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F131" s="67" t="s">
+      <c r="F131" s="69" t="s">
         <v>94</v>
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="1"/>
-      <c r="I131" s="68">
+      <c r="I131" s="70">
         <v>0.21</v>
       </c>
       <c r="J131" s="1"/>
@@ -6710,7 +6716,7 @@
       <c r="R131" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="S131" s="67" t="s">
+      <c r="S131" s="69" t="s">
         <v>94</v>
       </c>
       <c r="T131" s="1"/>
@@ -6726,8 +6732,8 @@
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="66"/>
-      <c r="F132" s="66"/>
+      <c r="E132" s="68"/>
+      <c r="F132" s="68"/>
       <c r="G132" s="1"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
@@ -6739,8 +6745,8 @@
       <c r="O132" s="1"/>
       <c r="P132" s="1"/>
       <c r="Q132" s="1"/>
-      <c r="R132" s="66"/>
-      <c r="S132" s="66"/>
+      <c r="R132" s="68"/>
+      <c r="S132" s="68"/>
       <c r="T132" s="1"/>
       <c r="U132" s="1"/>
       <c r="V132" s="1"/>
@@ -6754,10 +6760,10 @@
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
-      <c r="E133" s="69" t="s">
+      <c r="E133" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="F133" s="65" t="s">
+      <c r="F133" s="67" t="s">
         <v>96</v>
       </c>
       <c r="G133" s="1"/>
@@ -6771,10 +6777,10 @@
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
       <c r="Q133" s="1"/>
-      <c r="R133" s="69" t="s">
+      <c r="R133" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="S133" s="65" t="s">
+      <c r="S133" s="67" t="s">
         <v>96</v>
       </c>
       <c r="T133" s="1"/>
@@ -6790,10 +6796,10 @@
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
-      <c r="E134" s="70" t="s">
+      <c r="E134" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="F134" s="67" t="s">
+      <c r="F134" s="69" t="s">
         <v>98</v>
       </c>
       <c r="G134" s="1"/>
@@ -6807,10 +6813,10 @@
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
       <c r="Q134" s="1"/>
-      <c r="R134" s="70" t="s">
+      <c r="R134" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="S134" s="67" t="s">
+      <c r="S134" s="69" t="s">
         <v>98</v>
       </c>
       <c r="T134" s="1"/>
@@ -29454,7 +29460,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H59">
+  <conditionalFormatting sqref="H19:H59 L19:L59">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -29464,12 +29470,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H59">
+  <conditionalFormatting sqref="H19:H59 L19:L59">
     <cfRule type="cellIs" dxfId="0" priority="8" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19:H59">
+  <conditionalFormatting sqref="H19:H59 L19:L59">
     <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
